--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,55 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="17715" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="310">
   <si>
     <t>Biala</t>
   </si>
   <si>
-    <r>
-      <t>Bia</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ł</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>Reichenberg</t>
   </si>
   <si>
@@ -86,12 +70,6 @@
     <t>Cilli</t>
   </si>
   <si>
-    <t>Königsberg</t>
-  </si>
-  <si>
-    <t>Polnisch-Ostrau</t>
-  </si>
-  <si>
     <t>Agram</t>
   </si>
   <si>
@@ -110,9 +88,6 @@
     <t>Dalmatien</t>
   </si>
   <si>
-    <t>Küstenländer</t>
-  </si>
-  <si>
     <t>Zara</t>
   </si>
   <si>
@@ -128,21 +103,12 @@
     <t>Triest</t>
   </si>
   <si>
-    <t>Görz</t>
-  </si>
-  <si>
     <t>Tirol</t>
   </si>
   <si>
-    <t>Mähren</t>
-  </si>
-  <si>
     <t>Floridsdorf</t>
   </si>
   <si>
-    <t>Brüx</t>
-  </si>
-  <si>
     <t>Steiermark</t>
   </si>
   <si>
@@ -155,9 +121,6 @@
     <t>Petschau</t>
   </si>
   <si>
-    <t>Lünz</t>
-  </si>
-  <si>
     <t>Misdroy</t>
   </si>
   <si>
@@ -173,18 +136,12 @@
     <t>Ischl</t>
   </si>
   <si>
-    <t>Rakos-Palota</t>
-  </si>
-  <si>
     <t>Neupest</t>
   </si>
   <si>
     <t>Laibach</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>Liverpool</t>
   </si>
   <si>
@@ -245,15 +202,9 @@
     <t>Heidelberg</t>
   </si>
   <si>
-    <t>Wörth</t>
-  </si>
-  <si>
     <t>Nymphenburg</t>
   </si>
   <si>
-    <t>Starnberger See</t>
-  </si>
-  <si>
     <t>Trautenau</t>
   </si>
   <si>
@@ -266,21 +217,9 @@
     <t>Meran</t>
   </si>
   <si>
-    <t>Deutschböhmen</t>
-  </si>
-  <si>
-    <t>Brünn</t>
-  </si>
-  <si>
-    <t>Olmütz</t>
-  </si>
-  <si>
     <t>Temesvar</t>
   </si>
   <si>
-    <t>Winař</t>
-  </si>
-  <si>
     <t>Budweis</t>
   </si>
   <si>
@@ -314,9 +253,6 @@
     <t>Sangerberg</t>
   </si>
   <si>
-    <t>Königswart</t>
-  </si>
-  <si>
     <t>Eger</t>
   </si>
   <si>
@@ -596,9 +532,6 @@
     <t>Österr. Kronland Herzogtum Steiermark (Rep. Österreich, Rep. Slowenien/Rep. Slovenija)</t>
   </si>
   <si>
-    <t>Temesvár</t>
-  </si>
-  <si>
     <t xml:space="preserve">Timișoara </t>
   </si>
   <si>
@@ -716,9 +649,6 @@
     <t>Bosna;Босна</t>
   </si>
   <si>
-    <t>Novi Grad</t>
-  </si>
-  <si>
     <t>Gemeinde im Nordwesten von Bosnien und Herzegowina (Rep. Bosnien-Herzegowina/Rep. Bosna i Hercegovina)</t>
   </si>
   <si>
@@ -827,12 +757,6 @@
     <t>https://www.geonames.org/3197986/knin.html</t>
   </si>
   <si>
-    <t>3 Königsberg in Tschechien - nachsehen, welches</t>
-  </si>
-  <si>
-    <t>2 Königswart in Tschechien - nachsehen, welches</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/3197905/kokra.html</t>
   </si>
   <si>
@@ -840,12 +764,207 @@
   </si>
   <si>
     <t>Böhmen</t>
+  </si>
+  <si>
+    <t>Deutschboehmen</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3173577/merano.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3063907/trutnov.html</t>
+  </si>
+  <si>
+    <t>Maehren</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3070359/moravia.html</t>
+  </si>
+  <si>
+    <t>Bruenn</t>
+  </si>
+  <si>
+    <t>Olmuetz</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11924204/liberec.html</t>
+  </si>
+  <si>
+    <t>Oesterreich</t>
+  </si>
+  <si>
+    <t>Luenz</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3070490/mlynce.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/665087/timisoara.html</t>
+  </si>
+  <si>
+    <t>Winar</t>
+  </si>
+  <si>
+    <t>Kuestenlaender</t>
+  </si>
+  <si>
+    <t>Istrien</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3337514/istria.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2635167/united-kingdom-of-great-britain-and-northern-ireland.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3054667/buda.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.geonames.org/6559171/muenchen-landeshauptstadt.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3067696/prague.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3068160/pilsen.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11748058/silesian-metropolis.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3061822/zatec.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3071024/marianske-lazne.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3068119/podborany.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2988507/paris.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3067688/prameny.html</t>
+  </si>
+  <si>
+    <t>Koenigswart</t>
+  </si>
+  <si>
+    <t>Koenigsberg</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3072265/lazne-kynzvart.html</t>
+  </si>
+  <si>
+    <t>CA: habe das in der Nähe von Marienbad gewählt</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2761369/vienna.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2782113/republic-of-austria.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/719819/hungary.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2763586/tirol.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2764581/steiermark.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/702550/lviv.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3239318/mestna-obcina-ljubljana.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3202326/republic-of-croatia.html</t>
+  </si>
+  <si>
+    <t>NoviGrad</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/5128638/new-york.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3333167/liverpool.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3079609/becov-nad-teplou.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6557460/norderney.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2861525/nymphenburg.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2967305/woerth.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2829454/starnberger-see.html</t>
+  </si>
+  <si>
+    <t>StarnbergerSee</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/2017370/russian-federation.html</t>
+  </si>
+  <si>
+    <t>RakosPalota</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3175395/italian-republic.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3165241/provincia-autonoma-di-trento.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6539916/rovereto.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3165185/trieste.html</t>
+  </si>
+  <si>
+    <t>Goerz</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11920184/opava.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/7532301/cieszyn.html</t>
+  </si>
+  <si>
+    <t>Bruex</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11921844/kynsperk-nad-ohri.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11921098/ostrava.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/11055010/zadar.html</t>
+  </si>
+  <si>
+    <t>Amerika</t>
+  </si>
+  <si>
+    <t>Vereinigte Staaten von Amerika</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6252001/united-states.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,12 +972,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -878,6 +991,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -917,25 +1037,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -945,29 +1065,40 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1031,14 +1162,6 @@
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1053,22 +1176,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F89" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F92" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
   <tableColumns count="6">
-    <tableColumn id="5" name="aktuelle Schreibung" dataDxfId="5"/>
-    <tableColumn id="1" name="Keywert" dataDxfId="4"/>
-    <tableColumn id="3" name="Schreibungsvarianten Baernreither" dataDxfId="3"/>
-    <tableColumn id="4" name="Bezeichnung" dataDxfId="2"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="0"/>
+    <tableColumn id="5" name="aktuelle Schreibung" dataDxfId="7"/>
+    <tableColumn id="1" name="Keywert" dataDxfId="6"/>
+    <tableColumn id="3" name="Schreibungsvarianten Baernreither" dataDxfId="5"/>
+    <tableColumn id="4" name="Bezeichnung" dataDxfId="4"/>
+    <tableColumn id="2" name="GeoNames" dataDxfId="3"/>
+    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-Design">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1113,9 +1235,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1148,9 +1270,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1354,1313 +1476,1447 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="5" width="53.140625" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="53.1640625" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>211</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>104</v>
-      </c>
+    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>78</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>236</v>
-      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>137</v>
+        <v>192</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>303</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="E22" s="8"/>
+    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>228</v>
+      </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>249</v>
+    <row r="23" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+    <row r="24" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>109</v>
-      </c>
+    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="F27" s="4"/>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>236</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="8"/>
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>237</v>
+      </c>
       <c r="F32" s="4"/>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>144</v>
-      </c>
+      <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>296</v>
       </c>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D37" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>18</v>
+        <v>273</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D38" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="D39" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="B40" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E41" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>283</v>
+      </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>123</v>
-      </c>
+    <row r="42" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>258</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
+    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="B43" s="4" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="F43" s="4"/>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="F44" s="4"/>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>127</v>
-      </c>
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="F45" s="4"/>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>85</v>
+        <v>254</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="F46" s="4"/>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>73</v>
+        <v>248</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="F47" s="4"/>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="F48" s="4"/>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="B49" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>246</v>
+      </c>
       <c r="F49" s="4"/>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>192</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>155</v>
-      </c>
+    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="F51" s="4"/>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>137</v>
+      </c>
       <c r="B52" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
+    <row r="53" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="B53" s="4" t="s">
-        <v>224</v>
+        <v>285</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>286</v>
+      </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="F54" s="4"/>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>159</v>
-      </c>
+    <row r="55" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="4"/>
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="F56" s="4"/>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>143</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="F57" s="4"/>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="B58" s="4" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="F58" s="4"/>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>36</v>
+        <v>251</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>169</v>
-      </c>
+    <row r="60" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="F61" s="4"/>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E62" s="4"/>
+        <v>159</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="F62" s="4"/>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
+    <row r="63" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="B63" s="4" t="s">
-        <v>87</v>
+        <v>28</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="F63" s="4"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>7</v>
+        <v>150</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E64" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="F64" s="4"/>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E65" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>270</v>
+      </c>
       <c r="F65" s="4"/>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E66" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>264</v>
+      </c>
       <c r="F66" s="4"/>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>172</v>
-      </c>
+    <row r="67" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B68" s="4" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+    <row r="69" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B69" s="4" t="s">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>252</v>
+      </c>
       <c r="F69" s="4"/>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>165</v>
-      </c>
+    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E70" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>298</v>
+      </c>
       <c r="F70" s="4"/>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>180</v>
-      </c>
+    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="F71" s="4"/>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+    <row r="72" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B72" s="4" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E72" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>267</v>
+      </c>
       <c r="F72" s="4"/>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+    <row r="73" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="B73" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E73" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>271</v>
+      </c>
       <c r="F73" s="4"/>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E74" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>266</v>
+      </c>
       <c r="F74" s="4"/>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>185</v>
-      </c>
+    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>77</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E75" s="4"/>
+        <v>165</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="F75" s="4"/>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>187</v>
+        <v>26</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E76" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>280</v>
+      </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D77" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E77" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="F77" s="4"/>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+    <row r="79" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="B79" s="4" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="E79" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="F79" s="4"/>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4" t="s">
-        <v>137</v>
+        <v>175</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E81" s="4"/>
+        <v>187</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>279</v>
+      </c>
       <c r="F81" s="4"/>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E82" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>247</v>
+      </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>195</v>
-      </c>
+    <row r="83" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E83" s="4"/>
-      <c r="F83" s="6"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="B84" s="4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E84" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>299</v>
+      </c>
       <c r="F84" s="4"/>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E85" s="6"/>
-      <c r="F85" s="4"/>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+    <row r="85" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B86" s="4" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E86" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>278</v>
+      </c>
       <c r="F86" s="4"/>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="4"/>
+    <row r="87" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E87" s="6"/>
       <c r="F87" s="4"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E88" s="7"/>
+    <row r="88" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>276</v>
+      </c>
       <c r="F88" s="4"/>
     </row>
-    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+    <row r="89" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E89" s="7"/>
+      <c r="E89" s="4"/>
       <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A92" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F92" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E4" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E12" r:id="rId9"/>
-    <hyperlink ref="E13" r:id="rId10"/>
-    <hyperlink ref="E14" r:id="rId11"/>
-    <hyperlink ref="E15" r:id="rId12"/>
-    <hyperlink ref="E16" r:id="rId13"/>
-    <hyperlink ref="E18" r:id="rId14"/>
-    <hyperlink ref="E17" r:id="rId15"/>
-    <hyperlink ref="E19" r:id="rId16"/>
-    <hyperlink ref="E20" r:id="rId17"/>
-    <hyperlink ref="E21" r:id="rId18"/>
-    <hyperlink ref="E23" r:id="rId19"/>
-    <hyperlink ref="E24" r:id="rId20"/>
-    <hyperlink ref="E25" r:id="rId21"/>
-    <hyperlink ref="E26" r:id="rId22"/>
-    <hyperlink ref="E27" r:id="rId23"/>
-    <hyperlink ref="E28" r:id="rId24"/>
-    <hyperlink ref="E29" r:id="rId25"/>
-    <hyperlink ref="E9" r:id="rId26"/>
-    <hyperlink ref="E30" r:id="rId27"/>
-    <hyperlink ref="E31" r:id="rId28"/>
-    <hyperlink ref="E33" r:id="rId29"/>
-    <hyperlink ref="E34" r:id="rId30"/>
-    <hyperlink ref="E35" r:id="rId31"/>
-    <hyperlink ref="E38" r:id="rId32"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E6" r:id="rId4"/>
+    <hyperlink ref="E7" r:id="rId5"/>
+    <hyperlink ref="E8" r:id="rId6"/>
+    <hyperlink ref="E11" r:id="rId7"/>
+    <hyperlink ref="E12" r:id="rId8"/>
+    <hyperlink ref="E13" r:id="rId9"/>
+    <hyperlink ref="E14" r:id="rId10"/>
+    <hyperlink ref="E15" r:id="rId11"/>
+    <hyperlink ref="E16" r:id="rId12"/>
+    <hyperlink ref="E17" r:id="rId13"/>
+    <hyperlink ref="E19" r:id="rId14"/>
+    <hyperlink ref="E18" r:id="rId15"/>
+    <hyperlink ref="E20" r:id="rId16"/>
+    <hyperlink ref="E21" r:id="rId17"/>
+    <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="E24" r:id="rId19"/>
+    <hyperlink ref="E25" r:id="rId20"/>
+    <hyperlink ref="E26" r:id="rId21"/>
+    <hyperlink ref="E27" r:id="rId22"/>
+    <hyperlink ref="E28" r:id="rId23"/>
+    <hyperlink ref="E29" r:id="rId24"/>
+    <hyperlink ref="E30" r:id="rId25"/>
+    <hyperlink ref="E10" r:id="rId26"/>
+    <hyperlink ref="E31" r:id="rId27"/>
+    <hyperlink ref="E35" r:id="rId28"/>
+    <hyperlink ref="E36" r:id="rId29"/>
+    <hyperlink ref="E37" r:id="rId30"/>
+    <hyperlink ref="E40" r:id="rId31"/>
+    <hyperlink ref="E32" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
@@ -2676,7 +2932,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2688,7 +2944,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="306">
   <si>
     <t>Biala</t>
   </si>
@@ -658,9 +650,6 @@
     <t>https://www.geonames.org/3186886/zagreb.html</t>
   </si>
   <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
     <t>aktuelle Schreibung</t>
   </si>
   <si>
@@ -748,9 +737,6 @@
     <t>https://www.geonames.org/2774686/kaernten.html</t>
   </si>
   <si>
-    <t>ist aber nicht historisches Herzogtum Kärnten!</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/3073803/karlovy-vary.html</t>
   </si>
   <si>
@@ -760,9 +746,6 @@
     <t>https://www.geonames.org/3197905/kokra.html</t>
   </si>
   <si>
-    <t>Kroka oder Kranjska???</t>
-  </si>
-  <si>
     <t>Böhmen</t>
   </si>
   <si>
@@ -854,9 +837,6 @@
   </si>
   <si>
     <t>https://www.geonames.org/3072265/lazne-kynzvart.html</t>
-  </si>
-  <si>
-    <t>CA: habe das in der Nähe von Marienbad gewählt</t>
   </si>
   <si>
     <t>https://www.geonames.org/2761369/vienna.html</t>
@@ -965,7 +945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -991,13 +971,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1042,7 +1015,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1082,23 +1055,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1160,7 +1122,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1176,14 +1137,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:F92" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <tableColumns count="6">
-    <tableColumn id="5" name="aktuelle Schreibung" dataDxfId="7"/>
-    <tableColumn id="1" name="Keywert" dataDxfId="6"/>
-    <tableColumn id="3" name="Schreibungsvarianten Baernreither" dataDxfId="5"/>
-    <tableColumn id="4" name="Bezeichnung" dataDxfId="4"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="3"/>
-    <tableColumn id="6" name="Spalte1" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E92" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <tableColumns count="5">
+    <tableColumn id="5" name="aktuelle Schreibung" dataDxfId="4"/>
+    <tableColumn id="1" name="Keywert" dataDxfId="3"/>
+    <tableColumn id="3" name="Schreibungsvarianten Baernreither" dataDxfId="2"/>
+    <tableColumn id="4" name="Bezeichnung" dataDxfId="1"/>
+    <tableColumn id="2" name="GeoNames" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1476,24 +1436,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="53.1640625" customWidth="1"/>
-    <col min="6" max="6" width="46.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>41</v>
@@ -1507,11 +1466,8 @@
       <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -1525,28 +1481,26 @@
       <c r="E2" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
@@ -1557,9 +1511,8 @@
       <c r="E4" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>66</v>
@@ -1569,11 +1522,10 @@
         <v>75</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
         <v>52</v>
@@ -1583,11 +1535,10 @@
         <v>88</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -1601,37 +1552,34 @@
         <v>199</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>205</v>
       </c>
@@ -1643,11 +1591,10 @@
         <v>194</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>77</v>
       </c>
@@ -1659,43 +1606,40 @@
         <v>119</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -1707,11 +1651,10 @@
         <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>80</v>
       </c>
@@ -1723,11 +1666,10 @@
         <v>121</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>81</v>
       </c>
@@ -1739,11 +1681,10 @@
         <v>126</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>90</v>
       </c>
@@ -1755,25 +1696,23 @@
         <v>193</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13" t="s">
         <v>125</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>51</v>
       </c>
@@ -1785,11 +1724,10 @@
         <v>91</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -1801,11 +1739,10 @@
         <v>113</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>83</v>
       </c>
@@ -1817,11 +1754,10 @@
         <v>112</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>84</v>
       </c>
@@ -1833,11 +1769,10 @@
         <v>114</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="8" t="s">
         <v>33</v>
@@ -1847,11 +1782,10 @@
         <v>85</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
@@ -1863,11 +1797,10 @@
         <v>103</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
         <v>25</v>
@@ -1877,11 +1810,10 @@
         <v>195</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>60</v>
@@ -1891,27 +1823,25 @@
         <v>201</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>17</v>
@@ -1921,11 +1851,10 @@
         <v>100</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>56</v>
@@ -1935,11 +1864,10 @@
         <v>93</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>54</v>
@@ -1949,11 +1877,10 @@
         <v>95</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>48</v>
@@ -1963,11 +1890,10 @@
         <v>194</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
         <v>20</v>
@@ -1977,25 +1903,23 @@
         <v>99</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="8" t="s">
         <v>45</v>
@@ -2005,11 +1929,10 @@
         <v>96</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4" t="s">
         <v>16</v>
@@ -2019,13 +1942,10 @@
         <v>127</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>97</v>
       </c>
@@ -2039,11 +1959,10 @@
         <v>98</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4" t="s">
         <v>196</v>
@@ -2053,45 +1972,40 @@
         <v>197</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="16" t="s">
         <v>123</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="16" t="s">
         <v>115</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>102</v>
       </c>
@@ -2103,13 +2017,10 @@
         <v>128</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>104</v>
       </c>
@@ -2121,23 +2032,21 @@
         <v>130</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-    </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>105</v>
       </c>
@@ -2149,11 +2058,10 @@
         <v>124</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>106</v>
       </c>
@@ -2165,11 +2073,10 @@
         <v>107</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4" t="s">
         <v>37</v>
@@ -2179,43 +2086,40 @@
         <v>108</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="F45" s="4"/>
-    </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>111</v>
       </c>
@@ -2227,11 +2131,10 @@
         <v>116</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>132</v>
       </c>
@@ -2243,11 +2146,10 @@
         <v>133</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>134</v>
       </c>
@@ -2259,9 +2161,8 @@
         <v>135</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-    </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4" t="s">
         <v>55</v>
@@ -2271,11 +2172,10 @@
         <v>136</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F51" s="4"/>
-    </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -2287,25 +2187,23 @@
         <v>174</v>
       </c>
       <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-    </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F53" s="4"/>
-    </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
       <c r="B54" s="4" t="s">
         <v>53</v>
@@ -2315,23 +2213,21 @@
         <v>140</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4" t="s">
         <v>57</v>
@@ -2341,11 +2237,10 @@
         <v>141</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>142</v>
       </c>
@@ -2357,39 +2252,36 @@
         <v>143</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F58" s="4"/>
-    </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>144</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
         <v>204</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-    </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
         <v>50</v>
@@ -2399,9 +2291,8 @@
         <v>200</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-    </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>145</v>
       </c>
@@ -2413,11 +2304,10 @@
         <v>146</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="F61" s="4"/>
-    </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>152</v>
       </c>
@@ -2429,11 +2319,10 @@
         <v>159</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>147</v>
       </c>
@@ -2445,11 +2334,10 @@
         <v>149</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>150</v>
       </c>
@@ -2461,11 +2349,10 @@
         <v>151</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
         <v>71</v>
@@ -2475,11 +2362,10 @@
         <v>153</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>7</v>
       </c>
@@ -2491,11 +2377,10 @@
         <v>160</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F66" s="4"/>
-    </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4" t="s">
         <v>43</v>
@@ -2505,23 +2390,21 @@
         <v>154</v>
       </c>
       <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-    </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-    </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>155</v>
       </c>
@@ -2533,11 +2416,10 @@
         <v>158</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69" s="4"/>
-    </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4" t="s">
         <v>22</v>
@@ -2547,11 +2429,10 @@
         <v>161</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4" t="s">
         <v>49</v>
@@ -2561,11 +2442,10 @@
         <v>162</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>148</v>
       </c>
@@ -2577,11 +2457,10 @@
         <v>149</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>163</v>
       </c>
@@ -2593,11 +2472,10 @@
         <v>112</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4" t="s">
         <v>9</v>
@@ -2607,25 +2485,23 @@
         <v>164</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F74" s="4"/>
-    </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="4" t="s">
         <v>165</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="4"/>
-    </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>26</v>
       </c>
@@ -2637,11 +2513,10 @@
         <v>166</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F76" s="4"/>
-    </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>167</v>
       </c>
@@ -2655,11 +2530,10 @@
         <v>168</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F77" s="4"/>
-    </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>169</v>
       </c>
@@ -2671,9 +2545,8 @@
         <v>170</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>171</v>
       </c>
@@ -2685,11 +2558,10 @@
         <v>172</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>173</v>
       </c>
@@ -2701,9 +2573,8 @@
         <v>175</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>24</v>
@@ -2713,11 +2584,10 @@
         <v>187</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>176</v>
       </c>
@@ -2729,11 +2599,10 @@
         <v>120</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>21</v>
@@ -2743,11 +2612,10 @@
         <v>178</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F83" s="4"/>
-    </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>23</v>
       </c>
@@ -2759,11 +2627,10 @@
         <v>186</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="F84" s="4"/>
-    </row>
-    <row r="85" spans="1:6" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>177</v>
       </c>
@@ -2775,11 +2642,10 @@
         <v>179</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>42</v>
       </c>
@@ -2791,11 +2657,10 @@
         <v>180</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>189</v>
       </c>
@@ -2809,9 +2674,8 @@
         <v>190</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4" t="s">
         <v>2</v>
@@ -2821,25 +2685,23 @@
         <v>181</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>182</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>2</v>
       </c>
@@ -2849,9 +2711,8 @@
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>183</v>
       </c>
@@ -2863,11 +2724,10 @@
         <v>184</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="F91" s="4"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>185</v>
       </c>
@@ -2879,9 +2739,8 @@
         <v>198</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F92" s="4"/>
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2932,7 +2791,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2944,7 +2803,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Desktop/Kommission f gesch ö/Kommission Aichner/Projekte/Baernreither/Clariah 2022/Register/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,9 +27,6 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>GeoNames</t>
-  </si>
-  <si>
     <t>Prag</t>
   </si>
   <si>
@@ -712,9 +699,6 @@
     <t>https://d-nb.info/gnd/4280197-7</t>
   </si>
   <si>
-    <t>Keywert</t>
-  </si>
-  <si>
     <t>BadIschl</t>
   </si>
   <si>
@@ -797,6 +781,12 @@
   </si>
   <si>
     <t>https://www.geonames.org/2763587/tyrol.html</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
 </sst>
 </file>
@@ -892,7 +882,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -969,8 +959,8 @@
   <tableColumns count="4">
     <tableColumn id="5" name="Name" dataDxfId="3"/>
     <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
-    <tableColumn id="3" name="Keywert" dataDxfId="0"/>
+    <tableColumn id="2" name="PID" dataDxfId="1"/>
+    <tableColumn id="3" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1265,1196 +1255,1196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>117</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>29</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B43" s="4" t="s">
+      <c r="C43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="C44" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>85</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="C56" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="C69" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C75" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="C77" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C81" s="4" t="s">
+      <c r="C82" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="D84" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2516,28 +2506,4 @@
     <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="330"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,6 +37,9 @@
     <t>Wien</t>
   </si>
   <si>
+    <t>GeoNames</t>
+  </si>
+  <si>
     <t>Prag</t>
   </si>
   <si>
@@ -237,9 +250,6 @@
     <t>Dalmacija</t>
   </si>
   <si>
-    <t>Gorizia</t>
-  </si>
-  <si>
     <t>Karlovy Vary</t>
   </si>
   <si>
@@ -378,9 +388,6 @@
     <t>https://www.geonames.org/3202210/dalmatia.html</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/7509421-6</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/11926248/cheb.html</t>
   </si>
   <si>
@@ -639,9 +646,6 @@
     <t>Untersteiermark</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4119311-8</t>
-  </si>
-  <si>
     <t>Magyarország</t>
   </si>
   <si>
@@ -693,10 +697,7 @@
     <t>Küstenland</t>
   </si>
   <si>
-    <t>https://d-nb.info/gnd/4398117-3</t>
-  </si>
-  <si>
-    <t>https://d-nb.info/gnd/4280197-7</t>
+    <t>Keywert</t>
   </si>
   <si>
     <t>BadIschl</t>
@@ -783,10 +784,19 @@
     <t>https://www.geonames.org/2763587/tyrol.html</t>
   </si>
   <si>
-    <t>PID</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>https://www.geonames.org/2921044/federal-republic-of-germany.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/7530808/powiat-cieszynski.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12022680/podravska.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12022679/goriska.html</t>
+  </si>
+  <si>
+    <t>Gorizia/Gorica</t>
   </si>
 </sst>
 </file>
@@ -882,7 +892,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -959,8 +969,8 @@
   <tableColumns count="4">
     <tableColumn id="5" name="Name" dataDxfId="3"/>
     <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="PID" dataDxfId="1"/>
-    <tableColumn id="3" name="key" dataDxfId="0"/>
+    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
+    <tableColumn id="3" name="Keywert" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1256,433 +1266,433 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>254</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>255</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1691,233 +1701,233 @@
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>82</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>85</v>
@@ -1926,206 +1936,206 @@
         <v>115</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>89</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>92</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>91</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -2133,318 +2143,318 @@
         <v>93</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>95</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>96</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>99</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>101</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2462,48 +2472,69 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C15" r:id="rId14"/>
-    <hyperlink ref="C16" r:id="rId15"/>
-    <hyperlink ref="C17" r:id="rId16"/>
-    <hyperlink ref="C18" r:id="rId17"/>
-    <hyperlink ref="C20" r:id="rId18"/>
-    <hyperlink ref="C21" r:id="rId19"/>
-    <hyperlink ref="C23" r:id="rId20"/>
-    <hyperlink ref="C24" r:id="rId21"/>
-    <hyperlink ref="C25" r:id="rId22"/>
-    <hyperlink ref="C26" r:id="rId23"/>
-    <hyperlink ref="C9" r:id="rId24"/>
-    <hyperlink ref="C27" r:id="rId25"/>
-    <hyperlink ref="C32" r:id="rId26"/>
-    <hyperlink ref="C31" r:id="rId27"/>
-    <hyperlink ref="C33" r:id="rId28"/>
-    <hyperlink ref="C28" r:id="rId29"/>
-    <hyperlink ref="C22" r:id="rId30"/>
-    <hyperlink ref="C89" r:id="rId31" display="https://www.geonames.org/11055010/zadar.html "/>
-    <hyperlink ref="C88" r:id="rId32"/>
-    <hyperlink ref="C19" r:id="rId33"/>
-    <hyperlink ref="C64" r:id="rId34"/>
-    <hyperlink ref="C87" r:id="rId35"/>
-    <hyperlink ref="C85" r:id="rId36"/>
-    <hyperlink ref="C84" r:id="rId37"/>
-    <hyperlink ref="C77" r:id="rId38"/>
-    <hyperlink ref="C75" r:id="rId39"/>
-    <hyperlink ref="C65" r:id="rId40"/>
-    <hyperlink ref="C61" r:id="rId41"/>
-    <hyperlink ref="C55" r:id="rId42"/>
-    <hyperlink ref="C53" r:id="rId43"/>
-    <hyperlink ref="C37" r:id="rId44"/>
-    <hyperlink ref="C50" r:id="rId45"/>
-    <hyperlink ref="C49" r:id="rId46"/>
-    <hyperlink ref="C47" r:id="rId47"/>
-    <hyperlink ref="C45" r:id="rId48"/>
-    <hyperlink ref="C38" r:id="rId49"/>
-    <hyperlink ref="C58" r:id="rId50"/>
+    <hyperlink ref="C16" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15"/>
+    <hyperlink ref="C18" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C21" r:id="rId18"/>
+    <hyperlink ref="C23" r:id="rId19"/>
+    <hyperlink ref="C24" r:id="rId20"/>
+    <hyperlink ref="C25" r:id="rId21"/>
+    <hyperlink ref="C26" r:id="rId22"/>
+    <hyperlink ref="C9" r:id="rId23"/>
+    <hyperlink ref="C27" r:id="rId24"/>
+    <hyperlink ref="C32" r:id="rId25"/>
+    <hyperlink ref="C31" r:id="rId26"/>
+    <hyperlink ref="C33" r:id="rId27"/>
+    <hyperlink ref="C28" r:id="rId28"/>
+    <hyperlink ref="C22" r:id="rId29"/>
+    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html "/>
+    <hyperlink ref="C88" r:id="rId31"/>
+    <hyperlink ref="C19" r:id="rId32"/>
+    <hyperlink ref="C64" r:id="rId33"/>
+    <hyperlink ref="C87" r:id="rId34"/>
+    <hyperlink ref="C85" r:id="rId35"/>
+    <hyperlink ref="C77" r:id="rId36"/>
+    <hyperlink ref="C75" r:id="rId37"/>
+    <hyperlink ref="C65" r:id="rId38"/>
+    <hyperlink ref="C61" r:id="rId39"/>
+    <hyperlink ref="C55" r:id="rId40"/>
+    <hyperlink ref="C53" r:id="rId41"/>
+    <hyperlink ref="C37" r:id="rId42"/>
+    <hyperlink ref="C50" r:id="rId43"/>
+    <hyperlink ref="C49" r:id="rId44"/>
+    <hyperlink ref="C47" r:id="rId45"/>
+    <hyperlink ref="C45" r:id="rId46"/>
+    <hyperlink ref="C58" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId52"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -13,13 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="330"/>
+      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="257">
   <si>
     <t>Reichenberg</t>
   </si>
@@ -37,9 +35,6 @@
     <t>Wien</t>
   </si>
   <si>
-    <t>GeoNames</t>
-  </si>
-  <si>
     <t>Prag</t>
   </si>
   <si>
@@ -697,9 +692,6 @@
     <t>Küstenland</t>
   </si>
   <si>
-    <t>Keywert</t>
-  </si>
-  <si>
     <t>BadIschl</t>
   </si>
   <si>
@@ -797,6 +789,15 @@
   </si>
   <si>
     <t>Gorizia/Gorica</t>
+  </si>
+  <si>
+    <t>PID</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/12059772/budapest-vi.html</t>
   </si>
 </sst>
 </file>
@@ -969,8 +970,8 @@
   <tableColumns count="4">
     <tableColumn id="5" name="Name" dataDxfId="3"/>
     <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="GeoNames" dataDxfId="1"/>
-    <tableColumn id="3" name="Keywert" dataDxfId="0"/>
+    <tableColumn id="2" name="PID" dataDxfId="1"/>
+    <tableColumn id="3" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1265,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="224" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1279,860 +1280,860 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>220</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2140,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>0</v>
@@ -2151,258 +2152,258 @@
     </row>
     <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>188</v>
-      </c>
       <c r="C69" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2411,7 +2412,7 @@
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D86" s="4" t="s">
         <v>1</v>
@@ -2419,42 +2420,42 @@
     </row>
     <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2495,7 @@
     <hyperlink ref="C64" r:id="rId33"/>
     <hyperlink ref="C87" r:id="rId34"/>
     <hyperlink ref="C85" r:id="rId35"/>
-    <hyperlink ref="C77" r:id="rId36"/>
+    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html "/>
     <hyperlink ref="C75" r:id="rId37"/>
     <hyperlink ref="C65" r:id="rId38"/>
     <hyperlink ref="C61" r:id="rId39"/>
@@ -2513,28 +2514,4 @@
     <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0574EB03-8D50-4FD3-B041-6BF42C68E979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E892C4-3EC0-4F03-9ECC-D86867EFE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,7 +798,7 @@
     <t>https://www.geonames.org/12059772/budapest-vi.html</t>
   </si>
   <si>
-    <t>https://www.geonames.org/5128581/new-york.html</t>
+    <t>https://www.geonames.org/5128581/new-york-city.html</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1268,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="224" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\dev-baernreither-app\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9CC9CB-021D-4ED2-9672-7997D52B7227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720"/>
+    <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -506,9 +507,6 @@
     <t>https://www.geonames.org/3202326/republic-of-croatia.html</t>
   </si>
   <si>
-    <t>https://www.geonames.org/5128638/new-york.html</t>
-  </si>
-  <si>
     <t>https://www.geonames.org/3333167/liverpool.html</t>
   </si>
   <si>
@@ -798,12 +796,15 @@
   </si>
   <si>
     <t>https://www.geonames.org/12059772/budapest-vi.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/5128581/new-york-city.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -892,8 +893,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -963,15 +964,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <sortState ref="A2:D89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:D1048575" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D89">
     <sortCondition ref="A2"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="5" name="Name" dataDxfId="3"/>
-    <tableColumn id="1" name="heute" dataDxfId="2"/>
-    <tableColumn id="2" name="PID" dataDxfId="1"/>
-    <tableColumn id="3" name="key" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="heute" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PID" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="key" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1263,36 +1264,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="224" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="224" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="74.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="74.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1306,19 +1307,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
@@ -1342,9 +1343,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>70</v>
@@ -1353,10 +1354,10 @@
         <v>108</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>132</v>
       </c>
@@ -1367,10 +1368,10 @@
         <v>109</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1384,33 +1385,33 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>112</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1472,13 +1473,13 @@
         <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
@@ -1492,7 +1493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>58</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>46</v>
       </c>
@@ -1520,19 +1521,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
@@ -1546,12 +1547,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>122</v>
@@ -1560,7 +1561,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1572,21 +1573,21 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -1610,7 +1611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>41</v>
       </c>
@@ -1622,19 +1623,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" s="1" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>140</v>
       </c>
@@ -1658,19 +1659,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>26</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>12</v>
       </c>
@@ -1693,10 +1694,10 @@
         <v>129</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -1708,23 +1709,23 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>73</v>
@@ -1733,10 +1734,10 @@
         <v>151</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1744,13 +1745,13 @@
         <v>74</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1764,19 +1765,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>27</v>
       </c>
@@ -1790,7 +1791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>54</v>
       </c>
@@ -1804,21 +1805,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>78</v>
@@ -1827,12 +1828,12 @@
         <v>137</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>79</v>
@@ -1841,10 +1842,10 @@
         <v>135</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>55</v>
       </c>
@@ -1858,21 +1859,21 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B45" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>48</v>
       </c>
@@ -1886,7 +1887,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>25</v>
       </c>
@@ -1894,41 +1895,41 @@
         <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>113</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>84</v>
@@ -1937,58 +1938,58 @@
         <v>114</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>159</v>
+      <c r="C51" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>52</v>
       </c>
@@ -2002,21 +2003,21 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>87</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>32</v>
       </c>
@@ -2025,22 +2026,22 @@
         <v>153</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>57</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>24</v>
       </c>
@@ -2060,13 +2061,13 @@
         <v>88</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>51</v>
       </c>
@@ -2074,13 +2075,13 @@
         <v>91</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>23</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>2</v>
       </c>
@@ -2108,35 +2109,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>0</v>
       </c>
@@ -2150,45 +2151,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>187</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>59</v>
       </c>
@@ -2202,12 +2203,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>145</v>
@@ -2216,19 +2217,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>22</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>49</v>
       </c>
@@ -2254,7 +2255,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>56</v>
       </c>
@@ -2262,53 +2263,53 @@
         <v>96</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>45</v>
       </c>
@@ -2322,7 +2323,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>17</v>
       </c>
@@ -2330,27 +2331,27 @@
         <v>17</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>7</v>
       </c>
@@ -2358,18 +2359,18 @@
         <v>99</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>154</v>
@@ -2378,35 +2379,35 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>1</v>
       </c>
@@ -2418,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>139</v>
       </c>
@@ -2426,33 +2427,33 @@
         <v>100</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D87" s="7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>15</v>
@@ -2460,58 +2461,59 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C10" r:id="rId8"/>
-    <hyperlink ref="C48" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
-    <hyperlink ref="C12" r:id="rId11"/>
-    <hyperlink ref="C13" r:id="rId12"/>
-    <hyperlink ref="C14" r:id="rId13"/>
-    <hyperlink ref="C16" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15"/>
-    <hyperlink ref="C18" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
-    <hyperlink ref="C21" r:id="rId18"/>
-    <hyperlink ref="C23" r:id="rId19"/>
-    <hyperlink ref="C24" r:id="rId20"/>
-    <hyperlink ref="C25" r:id="rId21"/>
-    <hyperlink ref="C26" r:id="rId22"/>
-    <hyperlink ref="C9" r:id="rId23"/>
-    <hyperlink ref="C27" r:id="rId24"/>
-    <hyperlink ref="C32" r:id="rId25"/>
-    <hyperlink ref="C31" r:id="rId26"/>
-    <hyperlink ref="C33" r:id="rId27"/>
-    <hyperlink ref="C28" r:id="rId28"/>
-    <hyperlink ref="C22" r:id="rId29"/>
-    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html "/>
-    <hyperlink ref="C88" r:id="rId31"/>
-    <hyperlink ref="C19" r:id="rId32"/>
-    <hyperlink ref="C64" r:id="rId33"/>
-    <hyperlink ref="C87" r:id="rId34"/>
-    <hyperlink ref="C85" r:id="rId35"/>
-    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html "/>
-    <hyperlink ref="C75" r:id="rId37"/>
-    <hyperlink ref="C65" r:id="rId38"/>
-    <hyperlink ref="C61" r:id="rId39"/>
-    <hyperlink ref="C55" r:id="rId40"/>
-    <hyperlink ref="C53" r:id="rId41"/>
-    <hyperlink ref="C37" r:id="rId42"/>
-    <hyperlink ref="C50" r:id="rId43"/>
-    <hyperlink ref="C49" r:id="rId44"/>
-    <hyperlink ref="C47" r:id="rId45"/>
-    <hyperlink ref="C45" r:id="rId46"/>
-    <hyperlink ref="C58" r:id="rId47"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C48" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C23" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C24" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C25" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C26" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C32" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C33" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C28" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C22" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C89" r:id="rId30" display="https://www.geonames.org/11055010/zadar.html " xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C88" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C64" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C87" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C85" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C77" r:id="rId36" display="https://www.geonames.org/3054638/budapest.html " xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C75" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C65" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C61" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C55" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C53" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C37" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C50" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C45" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C58" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C51" r:id="rId48" xr:uid="{DD859658-66E7-46B4-B0B8-F7702E521FCF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
   <tableParts count="1">
-    <tablePart r:id="rId49"/>
+    <tablePart r:id="rId50"/>
   </tableParts>
 </worksheet>
 </file>
--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\dev-baernreither-app\data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\data\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B9CC9CB-021D-4ED2-9672-7997D52B7227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E892C4-3EC0-4F03-9ECC-D86867EFE20A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4680" yWindow="4680" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB55F30-D1A4-8449-85B4-4F9A51D39F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B985574-6997-BA41-81D0-10C45236BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="850">
   <si>
     <t>Name</t>
   </si>
@@ -1340,9 +1340,6 @@
     <t>München</t>
   </si>
   <si>
-    <t>http://www.geonames.org/2867714/munich.html</t>
-  </si>
-  <si>
     <t>Muenchen</t>
   </si>
   <si>
@@ -1547,9 +1544,6 @@
     <t>Olomouc</t>
   </si>
   <si>
-    <t>http://www.geonames.org/3069011/olomouc.html</t>
-  </si>
-  <si>
     <t>Olmuetz</t>
   </si>
   <si>
@@ -1700,9 +1694,6 @@
     <t>https://www.geonames.org/8987776/predel.html</t>
   </si>
   <si>
-    <t>Preußen</t>
-  </si>
-  <si>
     <t>Propyläen</t>
   </si>
   <si>
@@ -1953,12 +1944,6 @@
   </si>
   <si>
     <t>SchleswigHolstein</t>
-  </si>
-  <si>
-    <t>Schütt</t>
-  </si>
-  <si>
-    <t>Schuett</t>
   </si>
   <si>
     <t xml:space="preserve">Schwarzwasser </t>
@@ -2587,6 +2572,12 @@
   </si>
   <si>
     <t>https://www.geonames.org/12059772/budapest-vi.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6559171/muenchen-landeshauptstadt.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3069011/olomouc.html</t>
   </si>
 </sst>
 </file>
@@ -2885,7 +2876,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3047,6 +3038,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -3097,7 +3091,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E314" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E312" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3312,10 +3306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1224"/>
+  <dimension ref="A1:Z1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="169" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:XFD241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -7810,7 +7804,7 @@
       </c>
       <c r="B130" s="30"/>
       <c r="C130" s="57" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>338</v>
@@ -8330,14 +8324,14 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="2"/>
@@ -9100,10 +9094,10 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="2"/>
@@ -9130,16 +9124,16 @@
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B168" s="20" t="s">
         <v>439</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="C168" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="C168" s="13" t="s">
-        <v>441</v>
-      </c>
       <c r="D168" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E168" s="12"/>
       <c r="F168" s="5"/>
@@ -9166,14 +9160,14 @@
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B169" s="12"/>
       <c r="C169" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E169" s="12"/>
       <c r="F169" s="5"/>
@@ -9200,16 +9194,16 @@
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B170" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="C170" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C170" s="14" t="s">
-        <v>446</v>
-      </c>
       <c r="D170" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E170" s="12"/>
       <c r="F170" s="5"/>
@@ -9236,16 +9230,16 @@
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B171" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="C171" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="C171" s="13" t="s">
-        <v>449</v>
-      </c>
       <c r="D171" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E171" s="12"/>
       <c r="F171" s="5"/>
@@ -9272,16 +9266,16 @@
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B172" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="C172" s="56" t="s">
+        <v>843</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="C172" s="56" t="s">
-        <v>848</v>
-      </c>
-      <c r="D172" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="2"/>
@@ -9308,14 +9302,14 @@
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B173" s="12"/>
       <c r="C173" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="D173" s="37" t="s">
         <v>454</v>
-      </c>
-      <c r="D173" s="37" t="s">
-        <v>455</v>
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="5"/>
@@ -9342,14 +9336,14 @@
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B174" s="6"/>
       <c r="C174" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="D174" s="6" t="s">
-        <v>458</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="2"/>
@@ -9376,14 +9370,14 @@
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B175" s="12"/>
       <c r="C175" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D175" s="12" t="s">
         <v>460</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>461</v>
       </c>
       <c r="E175" s="12"/>
       <c r="F175" s="5"/>
@@ -9410,16 +9404,16 @@
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B176" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="C176" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="C176" s="32" t="s">
-        <v>464</v>
-      </c>
       <c r="D176" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E176" s="10"/>
       <c r="F176" s="2"/>
@@ -9446,16 +9440,16 @@
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B177" s="8" t="s">
+      <c r="C177" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C177" s="9" t="s">
-        <v>467</v>
-      </c>
       <c r="D177" s="8" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E177" s="10"/>
       <c r="F177" s="2"/>
@@ -9482,16 +9476,16 @@
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C178" s="32" t="s">
         <v>468</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C178" s="32" t="s">
-        <v>469</v>
-      </c>
       <c r="D178" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E178" s="10"/>
       <c r="F178" s="2"/>
@@ -9518,14 +9512,14 @@
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B179" s="6"/>
       <c r="C179" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D179" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E179" s="6"/>
       <c r="F179" s="2"/>
@@ -9552,14 +9546,14 @@
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E180" s="6"/>
       <c r="F180" s="2"/>
@@ -9586,14 +9580,14 @@
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B181" s="6"/>
       <c r="C181" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D181" s="6" t="s">
         <v>475</v>
-      </c>
-      <c r="D181" s="6" t="s">
-        <v>476</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="2"/>
@@ -9620,14 +9614,14 @@
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B182" s="10"/>
       <c r="C182" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="D182" s="10" t="s">
         <v>478</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>479</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="2"/>
@@ -9654,14 +9648,14 @@
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B183" s="6"/>
       <c r="C183" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="2"/>
@@ -9688,14 +9682,14 @@
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B184" s="10"/>
       <c r="C184" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D184" s="10" t="s">
         <v>483</v>
-      </c>
-      <c r="D184" s="10" t="s">
-        <v>484</v>
       </c>
       <c r="E184" s="10"/>
       <c r="F184" s="2"/>
@@ -9722,16 +9716,16 @@
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B185" s="38" t="s">
         <v>485</v>
       </c>
-      <c r="B185" s="38" t="s">
+      <c r="C185" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="C185" s="39" t="s">
-        <v>487</v>
-      </c>
       <c r="D185" s="38" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E185" s="40"/>
       <c r="F185" s="2"/>
@@ -9758,16 +9752,16 @@
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="38" t="s">
+        <v>487</v>
+      </c>
+      <c r="B186" s="38" t="s">
         <v>488</v>
       </c>
-      <c r="B186" s="38" t="s">
+      <c r="C186" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="C186" s="41" t="s">
+      <c r="D186" s="38" t="s">
         <v>490</v>
-      </c>
-      <c r="D186" s="38" t="s">
-        <v>491</v>
       </c>
       <c r="E186" s="40"/>
       <c r="F186" s="2"/>
@@ -9794,16 +9788,16 @@
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="B187" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="B187" s="38" t="s">
+      <c r="C187" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="C187" s="41" t="s">
-        <v>494</v>
-      </c>
       <c r="D187" s="38" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E187" s="40"/>
       <c r="F187" s="2"/>
@@ -9830,16 +9824,16 @@
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B188" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="C188" s="15" t="s">
         <v>496</v>
       </c>
-      <c r="C188" s="15" t="s">
-        <v>497</v>
-      </c>
       <c r="D188" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="2"/>
@@ -9866,14 +9860,14 @@
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B189" s="10"/>
       <c r="C189" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="2"/>
@@ -9900,16 +9894,16 @@
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B190" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B190" s="8" t="s">
+      <c r="C190" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C190" s="9" t="s">
+      <c r="D190" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="D190" s="8" t="s">
-        <v>503</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="2"/>
@@ -9936,16 +9930,16 @@
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B191" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="C191" s="56" t="s">
+        <v>849</v>
+      </c>
+      <c r="D191" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>507</v>
       </c>
       <c r="E191" s="6"/>
       <c r="F191" s="2"/>
@@ -9972,14 +9966,14 @@
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B192" s="8"/>
       <c r="C192" s="33" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E192" s="6"/>
       <c r="F192" s="2"/>
@@ -10006,14 +10000,14 @@
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B193" s="6"/>
       <c r="C193" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="2"/>
@@ -10040,14 +10034,14 @@
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B194" s="6"/>
       <c r="C194" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="2"/>
@@ -10074,14 +10068,14 @@
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B195" s="42"/>
       <c r="C195" s="14" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D195" s="37" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E195" s="43"/>
       <c r="F195" s="44"/>
@@ -10108,14 +10102,14 @@
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B196" s="8"/>
       <c r="C196" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="2"/>
@@ -10142,14 +10136,14 @@
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B197" s="6"/>
       <c r="C197" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="2"/>
@@ -10176,14 +10170,14 @@
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B198" s="10"/>
       <c r="C198" s="32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E198" s="10"/>
       <c r="F198" s="2"/>
@@ -10210,16 +10204,16 @@
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="B199" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>525</v>
-      </c>
       <c r="D199" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="2"/>
@@ -10246,14 +10240,14 @@
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B200" s="10"/>
       <c r="C200" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E200" s="10"/>
       <c r="F200" s="2"/>
@@ -10280,16 +10274,16 @@
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C201" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B201" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>530</v>
-      </c>
       <c r="D201" s="8" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="2"/>
@@ -10316,16 +10310,16 @@
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>532</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>533</v>
-      </c>
       <c r="D202" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="2"/>
@@ -10352,16 +10346,16 @@
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C203" s="59" t="s">
         <v>534</v>
       </c>
-      <c r="B203" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>536</v>
-      </c>
       <c r="D203" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E203" s="12"/>
       <c r="F203" s="5"/>
@@ -10388,14 +10382,14 @@
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="5"/>
@@ -10422,16 +10416,16 @@
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>541</v>
-      </c>
       <c r="D205" s="6" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="2"/>
@@ -10458,14 +10452,14 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="2"/>
@@ -10492,16 +10486,16 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B207" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>546</v>
-      </c>
       <c r="D207" s="10" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="2"/>
@@ -10528,16 +10522,16 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>546</v>
+      </c>
+      <c r="C208" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="D208" s="12" t="s">
         <v>548</v>
-      </c>
-      <c r="C208" s="13" t="s">
-        <v>549</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>550</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="5"/>
@@ -10564,16 +10558,16 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>551</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>553</v>
-      </c>
       <c r="D209" s="6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="2"/>
@@ -10600,16 +10594,16 @@
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C210" s="36" t="s">
         <v>554</v>
       </c>
-      <c r="B210" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="C210" s="36" t="s">
-        <v>556</v>
-      </c>
       <c r="D210" s="37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E210" s="37"/>
       <c r="F210" s="5"/>
@@ -10635,12 +10629,14 @@
       <c r="Z210" s="5"/>
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A211" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B211" s="12"/>
-      <c r="C211" s="36"/>
-      <c r="D211" s="37" t="s">
+      <c r="A211" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="B211" s="16"/>
+      <c r="C211" s="45" t="s">
+        <v>556</v>
+      </c>
+      <c r="D211" s="46" t="s">
         <v>557</v>
       </c>
       <c r="E211" s="37"/>
@@ -10667,15 +10663,17 @@
       <c r="Z211" s="5"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A212" s="16" t="s">
+      <c r="A212" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B212" s="16"/>
-      <c r="C212" s="45" t="s">
+      <c r="B212" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D212" s="46" t="s">
+      <c r="C212" s="47" t="s">
         <v>560</v>
+      </c>
+      <c r="D212" s="37" t="s">
+        <v>558</v>
       </c>
       <c r="E212" s="37"/>
       <c r="F212" s="5"/>
@@ -10701,87 +10699,87 @@
       <c r="Z212" s="5"/>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A213" s="12" t="s">
+      <c r="A213" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C213" s="47" t="s">
+      <c r="C213" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="D213" s="37" t="s">
-        <v>561</v>
-      </c>
-      <c r="E213" s="37"/>
-      <c r="F213" s="5"/>
-      <c r="G213" s="5"/>
-      <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="5"/>
-      <c r="K213" s="5"/>
-      <c r="L213" s="5"/>
-      <c r="M213" s="5"/>
-      <c r="N213" s="5"/>
-      <c r="O213" s="5"/>
-      <c r="P213" s="5"/>
-      <c r="Q213" s="5"/>
-      <c r="R213" s="5"/>
-      <c r="S213" s="5"/>
-      <c r="T213" s="5"/>
-      <c r="U213" s="5"/>
-      <c r="V213" s="5"/>
-      <c r="W213" s="5"/>
-      <c r="X213" s="5"/>
-      <c r="Y213" s="5"/>
-      <c r="Z213" s="5"/>
+      <c r="D213" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E213" s="6"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+      <c r="U213" s="2"/>
+      <c r="V213" s="2"/>
+      <c r="W213" s="2"/>
+      <c r="X213" s="2"/>
+      <c r="Y213" s="2"/>
+      <c r="Z213" s="2"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="12"/>
+      <c r="C214" s="37" t="s">
         <v>565</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="D214" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="D214" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="E214" s="6"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
+      <c r="E214" s="12"/>
+      <c r="F214" s="5"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="5"/>
+      <c r="L214" s="5"/>
+      <c r="M214" s="5"/>
+      <c r="N214" s="5"/>
+      <c r="O214" s="5"/>
+      <c r="P214" s="5"/>
+      <c r="Q214" s="5"/>
+      <c r="R214" s="5"/>
+      <c r="S214" s="5"/>
+      <c r="T214" s="5"/>
+      <c r="U214" s="5"/>
+      <c r="V214" s="5"/>
+      <c r="W214" s="5"/>
+      <c r="X214" s="5"/>
+      <c r="Y214" s="5"/>
+      <c r="Z214" s="5"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B215" s="12"/>
+      <c r="B215" s="12" t="s">
+        <v>568</v>
+      </c>
       <c r="C215" s="37" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="5"/>
@@ -10807,124 +10805,122 @@
       <c r="Z215" s="5"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A216" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="B216" s="12" t="s">
+      <c r="A216" s="48" t="s">
         <v>571</v>
       </c>
-      <c r="C216" s="37" t="s">
+      <c r="B216" s="48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C216" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D216" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="E216" s="50"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+      <c r="U216" s="2"/>
+      <c r="V216" s="2"/>
+      <c r="W216" s="2"/>
+      <c r="X216" s="2"/>
+      <c r="Y216" s="2"/>
+      <c r="Z216" s="2"/>
+    </row>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A217" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="D216" s="12" t="s">
+      <c r="B217" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="E216" s="12"/>
-      <c r="F216" s="5"/>
-      <c r="G216" s="5"/>
-      <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
-      <c r="K216" s="5"/>
-      <c r="L216" s="5"/>
-      <c r="M216" s="5"/>
-      <c r="N216" s="5"/>
-      <c r="O216" s="5"/>
-      <c r="P216" s="5"/>
-      <c r="Q216" s="5"/>
-      <c r="R216" s="5"/>
-      <c r="S216" s="5"/>
-      <c r="T216" s="5"/>
-      <c r="U216" s="5"/>
-      <c r="V216" s="5"/>
-      <c r="W216" s="5"/>
-      <c r="X216" s="5"/>
-      <c r="Y216" s="5"/>
-      <c r="Z216" s="5"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A217" s="48" t="s">
+      <c r="C217" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="B217" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="C217" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="D217" s="48" t="s">
-        <v>574</v>
-      </c>
-      <c r="E217" s="50"/>
-      <c r="F217" s="2"/>
-      <c r="G217" s="2"/>
-      <c r="H217" s="2"/>
-      <c r="I217" s="2"/>
-      <c r="J217" s="2"/>
-      <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
-      <c r="N217" s="2"/>
-      <c r="O217" s="2"/>
-      <c r="P217" s="2"/>
-      <c r="Q217" s="2"/>
-      <c r="R217" s="2"/>
-      <c r="S217" s="2"/>
-      <c r="T217" s="2"/>
-      <c r="U217" s="2"/>
-      <c r="V217" s="2"/>
-      <c r="W217" s="2"/>
-      <c r="X217" s="2"/>
-      <c r="Y217" s="2"/>
-      <c r="Z217" s="2"/>
+      <c r="D217" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="E217" s="12"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="5"/>
+      <c r="L217" s="5"/>
+      <c r="M217" s="5"/>
+      <c r="N217" s="5"/>
+      <c r="O217" s="5"/>
+      <c r="P217" s="5"/>
+      <c r="Q217" s="5"/>
+      <c r="R217" s="5"/>
+      <c r="S217" s="5"/>
+      <c r="T217" s="5"/>
+      <c r="U217" s="5"/>
+      <c r="V217" s="5"/>
+      <c r="W217" s="5"/>
+      <c r="X217" s="5"/>
+      <c r="Y217" s="5"/>
+      <c r="Z217" s="5"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A218" s="12" t="s">
+      <c r="A218" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B218" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C218" s="37" t="s">
+      <c r="E218" s="6"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2"/>
+      <c r="V218" s="2"/>
+      <c r="W218" s="2"/>
+      <c r="X218" s="2"/>
+      <c r="Y218" s="2"/>
+      <c r="Z218" s="2"/>
+    </row>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A219" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="D218" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="E218" s="12"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5"/>
-      <c r="K218" s="5"/>
-      <c r="L218" s="5"/>
-      <c r="M218" s="5"/>
-      <c r="N218" s="5"/>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5"/>
-      <c r="V218" s="5"/>
-      <c r="W218" s="5"/>
-      <c r="X218" s="5"/>
-      <c r="Y218" s="5"/>
-      <c r="Z218" s="5"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A219" s="6" t="s">
+      <c r="B219" s="10"/>
+      <c r="C219" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="B219" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="D219" s="6" t="s">
+      <c r="D219" s="10" t="s">
         <v>579</v>
       </c>
       <c r="E219" s="6"/>
@@ -10951,15 +10947,17 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A220" s="10" t="s">
+      <c r="A220" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B220" s="10"/>
-      <c r="C220" s="11" t="s">
+      <c r="B220" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="C220" s="9" t="s">
         <v>582</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>580</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="2"/>
@@ -10985,16 +10983,16 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="8" t="s">
+      <c r="A221" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B221" s="8" t="s">
+      <c r="B221" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D221" s="8" t="s">
+      <c r="D221" s="6" t="s">
         <v>583</v>
       </c>
       <c r="E221" s="6"/>
@@ -11021,19 +11019,17 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="10"/>
+      <c r="C222" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="D222" s="6" t="s">
+      <c r="D222" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="E222" s="6"/>
+      <c r="E222" s="10"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
@@ -11057,15 +11053,17 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A223" s="10" t="s">
+      <c r="A223" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B223" s="10"/>
-      <c r="C223" s="32" t="s">
+      <c r="C223" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="D223" s="10" t="s">
-        <v>589</v>
+      <c r="D223" s="8" t="s">
+        <v>588</v>
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="2"/>
@@ -11091,17 +11089,17 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="8" t="s">
+      <c r="A224" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="32" t="s">
         <v>593</v>
       </c>
-      <c r="D224" s="8" t="s">
-        <v>591</v>
+      <c r="D224" s="10" t="s">
+        <v>594</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="2"/>
@@ -11127,19 +11125,17 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A225" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B225" s="10" t="s">
+      <c r="A225" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C225" s="32" t="s">
+      <c r="B225" s="8"/>
+      <c r="C225" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="D225" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="E225" s="10"/>
+      <c r="D225" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="E225" s="6"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
@@ -11163,15 +11159,15 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A226" s="8" t="s">
+      <c r="A226" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="B226" s="6"/>
+      <c r="C226" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>598</v>
+      <c r="D226" s="6" t="s">
+        <v>597</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="2"/>
@@ -11197,15 +11193,17 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B227" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="B227" s="6"/>
-      <c r="C227" s="6" t="s">
+      <c r="C227" s="33" t="s">
         <v>601</v>
       </c>
-      <c r="D227" s="6" t="s">
-        <v>600</v>
+      <c r="D227" s="8" t="s">
+        <v>602</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="2"/>
@@ -11231,17 +11229,15 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A228" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="B228" s="8" t="s">
+      <c r="A228" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="C228" s="33" t="s">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="D228" s="8" t="s">
-        <v>605</v>
+      <c r="D228" s="6" t="s">
+        <v>603</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="2"/>
@@ -11268,14 +11264,16 @@
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="B229" s="6"/>
       <c r="C229" s="6" t="s">
         <v>607</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="2"/>
@@ -11301,50 +11299,48 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A230" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B230" s="6" t="s">
+      <c r="A230" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="C230" s="6" t="s">
+      <c r="B230" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="D230" s="6" t="s">
+      <c r="C230" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="E230" s="6"/>
-      <c r="F230" s="2"/>
-      <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
-      <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
-      <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
-      <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
-      <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
-      <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
-      <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
-      <c r="U230" s="2"/>
-      <c r="V230" s="2"/>
-      <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
-      <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
+      <c r="D230" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E230" s="12"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="5"/>
+      <c r="L230" s="5"/>
+      <c r="M230" s="5"/>
+      <c r="N230" s="5"/>
+      <c r="O230" s="5"/>
+      <c r="P230" s="5"/>
+      <c r="Q230" s="5"/>
+      <c r="R230" s="5"/>
+      <c r="S230" s="5"/>
+      <c r="T230" s="5"/>
+      <c r="U230" s="5"/>
+      <c r="V230" s="5"/>
+      <c r="W230" s="5"/>
+      <c r="X230" s="5"/>
+      <c r="Y230" s="5"/>
+      <c r="Z230" s="5"/>
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="12"/>
+      <c r="C231" s="13" t="s">
         <v>613</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>614</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>612</v>
@@ -11374,14 +11370,14 @@
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="B232" s="12"/>
+      <c r="C232" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="B232" s="12"/>
-      <c r="C232" s="13" t="s">
-        <v>616</v>
-      </c>
       <c r="D232" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="5"/>
@@ -11407,53 +11403,55 @@
       <c r="Z232" s="5"/>
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="12" t="s">
+      <c r="A233" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B233" s="12"/>
-      <c r="C233" s="14" t="s">
+      <c r="C233" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="D233" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="E233" s="12"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="5"/>
-      <c r="N233" s="5"/>
-      <c r="O233" s="5"/>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
-      <c r="U233" s="5"/>
-      <c r="V233" s="5"/>
-      <c r="W233" s="5"/>
-      <c r="X233" s="5"/>
-      <c r="Y233" s="5"/>
-      <c r="Z233" s="5"/>
+      <c r="D233" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="E233" s="6"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+      <c r="U233" s="2"/>
+      <c r="V233" s="2"/>
+      <c r="W233" s="2"/>
+      <c r="X233" s="2"/>
+      <c r="Y233" s="2"/>
+      <c r="Z233" s="2"/>
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="C234" s="6" t="s">
+      <c r="C234" s="32" t="s">
         <v>621</v>
       </c>
-      <c r="D234" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="E234" s="6"/>
+      <c r="D234" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="E234" s="10"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
@@ -11477,55 +11475,55 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="10" t="s">
-        <v>622</v>
-      </c>
-      <c r="B235" s="10" t="s">
+      <c r="A235" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C235" s="32" t="s">
+      <c r="B235" s="12" t="s">
         <v>624</v>
       </c>
-      <c r="D235" s="10" t="s">
+      <c r="C235" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="E235" s="10"/>
-      <c r="F235" s="2"/>
-      <c r="G235" s="2"/>
-      <c r="H235" s="2"/>
-      <c r="I235" s="2"/>
-      <c r="J235" s="2"/>
-      <c r="K235" s="2"/>
-      <c r="L235" s="2"/>
-      <c r="M235" s="2"/>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" s="2"/>
-      <c r="Q235" s="2"/>
-      <c r="R235" s="2"/>
-      <c r="S235" s="2"/>
-      <c r="T235" s="2"/>
-      <c r="U235" s="2"/>
-      <c r="V235" s="2"/>
-      <c r="W235" s="2"/>
-      <c r="X235" s="2"/>
-      <c r="Y235" s="2"/>
-      <c r="Z235" s="2"/>
+      <c r="D235" s="37" t="s">
+        <v>626</v>
+      </c>
+      <c r="E235" s="37"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="5"/>
+      <c r="L235" s="5"/>
+      <c r="M235" s="5"/>
+      <c r="N235" s="5"/>
+      <c r="O235" s="5"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="T235" s="5"/>
+      <c r="U235" s="5"/>
+      <c r="V235" s="5"/>
+      <c r="W235" s="5"/>
+      <c r="X235" s="5"/>
+      <c r="Y235" s="5"/>
+      <c r="Z235" s="5"/>
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="B236" s="12" t="s">
+      <c r="A236" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="C236" s="19" t="s">
+      <c r="B236" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="C236" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="D236" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="E236" s="37"/>
+      <c r="D236" s="16" t="s">
+        <v>627</v>
+      </c>
+      <c r="E236" s="16"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
@@ -11550,16 +11548,14 @@
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B237" s="16"/>
+      <c r="C237" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="B237" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="C237" s="46" t="s">
-        <v>631</v>
-      </c>
       <c r="D237" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E237" s="16"/>
       <c r="F237" s="5"/>
@@ -11585,17 +11581,17 @@
       <c r="Z237" s="5"/>
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="16" t="s">
+      <c r="A238" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="B238" s="12"/>
+      <c r="C238" s="37" t="s">
         <v>632</v>
       </c>
-      <c r="B238" s="16"/>
-      <c r="C238" s="46" t="s">
-        <v>633</v>
-      </c>
-      <c r="D238" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="E238" s="16"/>
+      <c r="D238" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="E238" s="12"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
@@ -11619,51 +11615,51 @@
       <c r="Z238" s="5"/>
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="12" t="s">
+      <c r="A239" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="B239" s="12"/>
-      <c r="C239" s="37" t="s">
+      <c r="C239" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="D239" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="E239" s="12"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
-      <c r="M239" s="5"/>
-      <c r="N239" s="5"/>
-      <c r="O239" s="5"/>
-      <c r="P239" s="5"/>
-      <c r="Q239" s="5"/>
-      <c r="R239" s="5"/>
-      <c r="S239" s="5"/>
-      <c r="T239" s="5"/>
-      <c r="U239" s="5"/>
-      <c r="V239" s="5"/>
-      <c r="W239" s="5"/>
-      <c r="X239" s="5"/>
-      <c r="Y239" s="5"/>
-      <c r="Z239" s="5"/>
+      <c r="D239" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="E239" s="6"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+      <c r="H239" s="2"/>
+      <c r="I239" s="2"/>
+      <c r="J239" s="2"/>
+      <c r="K239" s="2"/>
+      <c r="L239" s="2"/>
+      <c r="M239" s="2"/>
+      <c r="N239" s="2"/>
+      <c r="O239" s="2"/>
+      <c r="P239" s="2"/>
+      <c r="Q239" s="2"/>
+      <c r="R239" s="2"/>
+      <c r="S239" s="2"/>
+      <c r="T239" s="2"/>
+      <c r="U239" s="2"/>
+      <c r="V239" s="2"/>
+      <c r="W239" s="2"/>
+      <c r="X239" s="2"/>
+      <c r="Y239" s="2"/>
+      <c r="Z239" s="2"/>
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="6"/>
+      <c r="C240" s="21" t="s">
         <v>637</v>
       </c>
-      <c r="C240" s="6" t="s">
+      <c r="D240" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>636</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="2"/>
@@ -11689,47 +11685,51 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="B241" s="6"/>
-      <c r="C241" s="21" t="s">
+      <c r="B241" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D241" s="6" t="s">
+      <c r="C241" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="E241" s="6"/>
-      <c r="F241" s="2"/>
-      <c r="G241" s="2"/>
-      <c r="H241" s="2"/>
-      <c r="I241" s="2"/>
-      <c r="J241" s="2"/>
-      <c r="K241" s="2"/>
-      <c r="L241" s="2"/>
-      <c r="M241" s="2"/>
-      <c r="N241" s="2"/>
-      <c r="O241" s="2"/>
-      <c r="P241" s="2"/>
-      <c r="Q241" s="2"/>
-      <c r="R241" s="2"/>
-      <c r="S241" s="2"/>
-      <c r="T241" s="2"/>
-      <c r="U241" s="2"/>
-      <c r="V241" s="2"/>
-      <c r="W241" s="2"/>
-      <c r="X241" s="2"/>
-      <c r="Y241" s="2"/>
-      <c r="Z241" s="2"/>
+      <c r="D241" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="E241" s="12"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="5"/>
+      <c r="L241" s="5"/>
+      <c r="M241" s="5"/>
+      <c r="N241" s="5"/>
+      <c r="O241" s="5"/>
+      <c r="P241" s="5"/>
+      <c r="Q241" s="5"/>
+      <c r="R241" s="5"/>
+      <c r="S241" s="5"/>
+      <c r="T241" s="5"/>
+      <c r="U241" s="5"/>
+      <c r="V241" s="5"/>
+      <c r="W241" s="5"/>
+      <c r="X241" s="5"/>
+      <c r="Y241" s="5"/>
+      <c r="Z241" s="5"/>
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="12" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B242" s="12"/>
-      <c r="C242" s="13"/>
+      <c r="C242" s="13" t="s">
+        <v>644</v>
+      </c>
       <c r="D242" s="12" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="5"/>
@@ -11755,17 +11755,17 @@
       <c r="Z242" s="5"/>
     </row>
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A243" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B243" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="C243" s="14" t="s">
+      <c r="A243" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="D243" s="12" t="s">
+      <c r="B243" s="16" t="s">
         <v>647</v>
+      </c>
+      <c r="C243" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>646</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="5"/>
@@ -11792,14 +11792,14 @@
     </row>
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="12" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="13" t="s">
+        <v>650</v>
+      </c>
+      <c r="D244" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>650</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="5"/>
@@ -11825,16 +11825,14 @@
       <c r="Z244" s="5"/>
     </row>
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A245" s="16" t="s">
+      <c r="A245" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="12"/>
+      <c r="C245" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C245" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="D245" s="16" t="s">
+      <c r="D245" s="12" t="s">
         <v>651</v>
       </c>
       <c r="E245" s="12"/>
@@ -11862,14 +11860,14 @@
     </row>
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B246" s="12"/>
       <c r="C246" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E246" s="12"/>
       <c r="F246" s="5"/>
@@ -11896,14 +11894,16 @@
     </row>
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="B247" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B247" s="12"/>
       <c r="C247" s="14" t="s">
         <v>657</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="5"/>
@@ -11933,7 +11933,7 @@
         <v>658</v>
       </c>
       <c r="B248" s="12"/>
-      <c r="C248" s="13" t="s">
+      <c r="C248" s="19" t="s">
         <v>659</v>
       </c>
       <c r="D248" s="12" t="s">
@@ -11966,11 +11966,9 @@
       <c r="A249" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="12"/>
+      <c r="C249" s="13" t="s">
         <v>661</v>
-      </c>
-      <c r="C249" s="14" t="s">
-        <v>662</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>660</v>
@@ -11999,87 +11997,87 @@
       <c r="Z249" s="5"/>
     </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A250" s="12" t="s">
+      <c r="A250" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="B250" s="12"/>
-      <c r="C250" s="19" t="s">
+      <c r="C250" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="D250" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="E250" s="12"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="5"/>
-      <c r="H250" s="5"/>
-      <c r="I250" s="5"/>
-      <c r="J250" s="5"/>
-      <c r="K250" s="5"/>
-      <c r="L250" s="5"/>
-      <c r="M250" s="5"/>
-      <c r="N250" s="5"/>
-      <c r="O250" s="5"/>
-      <c r="P250" s="5"/>
-      <c r="Q250" s="5"/>
-      <c r="R250" s="5"/>
-      <c r="S250" s="5"/>
-      <c r="T250" s="5"/>
-      <c r="U250" s="5"/>
-      <c r="V250" s="5"/>
-      <c r="W250" s="5"/>
-      <c r="X250" s="5"/>
-      <c r="Y250" s="5"/>
-      <c r="Z250" s="5"/>
+      <c r="D250" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="E250" s="8"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
+      <c r="H250" s="2"/>
+      <c r="I250" s="2"/>
+      <c r="J250" s="2"/>
+      <c r="K250" s="2"/>
+      <c r="L250" s="2"/>
+      <c r="M250" s="2"/>
+      <c r="N250" s="2"/>
+      <c r="O250" s="2"/>
+      <c r="P250" s="2"/>
+      <c r="Q250" s="2"/>
+      <c r="R250" s="2"/>
+      <c r="S250" s="2"/>
+      <c r="T250" s="2"/>
+      <c r="U250" s="2"/>
+      <c r="V250" s="2"/>
+      <c r="W250" s="2"/>
+      <c r="X250" s="2"/>
+      <c r="Y250" s="2"/>
+      <c r="Z250" s="2"/>
     </row>
     <row r="251" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A251" s="12" t="s">
+      <c r="A251" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B251" s="12"/>
-      <c r="C251" s="13" t="s">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="D251" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="E251" s="12"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="5"/>
-      <c r="H251" s="5"/>
-      <c r="I251" s="5"/>
-      <c r="J251" s="5"/>
-      <c r="K251" s="5"/>
-      <c r="L251" s="5"/>
-      <c r="M251" s="5"/>
-      <c r="N251" s="5"/>
-      <c r="O251" s="5"/>
-      <c r="P251" s="5"/>
-      <c r="Q251" s="5"/>
-      <c r="R251" s="5"/>
-      <c r="S251" s="5"/>
-      <c r="T251" s="5"/>
-      <c r="U251" s="5"/>
-      <c r="V251" s="5"/>
-      <c r="W251" s="5"/>
-      <c r="X251" s="5"/>
-      <c r="Y251" s="5"/>
-      <c r="Z251" s="5"/>
+      <c r="D251" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E251" s="6"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
+      <c r="H251" s="2"/>
+      <c r="I251" s="2"/>
+      <c r="J251" s="2"/>
+      <c r="K251" s="2"/>
+      <c r="L251" s="2"/>
+      <c r="M251" s="2"/>
+      <c r="N251" s="2"/>
+      <c r="O251" s="2"/>
+      <c r="P251" s="2"/>
+      <c r="Q251" s="2"/>
+      <c r="R251" s="2"/>
+      <c r="S251" s="2"/>
+      <c r="T251" s="2"/>
+      <c r="U251" s="2"/>
+      <c r="V251" s="2"/>
+      <c r="W251" s="2"/>
+      <c r="X251" s="2"/>
+      <c r="Y251" s="2"/>
+      <c r="Z251" s="2"/>
     </row>
     <row r="252" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A252" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="B252" s="8" t="s">
+      <c r="A252" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="C252" s="33" t="s">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="D252" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="E252" s="8"/>
+      <c r="D252" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="E252" s="6"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
@@ -12103,15 +12101,17 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B253" s="6"/>
-      <c r="C253" s="6" t="s">
+      <c r="B253" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="D253" s="6" t="s">
+      <c r="C253" s="11" t="s">
         <v>672</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>670</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="2"/>
@@ -12137,85 +12137,87 @@
       <c r="Z253" s="2"/>
     </row>
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="B254" s="6"/>
-      <c r="C254" s="6" t="s">
+      <c r="B254" s="12"/>
+      <c r="C254" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="D254" s="6" t="s">
+      <c r="D254" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="E254" s="6"/>
-      <c r="F254" s="2"/>
-      <c r="G254" s="2"/>
-      <c r="H254" s="2"/>
-      <c r="I254" s="2"/>
-      <c r="J254" s="2"/>
-      <c r="K254" s="2"/>
-      <c r="L254" s="2"/>
-      <c r="M254" s="2"/>
-      <c r="N254" s="2"/>
-      <c r="O254" s="2"/>
-      <c r="P254" s="2"/>
-      <c r="Q254" s="2"/>
-      <c r="R254" s="2"/>
-      <c r="S254" s="2"/>
-      <c r="T254" s="2"/>
-      <c r="U254" s="2"/>
-      <c r="V254" s="2"/>
-      <c r="W254" s="2"/>
-      <c r="X254" s="2"/>
-      <c r="Y254" s="2"/>
-      <c r="Z254" s="2"/>
+      <c r="E254" s="12"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="5"/>
+      <c r="H254" s="5"/>
+      <c r="I254" s="5"/>
+      <c r="J254" s="5"/>
+      <c r="K254" s="5"/>
+      <c r="L254" s="5"/>
+      <c r="M254" s="5"/>
+      <c r="N254" s="5"/>
+      <c r="O254" s="5"/>
+      <c r="P254" s="5"/>
+      <c r="Q254" s="5"/>
+      <c r="R254" s="5"/>
+      <c r="S254" s="5"/>
+      <c r="T254" s="5"/>
+      <c r="U254" s="5"/>
+      <c r="V254" s="5"/>
+      <c r="W254" s="5"/>
+      <c r="X254" s="5"/>
+      <c r="Y254" s="5"/>
+      <c r="Z254" s="5"/>
     </row>
     <row r="255" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="C255" s="11" t="s">
+      <c r="C255" s="51" t="s">
         <v>677</v>
       </c>
-      <c r="D255" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="E255" s="6"/>
-      <c r="F255" s="2"/>
-      <c r="G255" s="2"/>
-      <c r="H255" s="2"/>
-      <c r="I255" s="2"/>
-      <c r="J255" s="2"/>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="2"/>
-      <c r="N255" s="2"/>
-      <c r="O255" s="2"/>
-      <c r="P255" s="2"/>
-      <c r="Q255" s="2"/>
-      <c r="R255" s="2"/>
-      <c r="S255" s="2"/>
-      <c r="T255" s="2"/>
-      <c r="U255" s="2"/>
-      <c r="V255" s="2"/>
-      <c r="W255" s="2"/>
-      <c r="X255" s="2"/>
-      <c r="Y255" s="2"/>
-      <c r="Z255" s="2"/>
+      <c r="D255" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E255" s="12"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="5"/>
+      <c r="H255" s="5"/>
+      <c r="I255" s="5"/>
+      <c r="J255" s="5"/>
+      <c r="K255" s="5"/>
+      <c r="L255" s="5"/>
+      <c r="M255" s="5"/>
+      <c r="N255" s="5"/>
+      <c r="O255" s="5"/>
+      <c r="P255" s="5"/>
+      <c r="Q255" s="5"/>
+      <c r="R255" s="5"/>
+      <c r="S255" s="5"/>
+      <c r="T255" s="5"/>
+      <c r="U255" s="5"/>
+      <c r="V255" s="5"/>
+      <c r="W255" s="5"/>
+      <c r="X255" s="5"/>
+      <c r="Y255" s="5"/>
+      <c r="Z255" s="5"/>
     </row>
     <row r="256" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A256" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="B256" s="12"/>
-      <c r="C256" s="14" t="s">
+      <c r="A256" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="D256" s="12" t="s">
-        <v>678</v>
+      <c r="B256" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="C256" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="E256" s="12"/>
       <c r="F256" s="5"/>
@@ -12242,16 +12244,16 @@
     </row>
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="12" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="C257" s="51" t="s">
-        <v>682</v>
+        <v>684</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>685</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="5"/>
@@ -12278,16 +12280,14 @@
     </row>
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="B258" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="C258" s="52" t="s">
-        <v>686</v>
+        <v>687</v>
+      </c>
+      <c r="B258" s="16"/>
+      <c r="C258" s="17" t="s">
+        <v>688</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="5"/>
@@ -12314,18 +12314,16 @@
     </row>
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>689</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="B259" s="12"/>
       <c r="C259" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D259" s="12" t="s">
         <v>690</v>
       </c>
-      <c r="D259" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="E259" s="12"/>
+      <c r="E259" s="16"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
@@ -12349,17 +12347,19 @@
       <c r="Z259" s="5"/>
     </row>
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A260" s="16" t="s">
+      <c r="A260" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B260" s="16"/>
-      <c r="C260" s="17" t="s">
+      <c r="B260" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="D260" s="16" t="s">
+      <c r="C260" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="E260" s="12"/>
+      <c r="D260" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="E260" s="16"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
@@ -12384,14 +12384,14 @@
     </row>
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="12" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="13" t="s">
-        <v>696</v>
+        <v>846</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E261" s="16"/>
       <c r="F261" s="5"/>
@@ -12417,17 +12417,15 @@
       <c r="Z261" s="5"/>
     </row>
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A262" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="B262" s="12" t="s">
+      <c r="A262" s="16" t="s">
         <v>698</v>
       </c>
-      <c r="C262" s="14" t="s">
+      <c r="B262" s="16"/>
+      <c r="C262" s="25" t="s">
         <v>699</v>
       </c>
-      <c r="D262" s="12" t="s">
-        <v>700</v>
+      <c r="D262" s="16" t="s">
+        <v>698</v>
       </c>
       <c r="E262" s="16"/>
       <c r="F262" s="5"/>
@@ -12453,15 +12451,17 @@
       <c r="Z262" s="5"/>
     </row>
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A263" s="12" t="s">
+      <c r="A263" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="B263" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="B263" s="12"/>
-      <c r="C263" s="13" t="s">
-        <v>851</v>
-      </c>
-      <c r="D263" s="12" t="s">
+      <c r="C263" s="17" t="s">
         <v>702</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="E263" s="16"/>
       <c r="F263" s="5"/>
@@ -12487,17 +12487,19 @@
       <c r="Z263" s="5"/>
     </row>
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A264" s="16" t="s">
+      <c r="A264" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="B264" s="16"/>
-      <c r="C264" s="25" t="s">
+      <c r="B264" s="12" t="s">
         <v>704</v>
       </c>
-      <c r="D264" s="16" t="s">
+      <c r="C264" s="13" t="s">
+        <v>705</v>
+      </c>
+      <c r="D264" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="E264" s="16"/>
+      <c r="E264" s="12"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
@@ -12521,19 +12523,19 @@
       <c r="Z264" s="5"/>
     </row>
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A265" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="B265" s="16" t="s">
+      <c r="A265" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="C265" s="17" t="s">
+      <c r="B265" s="12" t="s">
         <v>707</v>
       </c>
-      <c r="D265" s="16" t="s">
-        <v>705</v>
-      </c>
-      <c r="E265" s="16"/>
+      <c r="C265" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="D265" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="E265" s="12"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
@@ -12557,91 +12559,91 @@
       <c r="Z265" s="5"/>
     </row>
     <row r="266" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A266" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="B266" s="12" t="s">
+      <c r="A266" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C266" s="13" t="s">
+      <c r="B266" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="D266" s="12" t="s">
-        <v>708</v>
-      </c>
-      <c r="E266" s="12"/>
-      <c r="F266" s="5"/>
-      <c r="G266" s="5"/>
-      <c r="H266" s="5"/>
-      <c r="I266" s="5"/>
-      <c r="J266" s="5"/>
-      <c r="K266" s="5"/>
-      <c r="L266" s="5"/>
-      <c r="M266" s="5"/>
-      <c r="N266" s="5"/>
-      <c r="O266" s="5"/>
-      <c r="P266" s="5"/>
-      <c r="Q266" s="5"/>
-      <c r="R266" s="5"/>
-      <c r="S266" s="5"/>
-      <c r="T266" s="5"/>
-      <c r="U266" s="5"/>
-      <c r="V266" s="5"/>
-      <c r="W266" s="5"/>
-      <c r="X266" s="5"/>
-      <c r="Y266" s="5"/>
-      <c r="Z266" s="5"/>
+      <c r="C266" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="E266" s="6"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="2"/>
+      <c r="R266" s="2"/>
+      <c r="S266" s="2"/>
+      <c r="T266" s="2"/>
+      <c r="U266" s="2"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="2"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
+      <c r="Z266" s="2"/>
     </row>
     <row r="267" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A267" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="B267" s="12" t="s">
+      <c r="A267" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="B267" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="D267" s="12" t="s">
-        <v>711</v>
-      </c>
-      <c r="E267" s="12"/>
-      <c r="F267" s="5"/>
-      <c r="G267" s="5"/>
-      <c r="H267" s="5"/>
-      <c r="I267" s="5"/>
-      <c r="J267" s="5"/>
-      <c r="K267" s="5"/>
-      <c r="L267" s="5"/>
-      <c r="M267" s="5"/>
-      <c r="N267" s="5"/>
-      <c r="O267" s="5"/>
-      <c r="P267" s="5"/>
-      <c r="Q267" s="5"/>
-      <c r="R267" s="5"/>
-      <c r="S267" s="5"/>
-      <c r="T267" s="5"/>
-      <c r="U267" s="5"/>
-      <c r="V267" s="5"/>
-      <c r="W267" s="5"/>
-      <c r="X267" s="5"/>
-      <c r="Y267" s="5"/>
-      <c r="Z267" s="5"/>
+      <c r="C267" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="D267" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E267" s="6"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+      <c r="O267" s="2"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2"/>
+      <c r="V267" s="2"/>
+      <c r="W267" s="2"/>
+      <c r="X267" s="2"/>
+      <c r="Y267" s="2"/>
+      <c r="Z267" s="2"/>
     </row>
     <row r="268" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A268" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="B268" s="6" t="s">
+      <c r="A268" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="C268" s="6" t="s">
+      <c r="B268" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="D268" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="E268" s="6"/>
+      <c r="C268" s="53" t="s">
+        <v>717</v>
+      </c>
+      <c r="D268" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E268" s="8"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
@@ -12665,19 +12667,17 @@
       <c r="Z268" s="2"/>
     </row>
     <row r="269" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A269" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="C269" s="7" t="s">
+      <c r="A269" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="D269" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="E269" s="6"/>
+      <c r="B269" s="8"/>
+      <c r="C269" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="D269" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E269" s="8"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
@@ -12701,19 +12701,19 @@
       <c r="Z269" s="2"/>
     </row>
     <row r="270" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A270" s="8" t="s">
-        <v>720</v>
-      </c>
-      <c r="B270" s="8" t="s">
+      <c r="A270" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="C270" s="53" t="s">
+      <c r="B270" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="D270" s="8" t="s">
+      <c r="C270" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="E270" s="8"/>
+      <c r="D270" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E270" s="6"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
@@ -12737,51 +12737,53 @@
       <c r="Z270" s="2"/>
     </row>
     <row r="271" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A271" s="8" t="s">
+      <c r="A271" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="B271" s="8"/>
-      <c r="C271" s="9" t="s">
+      <c r="B271" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D271" s="8" t="s">
+      <c r="C271" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="D271" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="E271" s="8"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
-      <c r="Q271" s="2"/>
-      <c r="R271" s="2"/>
-      <c r="S271" s="2"/>
-      <c r="T271" s="2"/>
-      <c r="U271" s="2"/>
-      <c r="V271" s="2"/>
-      <c r="W271" s="2"/>
-      <c r="X271" s="2"/>
-      <c r="Y271" s="2"/>
-      <c r="Z271" s="2"/>
+      <c r="E271" s="12"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
+      <c r="Q271" s="5"/>
+      <c r="R271" s="5"/>
+      <c r="S271" s="5"/>
+      <c r="T271" s="5"/>
+      <c r="U271" s="5"/>
+      <c r="V271" s="5"/>
+      <c r="W271" s="5"/>
+      <c r="X271" s="5"/>
+      <c r="Y271" s="5"/>
+      <c r="Z271" s="5"/>
     </row>
     <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="6" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C272" s="6" t="s">
         <v>728</v>
       </c>
+      <c r="C272" s="7" t="s">
+        <v>847</v>
+      </c>
       <c r="D272" s="6" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="2"/>
@@ -12807,53 +12809,49 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A273" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="B273" s="12" t="s">
+      <c r="A273" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="C273" s="14" t="s">
+      <c r="B273" s="8"/>
+      <c r="C273" s="53" t="s">
         <v>731</v>
       </c>
-      <c r="D273" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="E273" s="12"/>
-      <c r="F273" s="5"/>
-      <c r="G273" s="5"/>
-      <c r="H273" s="5"/>
-      <c r="I273" s="5"/>
-      <c r="J273" s="5"/>
-      <c r="K273" s="5"/>
-      <c r="L273" s="5"/>
-      <c r="M273" s="5"/>
-      <c r="N273" s="5"/>
-      <c r="O273" s="5"/>
-      <c r="P273" s="5"/>
-      <c r="Q273" s="5"/>
-      <c r="R273" s="5"/>
-      <c r="S273" s="5"/>
-      <c r="T273" s="5"/>
-      <c r="U273" s="5"/>
-      <c r="V273" s="5"/>
-      <c r="W273" s="5"/>
-      <c r="X273" s="5"/>
-      <c r="Y273" s="5"/>
-      <c r="Z273" s="5"/>
+      <c r="D273" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="E273" s="6"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+      <c r="I273" s="2"/>
+      <c r="J273" s="2"/>
+      <c r="K273" s="2"/>
+      <c r="L273" s="2"/>
+      <c r="M273" s="2"/>
+      <c r="N273" s="2"/>
+      <c r="O273" s="2"/>
+      <c r="P273" s="2"/>
+      <c r="Q273" s="2"/>
+      <c r="R273" s="2"/>
+      <c r="S273" s="2"/>
+      <c r="T273" s="2"/>
+      <c r="U273" s="2"/>
+      <c r="V273" s="2"/>
+      <c r="W273" s="2"/>
+      <c r="X273" s="2"/>
+      <c r="Y273" s="2"/>
+      <c r="Z273" s="2"/>
     </row>
     <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="6"/>
+      <c r="C274" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="C274" s="7" t="s">
-        <v>852</v>
-      </c>
       <c r="D274" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="2"/>
@@ -12879,157 +12877,161 @@
       <c r="Z274" s="2"/>
     </row>
     <row r="275" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B275" s="12"/>
+      <c r="C275" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="B275" s="8"/>
-      <c r="C275" s="53" t="s">
+      <c r="D275" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="E275" s="12"/>
+      <c r="F275" s="5"/>
+      <c r="G275" s="5"/>
+      <c r="H275" s="5"/>
+      <c r="I275" s="5"/>
+      <c r="J275" s="5"/>
+      <c r="K275" s="5"/>
+      <c r="L275" s="5"/>
+      <c r="M275" s="5"/>
+      <c r="N275" s="5"/>
+      <c r="O275" s="5"/>
+      <c r="P275" s="5"/>
+      <c r="Q275" s="5"/>
+      <c r="R275" s="5"/>
+      <c r="S275" s="5"/>
+      <c r="T275" s="5"/>
+      <c r="U275" s="5"/>
+      <c r="V275" s="5"/>
+      <c r="W275" s="5"/>
+      <c r="X275" s="5"/>
+      <c r="Y275" s="5"/>
+      <c r="Z275" s="5"/>
+    </row>
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A276" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="D275" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="E275" s="6"/>
-      <c r="F275" s="2"/>
-      <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
-      <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
-      <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
-      <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
-      <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
-      <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
-      <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
-      <c r="U275" s="2"/>
-      <c r="V275" s="2"/>
-      <c r="W275" s="2"/>
-      <c r="X275" s="2"/>
-      <c r="Y275" s="2"/>
-      <c r="Z275" s="2"/>
-    </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A276" s="6" t="s">
+      <c r="B276" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="B276" s="6"/>
-      <c r="C276" s="6" t="s">
+      <c r="C276" s="13" t="s">
         <v>738</v>
       </c>
-      <c r="D276" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="E276" s="6"/>
-      <c r="F276" s="2"/>
-      <c r="G276" s="2"/>
-      <c r="H276" s="2"/>
-      <c r="I276" s="2"/>
-      <c r="J276" s="2"/>
-      <c r="K276" s="2"/>
-      <c r="L276" s="2"/>
-      <c r="M276" s="2"/>
-      <c r="N276" s="2"/>
-      <c r="O276" s="2"/>
-      <c r="P276" s="2"/>
-      <c r="Q276" s="2"/>
-      <c r="R276" s="2"/>
-      <c r="S276" s="2"/>
-      <c r="T276" s="2"/>
-      <c r="U276" s="2"/>
-      <c r="V276" s="2"/>
-      <c r="W276" s="2"/>
-      <c r="X276" s="2"/>
-      <c r="Y276" s="2"/>
-      <c r="Z276" s="2"/>
+      <c r="D276" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="E276" s="12"/>
+      <c r="F276" s="5"/>
+      <c r="G276" s="5"/>
+      <c r="H276" s="5"/>
+      <c r="I276" s="5"/>
+      <c r="J276" s="5"/>
+      <c r="K276" s="5"/>
+      <c r="L276" s="5"/>
+      <c r="M276" s="5"/>
+      <c r="N276" s="5"/>
+      <c r="O276" s="5"/>
+      <c r="P276" s="5"/>
+      <c r="Q276" s="5"/>
+      <c r="R276" s="5"/>
+      <c r="S276" s="5"/>
+      <c r="T276" s="5"/>
+      <c r="U276" s="5"/>
+      <c r="V276" s="5"/>
+      <c r="W276" s="5"/>
+      <c r="X276" s="5"/>
+      <c r="Y276" s="5"/>
+      <c r="Z276" s="5"/>
     </row>
     <row r="277" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A277" s="12" t="s">
+      <c r="A277" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B277" s="12"/>
-      <c r="C277" s="13" t="s">
+      <c r="B277" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="D277" s="12" t="s">
+      <c r="C277" s="53" t="s">
+        <v>741</v>
+      </c>
+      <c r="D277" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="E277" s="12"/>
-      <c r="F277" s="5"/>
-      <c r="G277" s="5"/>
-      <c r="H277" s="5"/>
-      <c r="I277" s="5"/>
-      <c r="J277" s="5"/>
-      <c r="K277" s="5"/>
-      <c r="L277" s="5"/>
-      <c r="M277" s="5"/>
-      <c r="N277" s="5"/>
-      <c r="O277" s="5"/>
-      <c r="P277" s="5"/>
-      <c r="Q277" s="5"/>
-      <c r="R277" s="5"/>
-      <c r="S277" s="5"/>
-      <c r="T277" s="5"/>
-      <c r="U277" s="5"/>
-      <c r="V277" s="5"/>
-      <c r="W277" s="5"/>
-      <c r="X277" s="5"/>
-      <c r="Y277" s="5"/>
-      <c r="Z277" s="5"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+      <c r="M277" s="2"/>
+      <c r="N277" s="2"/>
+      <c r="O277" s="2"/>
+      <c r="P277" s="2"/>
+      <c r="Q277" s="2"/>
+      <c r="R277" s="2"/>
+      <c r="S277" s="2"/>
+      <c r="T277" s="2"/>
+      <c r="U277" s="2"/>
+      <c r="V277" s="2"/>
+      <c r="W277" s="2"/>
+      <c r="X277" s="2"/>
+      <c r="Y277" s="2"/>
+      <c r="Z277" s="2"/>
     </row>
     <row r="278" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A278" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="B278" s="12" t="s">
+      <c r="A278" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="C278" s="13" t="s">
+      <c r="B278" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="D278" s="12" t="s">
-        <v>741</v>
-      </c>
-      <c r="E278" s="12"/>
-      <c r="F278" s="5"/>
-      <c r="G278" s="5"/>
-      <c r="H278" s="5"/>
-      <c r="I278" s="5"/>
-      <c r="J278" s="5"/>
-      <c r="K278" s="5"/>
-      <c r="L278" s="5"/>
-      <c r="M278" s="5"/>
-      <c r="N278" s="5"/>
-      <c r="O278" s="5"/>
-      <c r="P278" s="5"/>
-      <c r="Q278" s="5"/>
-      <c r="R278" s="5"/>
-      <c r="S278" s="5"/>
-      <c r="T278" s="5"/>
-      <c r="U278" s="5"/>
-      <c r="V278" s="5"/>
-      <c r="W278" s="5"/>
-      <c r="X278" s="5"/>
-      <c r="Y278" s="5"/>
-      <c r="Z278" s="5"/>
+      <c r="C278" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E278" s="6"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+      <c r="M278" s="2"/>
+      <c r="N278" s="2"/>
+      <c r="O278" s="2"/>
+      <c r="P278" s="2"/>
+      <c r="Q278" s="2"/>
+      <c r="R278" s="2"/>
+      <c r="S278" s="2"/>
+      <c r="T278" s="2"/>
+      <c r="U278" s="2"/>
+      <c r="V278" s="2"/>
+      <c r="W278" s="2"/>
+      <c r="X278" s="2"/>
+      <c r="Y278" s="2"/>
+      <c r="Z278" s="2"/>
     </row>
     <row r="279" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A279" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="B279" s="8" t="s">
+      <c r="A279" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="C279" s="53" t="s">
+      <c r="B279" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="D279" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="E279" s="8"/>
+      <c r="D279" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="E279" s="6"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
@@ -13053,17 +13055,15 @@
       <c r="Z279" s="2"/>
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="8" t="s">
         <v>747</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="8"/>
+      <c r="C280" s="9" t="s">
         <v>748</v>
       </c>
-      <c r="C280" s="6" t="s">
+      <c r="D280" s="8" t="s">
         <v>749</v>
-      </c>
-      <c r="D280" s="6" t="s">
-        <v>747</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="2"/>
@@ -13089,16 +13089,16 @@
       <c r="Z280" s="2"/>
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C281" s="6" t="s">
+      <c r="B281" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="D281" s="6" t="s">
+      <c r="C281" s="33" t="s">
+        <v>752</v>
+      </c>
+      <c r="D281" s="8" t="s">
         <v>750</v>
       </c>
       <c r="E281" s="6"/>
@@ -13125,15 +13125,17 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A282" s="8" t="s">
-        <v>752</v>
-      </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="9" t="s">
+      <c r="A282" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="D282" s="8" t="s">
+      <c r="B282" s="6" t="s">
         <v>754</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>753</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="2"/>
@@ -13159,17 +13161,17 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A283" s="8" t="s">
-        <v>755</v>
-      </c>
-      <c r="B283" s="8" t="s">
+      <c r="A283" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C283" s="33" t="s">
+      <c r="B283" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="D283" s="8" t="s">
-        <v>755</v>
+      <c r="C283" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D283" s="6" t="s">
+        <v>756</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="2"/>
@@ -13195,17 +13197,17 @@
       <c r="Z283" s="2"/>
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A284" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="B284" s="6" t="s">
+      <c r="A284" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="C284" s="6" t="s">
+      <c r="B284" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="D284" s="6" t="s">
-        <v>758</v>
+      <c r="C284" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="D284" s="8" t="s">
+        <v>759</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="2"/>
@@ -13231,19 +13233,17 @@
       <c r="Z284" s="2"/>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A285" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="B285" s="6" t="s">
+      <c r="A285" s="10" t="s">
         <v>762</v>
       </c>
-      <c r="C285" s="6" t="s">
+      <c r="B285" s="10"/>
+      <c r="C285" s="34" t="s">
         <v>763</v>
       </c>
-      <c r="D285" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="E285" s="6"/>
+      <c r="D285" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="E285" s="10"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
@@ -13267,17 +13267,17 @@
       <c r="Z285" s="2"/>
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A286" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="B286" s="8" t="s">
+      <c r="A286" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C286" s="9" t="s">
+      <c r="B286" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="D286" s="8" t="s">
-        <v>764</v>
+      <c r="C286" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>765</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="2"/>
@@ -13303,17 +13303,19 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A287" s="10" t="s">
-        <v>767</v>
-      </c>
-      <c r="B287" s="10"/>
-      <c r="C287" s="34" t="s">
+      <c r="A287" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="D287" s="10" t="s">
+      <c r="B287" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="E287" s="10"/>
+      <c r="C287" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="D287" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="E287" s="6"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
@@ -13338,16 +13340,16 @@
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="6" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="C288" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="D288" s="6" t="s">
         <v>772</v>
-      </c>
-      <c r="D288" s="6" t="s">
-        <v>770</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="2"/>
@@ -13373,76 +13375,74 @@
       <c r="Z288" s="2"/>
     </row>
     <row r="289" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A289" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="B289" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="C289" s="9" t="s">
+      <c r="A289" s="12" t="s">
         <v>775</v>
       </c>
-      <c r="D289" s="8" t="s">
+      <c r="B289" s="12"/>
+      <c r="C289" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="E289" s="6"/>
-      <c r="F289" s="2"/>
-      <c r="G289" s="2"/>
-      <c r="H289" s="2"/>
-      <c r="I289" s="2"/>
-      <c r="J289" s="2"/>
-      <c r="K289" s="2"/>
-      <c r="L289" s="2"/>
-      <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
-      <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
-      <c r="Q289" s="2"/>
-      <c r="R289" s="2"/>
-      <c r="S289" s="2"/>
-      <c r="T289" s="2"/>
-      <c r="U289" s="2"/>
-      <c r="V289" s="2"/>
-      <c r="W289" s="2"/>
-      <c r="X289" s="2"/>
-      <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
+      <c r="D289" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="E289" s="12"/>
+      <c r="F289" s="5"/>
+      <c r="G289" s="5"/>
+      <c r="H289" s="5"/>
+      <c r="I289" s="5"/>
+      <c r="J289" s="5"/>
+      <c r="K289" s="5"/>
+      <c r="L289" s="5"/>
+      <c r="M289" s="5"/>
+      <c r="N289" s="5"/>
+      <c r="O289" s="5"/>
+      <c r="P289" s="5"/>
+      <c r="Q289" s="5"/>
+      <c r="R289" s="5"/>
+      <c r="S289" s="5"/>
+      <c r="T289" s="5"/>
+      <c r="U289" s="5"/>
+      <c r="V289" s="5"/>
+      <c r="W289" s="5"/>
+      <c r="X289" s="5"/>
+      <c r="Y289" s="5"/>
+      <c r="Z289" s="5"/>
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C290" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="D290" s="6" t="s">
+      <c r="D290" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="E290" s="6"/>
-      <c r="F290" s="2"/>
-      <c r="G290" s="2"/>
-      <c r="H290" s="2"/>
-      <c r="I290" s="2"/>
-      <c r="J290" s="2"/>
-      <c r="K290" s="2"/>
-      <c r="L290" s="2"/>
-      <c r="M290" s="2"/>
-      <c r="N290" s="2"/>
-      <c r="O290" s="2"/>
-      <c r="P290" s="2"/>
-      <c r="Q290" s="2"/>
-      <c r="R290" s="2"/>
-      <c r="S290" s="2"/>
-      <c r="T290" s="2"/>
-      <c r="U290" s="2"/>
-      <c r="V290" s="2"/>
-      <c r="W290" s="2"/>
-      <c r="X290" s="2"/>
-      <c r="Y290" s="2"/>
-      <c r="Z290" s="2"/>
+      <c r="E290" s="12"/>
+      <c r="F290" s="5"/>
+      <c r="G290" s="5"/>
+      <c r="H290" s="5"/>
+      <c r="I290" s="5"/>
+      <c r="J290" s="5"/>
+      <c r="K290" s="5"/>
+      <c r="L290" s="5"/>
+      <c r="M290" s="5"/>
+      <c r="N290" s="5"/>
+      <c r="O290" s="5"/>
+      <c r="P290" s="5"/>
+      <c r="Q290" s="5"/>
+      <c r="R290" s="5"/>
+      <c r="S290" s="5"/>
+      <c r="T290" s="5"/>
+      <c r="U290" s="5"/>
+      <c r="V290" s="5"/>
+      <c r="W290" s="5"/>
+      <c r="X290" s="5"/>
+      <c r="Y290" s="5"/>
+      <c r="Z290" s="5"/>
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="12" t="s">
@@ -13453,7 +13453,7 @@
         <v>781</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E291" s="12"/>
       <c r="F291" s="5"/>
@@ -13479,85 +13479,87 @@
       <c r="Z291" s="5"/>
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A292" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="B292" s="12" t="s">
+      <c r="A292" s="10" t="s">
         <v>783</v>
       </c>
-      <c r="C292" s="13" t="s">
+      <c r="B292" s="10"/>
+      <c r="C292" s="11" t="s">
         <v>784</v>
       </c>
-      <c r="D292" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="E292" s="12"/>
-      <c r="F292" s="5"/>
-      <c r="G292" s="5"/>
-      <c r="H292" s="5"/>
-      <c r="I292" s="5"/>
-      <c r="J292" s="5"/>
-      <c r="K292" s="5"/>
-      <c r="L292" s="5"/>
-      <c r="M292" s="5"/>
-      <c r="N292" s="5"/>
-      <c r="O292" s="5"/>
-      <c r="P292" s="5"/>
-      <c r="Q292" s="5"/>
-      <c r="R292" s="5"/>
-      <c r="S292" s="5"/>
-      <c r="T292" s="5"/>
-      <c r="U292" s="5"/>
-      <c r="V292" s="5"/>
-      <c r="W292" s="5"/>
-      <c r="X292" s="5"/>
-      <c r="Y292" s="5"/>
-      <c r="Z292" s="5"/>
+      <c r="D292" s="10"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
+      <c r="H292" s="2"/>
+      <c r="I292" s="2"/>
+      <c r="J292" s="2"/>
+      <c r="K292" s="2"/>
+      <c r="L292" s="2"/>
+      <c r="M292" s="2"/>
+      <c r="N292" s="2"/>
+      <c r="O292" s="2"/>
+      <c r="P292" s="2"/>
+      <c r="Q292" s="2"/>
+      <c r="R292" s="2"/>
+      <c r="S292" s="2"/>
+      <c r="T292" s="2"/>
+      <c r="U292" s="2"/>
+      <c r="V292" s="2"/>
+      <c r="W292" s="2"/>
+      <c r="X292" s="2"/>
+      <c r="Y292" s="2"/>
+      <c r="Z292" s="2"/>
     </row>
     <row r="293" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="10" t="s">
         <v>785</v>
       </c>
-      <c r="B293" s="12"/>
-      <c r="C293" s="14" t="s">
+      <c r="B293" s="10" t="s">
         <v>786</v>
       </c>
-      <c r="D293" s="12" t="s">
+      <c r="C293" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D293" s="10" t="s">
         <v>787</v>
       </c>
-      <c r="E293" s="12"/>
-      <c r="F293" s="5"/>
-      <c r="G293" s="5"/>
-      <c r="H293" s="5"/>
-      <c r="I293" s="5"/>
-      <c r="J293" s="5"/>
-      <c r="K293" s="5"/>
-      <c r="L293" s="5"/>
-      <c r="M293" s="5"/>
-      <c r="N293" s="5"/>
-      <c r="O293" s="5"/>
-      <c r="P293" s="5"/>
-      <c r="Q293" s="5"/>
-      <c r="R293" s="5"/>
-      <c r="S293" s="5"/>
-      <c r="T293" s="5"/>
-      <c r="U293" s="5"/>
-      <c r="V293" s="5"/>
-      <c r="W293" s="5"/>
-      <c r="X293" s="5"/>
-      <c r="Y293" s="5"/>
-      <c r="Z293" s="5"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
+      <c r="H293" s="2"/>
+      <c r="I293" s="2"/>
+      <c r="J293" s="2"/>
+      <c r="K293" s="2"/>
+      <c r="L293" s="2"/>
+      <c r="M293" s="2"/>
+      <c r="N293" s="2"/>
+      <c r="O293" s="2"/>
+      <c r="P293" s="2"/>
+      <c r="Q293" s="2"/>
+      <c r="R293" s="2"/>
+      <c r="S293" s="2"/>
+      <c r="T293" s="2"/>
+      <c r="U293" s="2"/>
+      <c r="V293" s="2"/>
+      <c r="W293" s="2"/>
+      <c r="X293" s="2"/>
+      <c r="Y293" s="2"/>
+      <c r="Z293" s="2"/>
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A294" s="10" t="s">
+      <c r="A294" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B294" s="10"/>
-      <c r="C294" s="11" t="s">
+      <c r="B294" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
+      <c r="C294" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E294" s="6"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
@@ -13581,19 +13583,17 @@
       <c r="Z294" s="2"/>
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A295" s="10" t="s">
-        <v>790</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>791</v>
-      </c>
-      <c r="C295" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D295" s="10" t="s">
+      <c r="A295" s="8" t="s">
         <v>792</v>
       </c>
-      <c r="E295" s="10"/>
+      <c r="B295" s="8"/>
+      <c r="C295" s="9" t="s">
+        <v>793</v>
+      </c>
+      <c r="D295" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="E295" s="8"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
@@ -13617,19 +13617,17 @@
       <c r="Z295" s="2"/>
     </row>
     <row r="296" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A296" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="B296" s="6" t="s">
+      <c r="A296" s="8" t="s">
         <v>794</v>
       </c>
-      <c r="C296" s="15" t="s">
+      <c r="B296" s="8"/>
+      <c r="C296" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="D296" s="6" t="s">
+      <c r="D296" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="E296" s="6"/>
+      <c r="E296" s="8"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
@@ -13724,12 +13722,14 @@
       <c r="A299" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="B299" s="8"/>
+      <c r="B299" s="8" t="s">
+        <v>803</v>
+      </c>
       <c r="C299" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="2"/>
@@ -13756,14 +13756,14 @@
     </row>
     <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="8" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="9" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="2"/>
@@ -13789,17 +13789,15 @@
       <c r="Z300" s="2"/>
     </row>
     <row r="301" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A301" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="B301" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C301" s="9" t="s">
+      <c r="A301" s="10" t="s">
         <v>809</v>
       </c>
-      <c r="D301" s="8" t="s">
+      <c r="B301" s="10"/>
+      <c r="C301" s="11" t="s">
         <v>810</v>
+      </c>
+      <c r="D301" s="10" t="s">
+        <v>809</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="2"/>
@@ -13833,7 +13831,7 @@
         <v>812</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="2"/>
@@ -13859,15 +13857,17 @@
       <c r="Z302" s="2"/>
     </row>
     <row r="303" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A303" s="10" t="s">
+      <c r="A303" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B303" s="8" t="s">
         <v>814</v>
       </c>
-      <c r="B303" s="10"/>
-      <c r="C303" s="11" t="s">
+      <c r="C303" s="9" t="s">
         <v>815</v>
       </c>
-      <c r="D303" s="10" t="s">
-        <v>814</v>
+      <c r="D303" s="8" t="s">
+        <v>813</v>
       </c>
       <c r="E303" s="8"/>
       <c r="F303" s="2"/>
@@ -13893,17 +13893,17 @@
       <c r="Z303" s="2"/>
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A304" s="8" t="s">
+      <c r="A304" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B304" s="8"/>
-      <c r="C304" s="9" t="s">
+      <c r="B304" s="6"/>
+      <c r="C304" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="D304" s="8" t="s">
+      <c r="D304" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="E304" s="8"/>
+      <c r="E304" s="6"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
@@ -13927,121 +13927,123 @@
       <c r="Z304" s="2"/>
     </row>
     <row r="305" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A305" s="8" t="s">
+      <c r="A305" s="12" t="s">
         <v>818</v>
       </c>
-      <c r="B305" s="8" t="s">
+      <c r="B305" s="12"/>
+      <c r="C305" s="13" t="s">
         <v>819</v>
       </c>
-      <c r="C305" s="9" t="s">
+      <c r="D305" s="12" t="s">
         <v>820</v>
       </c>
-      <c r="D305" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="E305" s="8"/>
-      <c r="F305" s="2"/>
-      <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
-      <c r="I305" s="2"/>
-      <c r="J305" s="2"/>
-      <c r="K305" s="2"/>
-      <c r="L305" s="2"/>
-      <c r="M305" s="2"/>
-      <c r="N305" s="2"/>
-      <c r="O305" s="2"/>
-      <c r="P305" s="2"/>
-      <c r="Q305" s="2"/>
-      <c r="R305" s="2"/>
-      <c r="S305" s="2"/>
-      <c r="T305" s="2"/>
-      <c r="U305" s="2"/>
-      <c r="V305" s="2"/>
-      <c r="W305" s="2"/>
-      <c r="X305" s="2"/>
-      <c r="Y305" s="2"/>
-      <c r="Z305" s="2"/>
+      <c r="E305" s="12"/>
+      <c r="F305" s="5"/>
+      <c r="G305" s="5"/>
+      <c r="H305" s="5"/>
+      <c r="I305" s="5"/>
+      <c r="J305" s="5"/>
+      <c r="K305" s="5"/>
+      <c r="L305" s="5"/>
+      <c r="M305" s="5"/>
+      <c r="N305" s="5"/>
+      <c r="O305" s="5"/>
+      <c r="P305" s="5"/>
+      <c r="Q305" s="5"/>
+      <c r="R305" s="5"/>
+      <c r="S305" s="5"/>
+      <c r="T305" s="5"/>
+      <c r="U305" s="5"/>
+      <c r="V305" s="5"/>
+      <c r="W305" s="5"/>
+      <c r="X305" s="5"/>
+      <c r="Y305" s="5"/>
+      <c r="Z305" s="5"/>
     </row>
     <row r="306" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="B306" s="6"/>
-      <c r="C306" s="15" t="s">
+      <c r="B306" s="12" t="s">
         <v>822</v>
       </c>
-      <c r="D306" s="6" t="s">
+      <c r="C306" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="D306" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="E306" s="6"/>
-      <c r="F306" s="2"/>
-      <c r="G306" s="2"/>
-      <c r="H306" s="2"/>
-      <c r="I306" s="2"/>
-      <c r="J306" s="2"/>
-      <c r="K306" s="2"/>
-      <c r="L306" s="2"/>
-      <c r="M306" s="2"/>
-      <c r="N306" s="2"/>
-      <c r="O306" s="2"/>
-      <c r="P306" s="2"/>
-      <c r="Q306" s="2"/>
-      <c r="R306" s="2"/>
-      <c r="S306" s="2"/>
-      <c r="T306" s="2"/>
-      <c r="U306" s="2"/>
-      <c r="V306" s="2"/>
-      <c r="W306" s="2"/>
-      <c r="X306" s="2"/>
-      <c r="Y306" s="2"/>
-      <c r="Z306" s="2"/>
+      <c r="E306" s="12"/>
+      <c r="F306" s="5"/>
+      <c r="G306" s="5"/>
+      <c r="H306" s="5"/>
+      <c r="I306" s="5"/>
+      <c r="J306" s="5"/>
+      <c r="K306" s="5"/>
+      <c r="L306" s="5"/>
+      <c r="M306" s="5"/>
+      <c r="N306" s="5"/>
+      <c r="O306" s="5"/>
+      <c r="P306" s="5"/>
+      <c r="Q306" s="5"/>
+      <c r="R306" s="5"/>
+      <c r="S306" s="5"/>
+      <c r="T306" s="5"/>
+      <c r="U306" s="5"/>
+      <c r="V306" s="5"/>
+      <c r="W306" s="5"/>
+      <c r="X306" s="5"/>
+      <c r="Y306" s="5"/>
+      <c r="Z306" s="5"/>
     </row>
     <row r="307" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A307" s="12" t="s">
-        <v>823</v>
-      </c>
-      <c r="B307" s="12"/>
-      <c r="C307" s="13" t="s">
+      <c r="A307" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="D307" s="12" t="s">
+      <c r="B307" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="E307" s="12"/>
-      <c r="F307" s="5"/>
-      <c r="G307" s="5"/>
-      <c r="H307" s="5"/>
-      <c r="I307" s="5"/>
-      <c r="J307" s="5"/>
-      <c r="K307" s="5"/>
-      <c r="L307" s="5"/>
-      <c r="M307" s="5"/>
-      <c r="N307" s="5"/>
-      <c r="O307" s="5"/>
-      <c r="P307" s="5"/>
-      <c r="Q307" s="5"/>
-      <c r="R307" s="5"/>
-      <c r="S307" s="5"/>
-      <c r="T307" s="5"/>
-      <c r="U307" s="5"/>
-      <c r="V307" s="5"/>
-      <c r="W307" s="5"/>
-      <c r="X307" s="5"/>
-      <c r="Y307" s="5"/>
-      <c r="Z307" s="5"/>
+      <c r="C307" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="D307" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="E307" s="6"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
+      <c r="H307" s="2"/>
+      <c r="I307" s="2"/>
+      <c r="J307" s="2"/>
+      <c r="K307" s="2"/>
+      <c r="L307" s="2"/>
+      <c r="M307" s="2"/>
+      <c r="N307" s="2"/>
+      <c r="O307" s="2"/>
+      <c r="P307" s="2"/>
+      <c r="Q307" s="2"/>
+      <c r="R307" s="2"/>
+      <c r="S307" s="2"/>
+      <c r="T307" s="2"/>
+      <c r="U307" s="2"/>
+      <c r="V307" s="2"/>
+      <c r="W307" s="2"/>
+      <c r="X307" s="2"/>
+      <c r="Y307" s="2"/>
+      <c r="Z307" s="2"/>
     </row>
     <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="12" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B308" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="C308" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="D308" s="12" t="s">
         <v>827</v>
-      </c>
-      <c r="C308" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="D308" s="12" t="s">
-        <v>826</v>
       </c>
       <c r="E308" s="12"/>
       <c r="F308" s="5"/>
@@ -14068,16 +14070,14 @@
     </row>
     <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="B309" s="6" t="s">
         <v>830</v>
       </c>
+      <c r="B309" s="6"/>
       <c r="C309" s="7" t="s">
         <v>831</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="2"/>
@@ -14103,53 +14103,53 @@
       <c r="Z309" s="2"/>
     </row>
     <row r="310" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A310" s="12" t="s">
+      <c r="A310" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B310" s="8"/>
+      <c r="C310" s="9" t="s">
         <v>833</v>
       </c>
-      <c r="C310" s="13" t="s">
-        <v>834</v>
-      </c>
-      <c r="D310" s="12" t="s">
+      <c r="D310" s="54" t="s">
         <v>832</v>
       </c>
-      <c r="E310" s="12"/>
-      <c r="F310" s="5"/>
-      <c r="G310" s="5"/>
-      <c r="H310" s="5"/>
-      <c r="I310" s="5"/>
-      <c r="J310" s="5"/>
-      <c r="K310" s="5"/>
-      <c r="L310" s="5"/>
-      <c r="M310" s="5"/>
-      <c r="N310" s="5"/>
-      <c r="O310" s="5"/>
-      <c r="P310" s="5"/>
-      <c r="Q310" s="5"/>
-      <c r="R310" s="5"/>
-      <c r="S310" s="5"/>
-      <c r="T310" s="5"/>
-      <c r="U310" s="5"/>
-      <c r="V310" s="5"/>
-      <c r="W310" s="5"/>
-      <c r="X310" s="5"/>
-      <c r="Y310" s="5"/>
-      <c r="Z310" s="5"/>
+      <c r="E310" s="54"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
+      <c r="H310" s="2"/>
+      <c r="I310" s="2"/>
+      <c r="J310" s="2"/>
+      <c r="K310" s="2"/>
+      <c r="L310" s="2"/>
+      <c r="M310" s="2"/>
+      <c r="N310" s="2"/>
+      <c r="O310" s="2"/>
+      <c r="P310" s="2"/>
+      <c r="Q310" s="2"/>
+      <c r="R310" s="2"/>
+      <c r="S310" s="2"/>
+      <c r="T310" s="2"/>
+      <c r="U310" s="2"/>
+      <c r="V310" s="2"/>
+      <c r="W310" s="2"/>
+      <c r="X310" s="2"/>
+      <c r="Y310" s="2"/>
+      <c r="Z310" s="2"/>
     </row>
     <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B311" s="6"/>
-      <c r="C311" s="7" t="s">
+      <c r="C311" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="D311" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="E311" s="6"/>
+      <c r="D311" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="E311" s="2"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
@@ -14180,80 +14180,22 @@
       <c r="C312" s="9" t="s">
         <v>838</v>
       </c>
-      <c r="D312" s="54" t="s">
-        <v>837</v>
-      </c>
-      <c r="E312" s="54"/>
-      <c r="F312" s="2"/>
-      <c r="G312" s="2"/>
-      <c r="H312" s="2"/>
-      <c r="I312" s="2"/>
-      <c r="J312" s="2"/>
-      <c r="K312" s="2"/>
-      <c r="L312" s="2"/>
-      <c r="M312" s="2"/>
-      <c r="N312" s="2"/>
-      <c r="O312" s="2"/>
-      <c r="P312" s="2"/>
-      <c r="Q312" s="2"/>
-      <c r="R312" s="2"/>
-      <c r="S312" s="2"/>
-      <c r="T312" s="2"/>
-      <c r="U312" s="2"/>
-      <c r="V312" s="2"/>
-      <c r="W312" s="2"/>
-      <c r="X312" s="2"/>
-      <c r="Y312" s="2"/>
-      <c r="Z312" s="2"/>
+      <c r="D312" s="55" t="s">
+        <v>839</v>
+      </c>
+      <c r="E312" s="55"/>
     </row>
     <row r="313" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A313" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>841</v>
-      </c>
-      <c r="D313" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
-      <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
-      <c r="I313" s="2"/>
-      <c r="J313" s="2"/>
-      <c r="K313" s="2"/>
-      <c r="L313" s="2"/>
-      <c r="M313" s="2"/>
-      <c r="N313" s="2"/>
-      <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
-      <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
-      <c r="S313" s="2"/>
-      <c r="T313" s="2"/>
-      <c r="U313" s="2"/>
-      <c r="V313" s="2"/>
-      <c r="W313" s="2"/>
-      <c r="X313" s="2"/>
-      <c r="Y313" s="2"/>
-      <c r="Z313" s="2"/>
+      <c r="A313" s="6"/>
+      <c r="B313" s="6"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="2"/>
     </row>
     <row r="314" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A314" s="8" t="s">
-        <v>842</v>
-      </c>
-      <c r="B314" s="8"/>
-      <c r="C314" s="9" t="s">
-        <v>843</v>
-      </c>
-      <c r="D314" s="55" t="s">
-        <v>844</v>
-      </c>
-      <c r="E314" s="55"/>
+      <c r="A314" s="6"/>
+      <c r="B314" s="6"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="2"/>
     </row>
     <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="6"/>
@@ -19702,18 +19644,6 @@
       <c r="B1222" s="6"/>
       <c r="C1222" s="6"/>
       <c r="D1222" s="2"/>
-    </row>
-    <row r="1223" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1223" s="6"/>
-      <c r="B1223" s="6"/>
-      <c r="C1223" s="6"/>
-      <c r="D1223" s="2"/>
-    </row>
-    <row r="1224" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1224" s="6"/>
-      <c r="B1224" s="6"/>
-      <c r="C1224" s="6"/>
-      <c r="D1224" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19850,106 +19780,106 @@
     <hyperlink ref="C164" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
     <hyperlink ref="C165" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
     <hyperlink ref="C166" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C167" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C170" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C173" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C176" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C177" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C178" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C180" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C181" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C182" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C184" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C186" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C187" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C188" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C189" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C190" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="C192" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C194" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="C195" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="C196" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C198" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C200" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C201" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C202" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C206" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C207" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C209" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C210" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C212" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C213" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C214" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C216" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C217" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C220" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C221" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C223" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C224" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C225" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C226" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C228" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C231" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C232" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C233" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C235" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C236" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C237" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C238" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C241" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C243" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C244" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C245" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C246" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C247" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C249" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C250" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C252" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C255" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C256" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C257" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C258" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C260" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C261" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C262" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C264" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C265" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C269" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C270" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C271" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C273" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C275" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C277" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C279" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C282" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C283" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C286" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C287" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C289" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C290" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C291" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C293" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C294" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C295" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C296" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C297" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C298" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C299" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C300" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C301" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C302" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C303" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C304" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C305" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C306" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C308" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C309" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C311" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C312" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C313" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C314" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C130" r:id="rId232" xr:uid="{98DDE684-CC21-7C49-B22B-C4F92C88FD93}"/>
-    <hyperlink ref="C172" r:id="rId233" xr:uid="{E941C717-9955-3748-A705-A152EB86702B}"/>
+    <hyperlink ref="C170" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C173" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C176" r:id="rId136" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C177" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C178" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C180" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C181" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C182" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C184" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C186" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C187" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C188" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C189" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C190" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C192" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C194" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="C195" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C196" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C198" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C200" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C201" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C202" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C206" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C207" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C209" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C210" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C211" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C212" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C213" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C215" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C216" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C219" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C220" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C222" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C223" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C224" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C225" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C227" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C230" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C231" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C232" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C234" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C235" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C236" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C237" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C240" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C241" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C242" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C243" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C244" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C245" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C247" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C248" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C250" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C253" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C254" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C255" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C256" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C258" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C259" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C260" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C262" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C263" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C267" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C268" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C269" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C271" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C273" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C275" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C277" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C280" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C281" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C284" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C285" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C287" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C288" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C289" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C291" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C292" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C293" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C294" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C295" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C296" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C297" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C298" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C299" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C300" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C301" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C302" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C303" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C304" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C306" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C307" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C309" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C310" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C311" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C312" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C130" r:id="rId231" xr:uid="{98DDE684-CC21-7C49-B22B-C4F92C88FD93}"/>
+    <hyperlink ref="C172" r:id="rId232" xr:uid="{E941C717-9955-3748-A705-A152EB86702B}"/>
+    <hyperlink ref="C203" r:id="rId233" xr:uid="{E097DAE9-B813-AD4F-99E1-6F78BF720202}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B985574-6997-BA41-81D0-10C45236BCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F875124-4333-EC42-8C07-04CB5707764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3308,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="169" workbookViewId="0">
-      <selection activeCell="A241" sqref="A241:XFD241"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="169" workbookViewId="0">
+      <selection activeCell="D203" sqref="D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -19879,7 +19879,7 @@
     <hyperlink ref="C312" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
     <hyperlink ref="C130" r:id="rId231" xr:uid="{98DDE684-CC21-7C49-B22B-C4F92C88FD93}"/>
     <hyperlink ref="C172" r:id="rId232" xr:uid="{E941C717-9955-3748-A705-A152EB86702B}"/>
-    <hyperlink ref="C203" r:id="rId233" xr:uid="{E097DAE9-B813-AD4F-99E1-6F78BF720202}"/>
+    <hyperlink ref="C203" r:id="rId233" xr:uid="{35225AD0-6E86-F842-9A7D-130AABE12B66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F875124-4333-EC42-8C07-04CB5707764C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A2F9B-FF0B-0F44-85E3-DADF419D1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1631,9 +1631,6 @@
     <t>Piran</t>
   </si>
   <si>
-    <t>https://www.geonames.org/11748131/piran-city.html</t>
-  </si>
-  <si>
     <t>Podbrdo</t>
   </si>
   <si>
@@ -2578,6 +2575,9 @@
   </si>
   <si>
     <t>https://www.geonames.org/3069011/olomouc.html</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3193340/piran.html</t>
   </si>
 </sst>
 </file>
@@ -3308,8 +3308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="169" workbookViewId="0">
-      <selection activeCell="D203" sqref="D203"/>
+    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B130" s="30"/>
       <c r="C130" s="57" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>338</v>
@@ -8324,14 +8324,14 @@
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B145" s="6"/>
       <c r="C145" s="6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="2"/>
@@ -9094,7 +9094,7 @@
       </c>
       <c r="B167" s="6"/>
       <c r="C167" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>437</v>
@@ -9272,7 +9272,7 @@
         <v>450</v>
       </c>
       <c r="C172" s="56" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D172" s="6" t="s">
         <v>451</v>
@@ -9936,7 +9936,7 @@
         <v>504</v>
       </c>
       <c r="C191" s="56" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D191" s="6" t="s">
         <v>505</v>
@@ -10352,7 +10352,7 @@
         <v>533</v>
       </c>
       <c r="C203" s="59" t="s">
-        <v>534</v>
+        <v>849</v>
       </c>
       <c r="D203" s="12" t="s">
         <v>532</v>
@@ -10382,14 +10382,14 @@
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B204" s="12"/>
       <c r="C204" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="5"/>
@@ -10416,16 +10416,16 @@
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B205" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="C205" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="D205" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="2"/>
@@ -10452,14 +10452,14 @@
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B206" s="8"/>
       <c r="C206" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E206" s="10"/>
       <c r="F206" s="2"/>
@@ -10486,16 +10486,16 @@
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B207" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="C207" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="C207" s="11" t="s">
-        <v>544</v>
-      </c>
       <c r="D207" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="2"/>
@@ -10522,16 +10522,16 @@
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B208" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="C208" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="D208" s="12" t="s">
         <v>547</v>
-      </c>
-      <c r="D208" s="12" t="s">
-        <v>548</v>
       </c>
       <c r="E208" s="12"/>
       <c r="F208" s="5"/>
@@ -10558,16 +10558,16 @@
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B209" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="C209" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="C209" s="15" t="s">
-        <v>551</v>
-      </c>
       <c r="D209" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="2"/>
@@ -10594,16 +10594,16 @@
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="B210" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="C210" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="C210" s="36" t="s">
-        <v>554</v>
-      </c>
       <c r="D210" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E210" s="37"/>
       <c r="F210" s="5"/>
@@ -10630,14 +10630,14 @@
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B211" s="16"/>
       <c r="C211" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="D211" s="46" t="s">
         <v>556</v>
-      </c>
-      <c r="D211" s="46" t="s">
-        <v>557</v>
       </c>
       <c r="E211" s="37"/>
       <c r="F211" s="5"/>
@@ -10664,16 +10664,16 @@
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B212" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="C212" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="C212" s="47" t="s">
-        <v>560</v>
-      </c>
       <c r="D212" s="37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E212" s="37"/>
       <c r="F212" s="5"/>
@@ -10700,16 +10700,16 @@
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B213" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="C213" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="C213" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="D213" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="2"/>
@@ -10736,14 +10736,14 @@
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="12" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B214" s="12"/>
       <c r="C214" s="37" t="s">
+        <v>564</v>
+      </c>
+      <c r="D214" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>566</v>
       </c>
       <c r="E214" s="12"/>
       <c r="F214" s="5"/>
@@ -10770,16 +10770,16 @@
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B215" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="C215" s="37" t="s">
         <v>568</v>
       </c>
-      <c r="C215" s="37" t="s">
+      <c r="D215" s="12" t="s">
         <v>569</v>
-      </c>
-      <c r="D215" s="12" t="s">
-        <v>570</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="5"/>
@@ -10806,7 +10806,7 @@
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B216" s="48" t="s">
         <v>334</v>
@@ -10815,7 +10815,7 @@
         <v>335</v>
       </c>
       <c r="D216" s="48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E216" s="50"/>
       <c r="F216" s="2"/>
@@ -10842,16 +10842,16 @@
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B217" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="C217" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="C217" s="37" t="s">
-        <v>574</v>
-      </c>
       <c r="D217" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E217" s="12"/>
       <c r="F217" s="5"/>
@@ -10878,16 +10878,16 @@
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>845</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>576</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="2"/>
@@ -10914,14 +10914,14 @@
     </row>
     <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B219" s="10"/>
       <c r="C219" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D219" s="10" t="s">
         <v>578</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>579</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="2"/>
@@ -10948,16 +10948,16 @@
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B220" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="C220" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C220" s="9" t="s">
-        <v>582</v>
-      </c>
       <c r="D220" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="2"/>
@@ -10984,16 +10984,16 @@
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B221" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="C221" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="D221" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="2"/>
@@ -11020,14 +11020,14 @@
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B222" s="10"/>
       <c r="C222" s="32" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E222" s="10"/>
       <c r="F222" s="2"/>
@@ -11054,16 +11054,16 @@
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B223" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="B223" s="8" t="s">
+      <c r="C223" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C223" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="D223" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="2"/>
@@ -11090,16 +11090,16 @@
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B224" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="C224" s="32" t="s">
         <v>592</v>
       </c>
-      <c r="C224" s="32" t="s">
+      <c r="D224" s="10" t="s">
         <v>593</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>594</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="2"/>
@@ -11126,14 +11126,14 @@
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B225" s="8"/>
       <c r="C225" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="2"/>
@@ -11160,14 +11160,14 @@
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B226" s="6"/>
       <c r="C226" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="2"/>
@@ -11194,16 +11194,16 @@
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B227" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="B227" s="8" t="s">
+      <c r="C227" s="33" t="s">
         <v>600</v>
       </c>
-      <c r="C227" s="33" t="s">
+      <c r="D227" s="8" t="s">
         <v>601</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>602</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="2"/>
@@ -11230,14 +11230,14 @@
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B228" s="6"/>
       <c r="C228" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="2"/>
@@ -11264,16 +11264,16 @@
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B229" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="C229" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="D229" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>608</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="2"/>
@@ -11300,16 +11300,16 @@
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B230" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="C230" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="C230" s="13" t="s">
-        <v>611</v>
-      </c>
       <c r="D230" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E230" s="12"/>
       <c r="F230" s="5"/>
@@ -11336,14 +11336,14 @@
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B231" s="12"/>
       <c r="C231" s="13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="5"/>
@@ -11370,14 +11370,14 @@
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B232" s="12"/>
       <c r="C232" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="5"/>
@@ -11404,16 +11404,16 @@
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B233" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="C233" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>618</v>
-      </c>
       <c r="D233" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="2"/>
@@ -11440,16 +11440,16 @@
     </row>
     <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B234" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="C234" s="32" t="s">
         <v>620</v>
       </c>
-      <c r="C234" s="32" t="s">
+      <c r="D234" s="10" t="s">
         <v>621</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>622</v>
       </c>
       <c r="E234" s="10"/>
       <c r="F234" s="2"/>
@@ -11476,16 +11476,16 @@
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="B235" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="C235" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="D235" s="37" t="s">
         <v>625</v>
-      </c>
-      <c r="D235" s="37" t="s">
-        <v>626</v>
       </c>
       <c r="E235" s="37"/>
       <c r="F235" s="5"/>
@@ -11512,16 +11512,16 @@
     </row>
     <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="B236" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="C236" s="46" t="s">
         <v>627</v>
       </c>
-      <c r="B236" s="16" t="s">
-        <v>627</v>
-      </c>
-      <c r="C236" s="46" t="s">
-        <v>628</v>
-      </c>
       <c r="D236" s="16" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E236" s="16"/>
       <c r="F236" s="5"/>
@@ -11548,14 +11548,14 @@
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B237" s="16"/>
       <c r="C237" s="46" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E237" s="16"/>
       <c r="F237" s="5"/>
@@ -11582,14 +11582,14 @@
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B238" s="12"/>
       <c r="C238" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D238" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E238" s="12"/>
       <c r="F238" s="5"/>
@@ -11616,16 +11616,16 @@
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="B239" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="C239" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>635</v>
-      </c>
       <c r="D239" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="2"/>
@@ -11652,14 +11652,14 @@
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B240" s="6"/>
       <c r="C240" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="D240" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="D240" s="6" t="s">
-        <v>638</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="2"/>
@@ -11686,16 +11686,16 @@
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="B241" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="C241" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C241" s="14" t="s">
+      <c r="D241" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>642</v>
       </c>
       <c r="E241" s="12"/>
       <c r="F241" s="5"/>
@@ -11722,14 +11722,14 @@
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B242" s="12"/>
       <c r="C242" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D242" s="12" t="s">
         <v>644</v>
-      </c>
-      <c r="D242" s="12" t="s">
-        <v>645</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="5"/>
@@ -11756,16 +11756,16 @@
     </row>
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B243" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="C243" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="C243" s="17" t="s">
-        <v>648</v>
-      </c>
       <c r="D243" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="5"/>
@@ -11792,14 +11792,14 @@
     </row>
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B244" s="12"/>
       <c r="C244" s="13" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="5"/>
@@ -11826,14 +11826,14 @@
     </row>
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B245" s="12"/>
       <c r="C245" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="5"/>
@@ -11860,14 +11860,14 @@
     </row>
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B246" s="12"/>
       <c r="C246" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E246" s="12"/>
       <c r="F246" s="5"/>
@@ -11894,16 +11894,16 @@
     </row>
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="B247" s="12" t="s">
         <v>655</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="C247" s="14" t="s">
         <v>656</v>
       </c>
-      <c r="C247" s="14" t="s">
-        <v>657</v>
-      </c>
       <c r="D247" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="5"/>
@@ -11930,14 +11930,14 @@
     </row>
     <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B248" s="12"/>
       <c r="C248" s="19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="5"/>
@@ -11964,14 +11964,14 @@
     </row>
     <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B249" s="12"/>
       <c r="C249" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E249" s="12"/>
       <c r="F249" s="5"/>
@@ -11998,16 +11998,16 @@
     </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B250" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="C250" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="C250" s="33" t="s">
-        <v>664</v>
-      </c>
       <c r="D250" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E250" s="8"/>
       <c r="F250" s="2"/>
@@ -12034,14 +12034,14 @@
     </row>
     <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B251" s="6"/>
       <c r="C251" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D251" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="2"/>
@@ -12068,14 +12068,14 @@
     </row>
     <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B252" s="6"/>
       <c r="C252" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D252" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="2"/>
@@ -12102,16 +12102,16 @@
     </row>
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B253" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="C253" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="C253" s="11" t="s">
-        <v>672</v>
-      </c>
       <c r="D253" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="2"/>
@@ -12138,14 +12138,14 @@
     </row>
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B254" s="12"/>
       <c r="C254" s="14" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E254" s="12"/>
       <c r="F254" s="5"/>
@@ -12172,16 +12172,16 @@
     </row>
     <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B255" s="12" t="s">
         <v>675</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="C255" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="C255" s="51" t="s">
+      <c r="D255" s="12" t="s">
         <v>677</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>678</v>
       </c>
       <c r="E255" s="12"/>
       <c r="F255" s="5"/>
@@ -12208,16 +12208,16 @@
     </row>
     <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="16" t="s">
+        <v>678</v>
+      </c>
+      <c r="B256" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="C256" s="52" t="s">
         <v>680</v>
       </c>
-      <c r="C256" s="52" t="s">
+      <c r="D256" s="16" t="s">
         <v>681</v>
-      </c>
-      <c r="D256" s="16" t="s">
-        <v>682</v>
       </c>
       <c r="E256" s="12"/>
       <c r="F256" s="5"/>
@@ -12244,16 +12244,16 @@
     </row>
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="B257" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="B257" s="12" t="s">
+      <c r="C257" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="D257" s="12" t="s">
         <v>685</v>
-      </c>
-      <c r="D257" s="12" t="s">
-        <v>686</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="5"/>
@@ -12280,14 +12280,14 @@
     </row>
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B258" s="16"/>
       <c r="C258" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D258" s="16" t="s">
         <v>688</v>
-      </c>
-      <c r="D258" s="16" t="s">
-        <v>689</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="5"/>
@@ -12314,14 +12314,14 @@
     </row>
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B259" s="12"/>
       <c r="C259" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E259" s="16"/>
       <c r="F259" s="5"/>
@@ -12348,16 +12348,16 @@
     </row>
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B260" s="12" t="s">
         <v>692</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="C260" s="14" t="s">
         <v>693</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="D260" s="12" t="s">
         <v>694</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>695</v>
       </c>
       <c r="E260" s="16"/>
       <c r="F260" s="5"/>
@@ -12384,14 +12384,14 @@
     </row>
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E261" s="16"/>
       <c r="F261" s="5"/>
@@ -12418,14 +12418,14 @@
     </row>
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B262" s="16"/>
       <c r="C262" s="25" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D262" s="16" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E262" s="16"/>
       <c r="F262" s="5"/>
@@ -12452,16 +12452,16 @@
     </row>
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B263" s="16" t="s">
         <v>700</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="C263" s="17" t="s">
         <v>701</v>
       </c>
-      <c r="C263" s="17" t="s">
-        <v>702</v>
-      </c>
       <c r="D263" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E263" s="16"/>
       <c r="F263" s="5"/>
@@ -12488,16 +12488,16 @@
     </row>
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B264" s="12" t="s">
         <v>703</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="C264" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="C264" s="13" t="s">
-        <v>705</v>
-      </c>
       <c r="D264" s="12" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E264" s="12"/>
       <c r="F264" s="5"/>
@@ -12524,16 +12524,16 @@
     </row>
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B265" s="12" t="s">
         <v>706</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="C265" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="C265" s="13" t="s">
-        <v>708</v>
-      </c>
       <c r="D265" s="12" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E265" s="12"/>
       <c r="F265" s="5"/>
@@ -12560,16 +12560,16 @@
     </row>
     <row r="266" spans="1:26" ht="15.75" customHeight="1">
       <c r="A266" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B266" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="C266" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>711</v>
-      </c>
       <c r="D266" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E266" s="6"/>
       <c r="F266" s="2"/>
@@ -12596,16 +12596,16 @@
     </row>
     <row r="267" spans="1:26" ht="15.75" customHeight="1">
       <c r="A267" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>712</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="C267" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="C267" s="7" t="s">
-        <v>714</v>
-      </c>
       <c r="D267" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E267" s="6"/>
       <c r="F267" s="2"/>
@@ -12632,16 +12632,16 @@
     </row>
     <row r="268" spans="1:26" ht="15.75" customHeight="1">
       <c r="A268" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B268" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="B268" s="8" t="s">
+      <c r="C268" s="53" t="s">
         <v>716</v>
       </c>
-      <c r="C268" s="53" t="s">
+      <c r="D268" s="8" t="s">
         <v>717</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>718</v>
       </c>
       <c r="E268" s="8"/>
       <c r="F268" s="2"/>
@@ -12668,14 +12668,14 @@
     </row>
     <row r="269" spans="1:26" ht="15.75" customHeight="1">
       <c r="A269" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B269" s="8"/>
       <c r="C269" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="2"/>
@@ -12702,16 +12702,16 @@
     </row>
     <row r="270" spans="1:26" ht="15.75" customHeight="1">
       <c r="A270" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="C270" s="6" t="s">
         <v>722</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>723</v>
-      </c>
       <c r="D270" s="6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="2"/>
@@ -12738,16 +12738,16 @@
     </row>
     <row r="271" spans="1:26" ht="15.75" customHeight="1">
       <c r="A271" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B271" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="C271" s="14" t="s">
         <v>725</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>726</v>
-      </c>
       <c r="D271" s="12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E271" s="12"/>
       <c r="F271" s="5"/>
@@ -12774,16 +12774,16 @@
     </row>
     <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="C272" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="D272" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>847</v>
-      </c>
-      <c r="D272" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="2"/>
@@ -12810,14 +12810,14 @@
     </row>
     <row r="273" spans="1:26" ht="15.75" customHeight="1">
       <c r="A273" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B273" s="8"/>
       <c r="C273" s="53" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E273" s="6"/>
       <c r="F273" s="2"/>
@@ -12844,14 +12844,14 @@
     </row>
     <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B274" s="6"/>
       <c r="C274" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="2"/>
@@ -12878,14 +12878,14 @@
     </row>
     <row r="275" spans="1:26" ht="15.75" customHeight="1">
       <c r="A275" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B275" s="12"/>
       <c r="C275" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E275" s="12"/>
       <c r="F275" s="5"/>
@@ -12912,16 +12912,16 @@
     </row>
     <row r="276" spans="1:26" ht="15.75" customHeight="1">
       <c r="A276" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="B276" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="C276" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="C276" s="13" t="s">
-        <v>738</v>
-      </c>
       <c r="D276" s="12" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E276" s="12"/>
       <c r="F276" s="5"/>
@@ -12948,16 +12948,16 @@
     </row>
     <row r="277" spans="1:26" ht="15.75" customHeight="1">
       <c r="A277" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B277" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="C277" s="53" t="s">
         <v>740</v>
       </c>
-      <c r="C277" s="53" t="s">
-        <v>741</v>
-      </c>
       <c r="D277" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="2"/>
@@ -12984,16 +12984,16 @@
     </row>
     <row r="278" spans="1:26" ht="15.75" customHeight="1">
       <c r="A278" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="C278" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>744</v>
-      </c>
       <c r="D278" s="6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="2"/>
@@ -13020,16 +13020,16 @@
     </row>
     <row r="279" spans="1:26" ht="15.75" customHeight="1">
       <c r="A279" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B279" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>746</v>
-      </c>
       <c r="D279" s="6" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E279" s="6"/>
       <c r="F279" s="2"/>
@@ -13056,14 +13056,14 @@
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1">
       <c r="A280" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B280" s="8"/>
       <c r="C280" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D280" s="8" t="s">
         <v>748</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>749</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="2"/>
@@ -13090,16 +13090,16 @@
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1">
       <c r="A281" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B281" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="C281" s="33" t="s">
         <v>751</v>
       </c>
-      <c r="C281" s="33" t="s">
-        <v>752</v>
-      </c>
       <c r="D281" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="2"/>
@@ -13126,16 +13126,16 @@
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1">
       <c r="A282" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B282" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="C282" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>755</v>
-      </c>
       <c r="D282" s="6" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="2"/>
@@ -13162,16 +13162,16 @@
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1">
       <c r="A283" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B283" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="C283" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>758</v>
-      </c>
       <c r="D283" s="6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="2"/>
@@ -13198,16 +13198,16 @@
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1">
       <c r="A284" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B284" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B284" s="8" t="s">
+      <c r="C284" s="9" t="s">
         <v>760</v>
       </c>
-      <c r="C284" s="9" t="s">
-        <v>761</v>
-      </c>
       <c r="D284" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="2"/>
@@ -13234,14 +13234,14 @@
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1">
       <c r="A285" s="10" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B285" s="10"/>
       <c r="C285" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="D285" s="10" t="s">
         <v>763</v>
-      </c>
-      <c r="D285" s="10" t="s">
-        <v>764</v>
       </c>
       <c r="E285" s="10"/>
       <c r="F285" s="2"/>
@@ -13268,16 +13268,16 @@
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1">
       <c r="A286" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B286" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="C286" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>767</v>
-      </c>
       <c r="D286" s="6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="2"/>
@@ -13304,16 +13304,16 @@
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1">
       <c r="A287" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B287" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="C287" s="9" t="s">
         <v>769</v>
       </c>
-      <c r="C287" s="9" t="s">
+      <c r="D287" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>771</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="2"/>
@@ -13340,16 +13340,16 @@
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B288" s="6" t="s">
         <v>772</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="C288" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="C288" s="7" t="s">
-        <v>774</v>
-      </c>
       <c r="D288" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="2"/>
@@ -13376,14 +13376,14 @@
     </row>
     <row r="289" spans="1:26" ht="15.75" customHeight="1">
       <c r="A289" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B289" s="12"/>
       <c r="C289" s="14" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E289" s="12"/>
       <c r="F289" s="5"/>
@@ -13410,16 +13410,16 @@
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1">
       <c r="A290" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B290" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="C290" s="13" t="s">
         <v>778</v>
       </c>
-      <c r="C290" s="13" t="s">
-        <v>779</v>
-      </c>
       <c r="D290" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E290" s="12"/>
       <c r="F290" s="5"/>
@@ -13446,14 +13446,14 @@
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="12" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B291" s="12"/>
       <c r="C291" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D291" s="12" t="s">
         <v>781</v>
-      </c>
-      <c r="D291" s="12" t="s">
-        <v>782</v>
       </c>
       <c r="E291" s="12"/>
       <c r="F291" s="5"/>
@@ -13480,11 +13480,11 @@
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1">
       <c r="A292" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B292" s="10"/>
       <c r="C292" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D292" s="10"/>
       <c r="E292" s="10"/>
@@ -13512,16 +13512,16 @@
     </row>
     <row r="293" spans="1:26" ht="15.75" customHeight="1">
       <c r="A293" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B293" s="10" t="s">
         <v>785</v>
-      </c>
-      <c r="B293" s="10" t="s">
-        <v>786</v>
       </c>
       <c r="C293" s="11" t="s">
         <v>171</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E293" s="10"/>
       <c r="F293" s="2"/>
@@ -13548,16 +13548,16 @@
     </row>
     <row r="294" spans="1:26" ht="15.75" customHeight="1">
       <c r="A294" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B294" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="C294" s="15" t="s">
         <v>789</v>
       </c>
-      <c r="C294" s="15" t="s">
+      <c r="D294" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>791</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="2"/>
@@ -13584,14 +13584,14 @@
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1">
       <c r="A295" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B295" s="8"/>
       <c r="C295" s="9" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E295" s="8"/>
       <c r="F295" s="2"/>
@@ -13618,14 +13618,14 @@
     </row>
     <row r="296" spans="1:26" ht="15.75" customHeight="1">
       <c r="A296" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B296" s="8"/>
       <c r="C296" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D296" s="8" t="s">
         <v>795</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>796</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="2"/>
@@ -13652,14 +13652,14 @@
     </row>
     <row r="297" spans="1:26" ht="15.75" customHeight="1">
       <c r="A297" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="9" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="2"/>
@@ -13686,14 +13686,14 @@
     </row>
     <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="D298" s="8" t="s">
         <v>800</v>
-      </c>
-      <c r="D298" s="8" t="s">
-        <v>801</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="2"/>
@@ -13720,16 +13720,16 @@
     </row>
     <row r="299" spans="1:26" ht="15.75" customHeight="1">
       <c r="A299" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B299" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="C299" s="9" t="s">
         <v>803</v>
       </c>
-      <c r="C299" s="9" t="s">
+      <c r="D299" s="8" t="s">
         <v>804</v>
-      </c>
-      <c r="D299" s="8" t="s">
-        <v>805</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="2"/>
@@ -13756,14 +13756,14 @@
     </row>
     <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="9" t="s">
+        <v>806</v>
+      </c>
+      <c r="D300" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="D300" s="8" t="s">
-        <v>808</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="2"/>
@@ -13790,14 +13790,14 @@
     </row>
     <row r="301" spans="1:26" ht="15.75" customHeight="1">
       <c r="A301" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B301" s="10"/>
       <c r="C301" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="2"/>
@@ -13824,14 +13824,14 @@
     </row>
     <row r="302" spans="1:26" ht="15.75" customHeight="1">
       <c r="A302" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="2"/>
@@ -13858,16 +13858,16 @@
     </row>
     <row r="303" spans="1:26" ht="15.75" customHeight="1">
       <c r="A303" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B303" s="8" t="s">
         <v>813</v>
       </c>
-      <c r="B303" s="8" t="s">
+      <c r="C303" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="C303" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="D303" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E303" s="8"/>
       <c r="F303" s="2"/>
@@ -13894,14 +13894,14 @@
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1">
       <c r="A304" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B304" s="6"/>
       <c r="C304" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D304" s="6" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E304" s="6"/>
       <c r="F304" s="2"/>
@@ -13928,14 +13928,14 @@
     </row>
     <row r="305" spans="1:26" ht="15.75" customHeight="1">
       <c r="A305" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B305" s="12"/>
       <c r="C305" s="13" t="s">
+        <v>818</v>
+      </c>
+      <c r="D305" s="12" t="s">
         <v>819</v>
-      </c>
-      <c r="D305" s="12" t="s">
-        <v>820</v>
       </c>
       <c r="E305" s="12"/>
       <c r="F305" s="5"/>
@@ -13962,16 +13962,16 @@
     </row>
     <row r="306" spans="1:26" ht="15.75" customHeight="1">
       <c r="A306" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="B306" s="12" t="s">
         <v>821</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="C306" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C306" s="14" t="s">
-        <v>823</v>
-      </c>
       <c r="D306" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E306" s="12"/>
       <c r="F306" s="5"/>
@@ -13998,16 +13998,16 @@
     </row>
     <row r="307" spans="1:26" ht="15.75" customHeight="1">
       <c r="A307" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B307" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="C307" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="C307" s="7" t="s">
-        <v>826</v>
-      </c>
       <c r="D307" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E307" s="6"/>
       <c r="F307" s="2"/>
@@ -14034,16 +14034,16 @@
     </row>
     <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B308" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="C308" s="13" t="s">
         <v>828</v>
       </c>
-      <c r="C308" s="13" t="s">
-        <v>829</v>
-      </c>
       <c r="D308" s="12" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E308" s="12"/>
       <c r="F308" s="5"/>
@@ -14070,14 +14070,14 @@
     </row>
     <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B309" s="6"/>
       <c r="C309" s="7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="2"/>
@@ -14104,14 +14104,14 @@
     </row>
     <row r="310" spans="1:26" ht="15.75" customHeight="1">
       <c r="A310" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B310" s="8"/>
       <c r="C310" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D310" s="54" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E310" s="54"/>
       <c r="F310" s="2"/>
@@ -14138,16 +14138,16 @@
     </row>
     <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B311" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="C311" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="C311" s="15" t="s">
-        <v>836</v>
-      </c>
       <c r="D311" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
@@ -14174,14 +14174,14 @@
     </row>
     <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="D312" s="55" t="s">
         <v>838</v>
-      </c>
-      <c r="D312" s="55" t="s">
-        <v>839</v>
       </c>
       <c r="E312" s="55"/>
     </row>
@@ -19879,7 +19879,7 @@
     <hyperlink ref="C312" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
     <hyperlink ref="C130" r:id="rId231" xr:uid="{98DDE684-CC21-7C49-B22B-C4F92C88FD93}"/>
     <hyperlink ref="C172" r:id="rId232" xr:uid="{E941C717-9955-3748-A705-A152EB86702B}"/>
-    <hyperlink ref="C203" r:id="rId233" xr:uid="{35225AD0-6E86-F842-9A7D-130AABE12B66}"/>
+    <hyperlink ref="C203" r:id="rId233" xr:uid="{35AE7ED9-3884-6948-9153-E51142B0BF49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/xlsx/Baernreither_Ortsregister_2023.xlsx
+++ b/data/xlsx/Baernreither_Ortsregister_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A2F9B-FF0B-0F44-85E3-DADF419D1812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9222F06-5F66-E448-9129-FA5BE19BB216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="854">
   <si>
     <t>Name</t>
   </si>
@@ -2578,6 +2578,18 @@
   </si>
   <si>
     <t>https://www.geonames.org/3193340/piran.html</t>
+  </si>
+  <si>
+    <t>Perugia</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/3171180/perugia.html</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>https://www.geonames.org/6541466/siena.html</t>
   </si>
 </sst>
 </file>
@@ -3091,7 +3103,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E312" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:E314" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
@@ -3306,10 +3318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1222"/>
+  <dimension ref="A1:Z1224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" zoomScale="169" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="169" workbookViewId="0">
+      <selection activeCell="C306" sqref="C306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -5079,7 +5091,7 @@
       <c r="B52" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="56" t="s">
         <v>132</v>
       </c>
       <c r="D52" s="6" t="s">
@@ -6925,7 +6937,7 @@
         <v>266</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="56" t="s">
         <v>267</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -10203,19 +10215,17 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A199" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E199" s="6"/>
+      <c r="A199" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="B199" s="10"/>
+      <c r="C199" s="32" t="s">
+        <v>851</v>
+      </c>
+      <c r="D199" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="E199" s="10"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2"/>
@@ -10239,17 +10249,19 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A200" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="B200" s="10"/>
-      <c r="C200" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="D200" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="E200" s="10"/>
+      <c r="A200" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="D200" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E200" s="6"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2"/>
@@ -10273,19 +10285,17 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A201" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B201" s="8" t="s">
-        <v>527</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="D201" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="E201" s="6"/>
+      <c r="A201" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="B201" s="10"/>
+      <c r="C201" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="D201" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="E201" s="10"/>
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2"/>
@@ -10309,17 +10319,17 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A202" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="D202" s="6" t="s">
-        <v>529</v>
+      <c r="A202" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B202" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>526</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="2"/>
@@ -10345,51 +10355,53 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A203" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="B203" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="C203" s="59" t="s">
-        <v>849</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>532</v>
-      </c>
-      <c r="E203" s="12"/>
-      <c r="F203" s="5"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="5"/>
-      <c r="K203" s="5"/>
-      <c r="L203" s="5"/>
-      <c r="M203" s="5"/>
-      <c r="N203" s="5"/>
-      <c r="O203" s="5"/>
-      <c r="P203" s="5"/>
-      <c r="Q203" s="5"/>
-      <c r="R203" s="5"/>
-      <c r="S203" s="5"/>
-      <c r="T203" s="5"/>
-      <c r="U203" s="5"/>
-      <c r="V203" s="5"/>
-      <c r="W203" s="5"/>
-      <c r="X203" s="5"/>
-      <c r="Y203" s="5"/>
-      <c r="Z203" s="5"/>
+      <c r="A203" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D203" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="E203" s="6"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+      <c r="X203" s="2"/>
+      <c r="Y203" s="2"/>
+      <c r="Z203" s="2"/>
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="B204" s="12"/>
-      <c r="C204" s="13" t="s">
-        <v>535</v>
+        <v>532</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="C204" s="59" t="s">
+        <v>849</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E204" s="12"/>
       <c r="F204" s="5"/>
@@ -10415,53 +10427,53 @@
       <c r="Z204" s="5"/>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="B205" s="12"/>
+      <c r="C205" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E205" s="12"/>
+      <c r="F205" s="5"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="5"/>
+      <c r="L205" s="5"/>
+      <c r="M205" s="5"/>
+      <c r="N205" s="5"/>
+      <c r="O205" s="5"/>
+      <c r="P205" s="5"/>
+      <c r="Q205" s="5"/>
+      <c r="R205" s="5"/>
+      <c r="S205" s="5"/>
+      <c r="T205" s="5"/>
+      <c r="U205" s="5"/>
+      <c r="V205" s="5"/>
+      <c r="W205" s="5"/>
+      <c r="X205" s="5"/>
+      <c r="Y205" s="5"/>
+      <c r="Z205" s="5"/>
+    </row>
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A206" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B206" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C206" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="D205" s="6" t="s">
+      <c r="D206" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="E205" s="6"/>
-      <c r="F205" s="2"/>
-      <c r="G205" s="2"/>
-      <c r="H205" s="2"/>
-      <c r="I205" s="2"/>
-      <c r="J205" s="2"/>
-      <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
-      <c r="P205" s="2"/>
-      <c r="Q205" s="2"/>
-      <c r="R205" s="2"/>
-      <c r="S205" s="2"/>
-      <c r="T205" s="2"/>
-      <c r="U205" s="2"/>
-      <c r="V205" s="2"/>
-      <c r="W205" s="2"/>
-      <c r="X205" s="2"/>
-      <c r="Y205" s="2"/>
-      <c r="Z205" s="2"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A206" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B206" s="8"/>
-      <c r="C206" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="D206" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="E206" s="10"/>
+      <c r="E206" s="6"/>
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2"/>
@@ -10485,17 +10497,15 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A207" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="D207" s="10" t="s">
-        <v>541</v>
+      <c r="A207" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B207" s="8"/>
+      <c r="C207" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="D207" s="8" t="s">
+        <v>539</v>
       </c>
       <c r="E207" s="10"/>
       <c r="F207" s="2"/>
@@ -10521,123 +10531,125 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A208" s="12" t="s">
+      <c r="A208" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C208" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="E208" s="10"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2"/>
+      <c r="K208" s="2"/>
+      <c r="L208" s="2"/>
+      <c r="M208" s="2"/>
+      <c r="N208" s="2"/>
+      <c r="O208" s="2"/>
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2"/>
+      <c r="V208" s="2"/>
+      <c r="W208" s="2"/>
+      <c r="X208" s="2"/>
+      <c r="Y208" s="2"/>
+      <c r="Z208" s="2"/>
+    </row>
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A209" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B209" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C209" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="D208" s="12" t="s">
+      <c r="D209" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="E208" s="12"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5"/>
-      <c r="K208" s="5"/>
-      <c r="L208" s="5"/>
-      <c r="M208" s="5"/>
-      <c r="N208" s="5"/>
-      <c r="O208" s="5"/>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5"/>
-      <c r="V208" s="5"/>
-      <c r="W208" s="5"/>
-      <c r="X208" s="5"/>
-      <c r="Y208" s="5"/>
-      <c r="Z208" s="5"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A209" s="6" t="s">
+      <c r="E209" s="12"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="5"/>
+      <c r="L209" s="5"/>
+      <c r="M209" s="5"/>
+      <c r="N209" s="5"/>
+      <c r="O209" s="5"/>
+      <c r="P209" s="5"/>
+      <c r="Q209" s="5"/>
+      <c r="R209" s="5"/>
+      <c r="S209" s="5"/>
+      <c r="T209" s="5"/>
+      <c r="U209" s="5"/>
+      <c r="V209" s="5"/>
+      <c r="W209" s="5"/>
+      <c r="X209" s="5"/>
+      <c r="Y209" s="5"/>
+      <c r="Z209" s="5"/>
+    </row>
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A210" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B210" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="C209" s="15" t="s">
+      <c r="C210" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D209" s="6" t="s">
+      <c r="D210" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="E209" s="6"/>
-      <c r="F209" s="2"/>
-      <c r="G209" s="2"/>
-      <c r="H209" s="2"/>
-      <c r="I209" s="2"/>
-      <c r="J209" s="2"/>
-      <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
-      <c r="N209" s="2"/>
-      <c r="O209" s="2"/>
-      <c r="P209" s="2"/>
-      <c r="Q209" s="2"/>
-      <c r="R209" s="2"/>
-      <c r="S209" s="2"/>
-      <c r="T209" s="2"/>
-      <c r="U209" s="2"/>
-      <c r="V209" s="2"/>
-      <c r="W209" s="2"/>
-      <c r="X209" s="2"/>
-      <c r="Y209" s="2"/>
-      <c r="Z209" s="2"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A210" s="12" t="s">
+      <c r="E210" s="6"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="2"/>
+      <c r="I210" s="2"/>
+      <c r="J210" s="2"/>
+      <c r="K210" s="2"/>
+      <c r="L210" s="2"/>
+      <c r="M210" s="2"/>
+      <c r="N210" s="2"/>
+      <c r="O210" s="2"/>
+      <c r="P210" s="2"/>
+      <c r="Q210" s="2"/>
+      <c r="R210" s="2"/>
+      <c r="S210" s="2"/>
+      <c r="T210" s="2"/>
+      <c r="U210" s="2"/>
+      <c r="V210" s="2"/>
+      <c r="W210" s="2"/>
+      <c r="X210" s="2"/>
+      <c r="Y210" s="2"/>
+      <c r="Z210" s="2"/>
+    </row>
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A211" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B211" s="12" t="s">
         <v>552</v>
       </c>
-      <c r="C210" s="36" t="s">
+      <c r="C211" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="D210" s="37" t="s">
+      <c r="D211" s="37" t="s">
         <v>551</v>
-      </c>
-      <c r="E210" s="37"/>
-      <c r="F210" s="5"/>
-      <c r="G210" s="5"/>
-      <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="5"/>
-      <c r="K210" s="5"/>
-      <c r="L210" s="5"/>
-      <c r="M210" s="5"/>
-      <c r="N210" s="5"/>
-      <c r="O210" s="5"/>
-      <c r="P210" s="5"/>
-      <c r="Q210" s="5"/>
-      <c r="R210" s="5"/>
-      <c r="S210" s="5"/>
-      <c r="T210" s="5"/>
-      <c r="U210" s="5"/>
-      <c r="V210" s="5"/>
-      <c r="W210" s="5"/>
-      <c r="X210" s="5"/>
-      <c r="Y210" s="5"/>
-      <c r="Z210" s="5"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A211" s="16" t="s">
-        <v>554</v>
-      </c>
-      <c r="B211" s="16"/>
-      <c r="C211" s="45" t="s">
-        <v>555</v>
-      </c>
-      <c r="D211" s="46" t="s">
-        <v>556</v>
       </c>
       <c r="E211" s="37"/>
       <c r="F211" s="5"/>
@@ -10663,17 +10675,15 @@
       <c r="Z211" s="5"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A212" s="12" t="s">
-        <v>557</v>
-      </c>
-      <c r="B212" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="C212" s="47" t="s">
-        <v>559</v>
-      </c>
-      <c r="D212" s="37" t="s">
-        <v>557</v>
+      <c r="A212" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="B212" s="16"/>
+      <c r="C212" s="45" t="s">
+        <v>555</v>
+      </c>
+      <c r="D212" s="46" t="s">
+        <v>556</v>
       </c>
       <c r="E212" s="37"/>
       <c r="F212" s="5"/>
@@ -10699,87 +10709,87 @@
       <c r="Z212" s="5"/>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="C213" s="47" t="s">
+        <v>559</v>
+      </c>
+      <c r="D213" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="E213" s="37"/>
+      <c r="F213" s="5"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="5"/>
+      <c r="L213" s="5"/>
+      <c r="M213" s="5"/>
+      <c r="N213" s="5"/>
+      <c r="O213" s="5"/>
+      <c r="P213" s="5"/>
+      <c r="Q213" s="5"/>
+      <c r="R213" s="5"/>
+      <c r="S213" s="5"/>
+      <c r="T213" s="5"/>
+      <c r="U213" s="5"/>
+      <c r="V213" s="5"/>
+      <c r="W213" s="5"/>
+      <c r="X213" s="5"/>
+      <c r="Y213" s="5"/>
+      <c r="Z213" s="5"/>
+    </row>
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A214" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B214" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C214" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="D213" s="6" t="s">
+      <c r="D214" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="E213" s="6"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="2"/>
-      <c r="I213" s="2"/>
-      <c r="J213" s="2"/>
-      <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
-      <c r="N213" s="2"/>
-      <c r="O213" s="2"/>
-      <c r="P213" s="2"/>
-      <c r="Q213" s="2"/>
-      <c r="R213" s="2"/>
-      <c r="S213" s="2"/>
-      <c r="T213" s="2"/>
-      <c r="U213" s="2"/>
-      <c r="V213" s="2"/>
-      <c r="W213" s="2"/>
-      <c r="X213" s="2"/>
-      <c r="Y213" s="2"/>
-      <c r="Z213" s="2"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A214" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="B214" s="12"/>
-      <c r="C214" s="37" t="s">
-        <v>564</v>
-      </c>
-      <c r="D214" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="E214" s="12"/>
-      <c r="F214" s="5"/>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="5"/>
-      <c r="K214" s="5"/>
-      <c r="L214" s="5"/>
-      <c r="M214" s="5"/>
-      <c r="N214" s="5"/>
-      <c r="O214" s="5"/>
-      <c r="P214" s="5"/>
-      <c r="Q214" s="5"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
-      <c r="T214" s="5"/>
-      <c r="U214" s="5"/>
-      <c r="V214" s="5"/>
-      <c r="W214" s="5"/>
-      <c r="X214" s="5"/>
-      <c r="Y214" s="5"/>
-      <c r="Z214" s="5"/>
+      <c r="E214" s="6"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+      <c r="U214" s="2"/>
+      <c r="V214" s="2"/>
+      <c r="W214" s="2"/>
+      <c r="X214" s="2"/>
+      <c r="Y214" s="2"/>
+      <c r="Z214" s="2"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="B215" s="12" t="s">
-        <v>567</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="B215" s="12"/>
       <c r="C215" s="37" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E215" s="12"/>
       <c r="F215" s="5"/>
@@ -10805,123 +10815,125 @@
       <c r="Z215" s="5"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A216" s="48" t="s">
+      <c r="A216" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="B216" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="C216" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="D216" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E216" s="12"/>
+      <c r="F216" s="5"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="5"/>
+      <c r="L216" s="5"/>
+      <c r="M216" s="5"/>
+      <c r="N216" s="5"/>
+      <c r="O216" s="5"/>
+      <c r="P216" s="5"/>
+      <c r="Q216" s="5"/>
+      <c r="R216" s="5"/>
+      <c r="S216" s="5"/>
+      <c r="T216" s="5"/>
+      <c r="U216" s="5"/>
+      <c r="V216" s="5"/>
+      <c r="W216" s="5"/>
+      <c r="X216" s="5"/>
+      <c r="Y216" s="5"/>
+      <c r="Z216" s="5"/>
+    </row>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A217" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="B216" s="48" t="s">
+      <c r="B217" s="48" t="s">
         <v>334</v>
       </c>
-      <c r="C216" s="49" t="s">
+      <c r="C217" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="D216" s="48" t="s">
+      <c r="D217" s="48" t="s">
         <v>570</v>
       </c>
-      <c r="E216" s="50"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="2"/>
-      <c r="H216" s="2"/>
-      <c r="I216" s="2"/>
-      <c r="J216" s="2"/>
-      <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
-      <c r="N216" s="2"/>
-      <c r="O216" s="2"/>
-      <c r="P216" s="2"/>
-      <c r="Q216" s="2"/>
-      <c r="R216" s="2"/>
-      <c r="S216" s="2"/>
-      <c r="T216" s="2"/>
-      <c r="U216" s="2"/>
-      <c r="V216" s="2"/>
-      <c r="W216" s="2"/>
-      <c r="X216" s="2"/>
-      <c r="Y216" s="2"/>
-      <c r="Z216" s="2"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A217" s="12" t="s">
+      <c r="E217" s="50"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+      <c r="U217" s="2"/>
+      <c r="V217" s="2"/>
+      <c r="W217" s="2"/>
+      <c r="X217" s="2"/>
+      <c r="Y217" s="2"/>
+      <c r="Z217" s="2"/>
+    </row>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A218" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B218" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="C217" s="37" t="s">
+      <c r="C218" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="D217" s="12" t="s">
+      <c r="D218" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="E217" s="12"/>
-      <c r="F217" s="5"/>
-      <c r="G217" s="5"/>
-      <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="5"/>
-      <c r="K217" s="5"/>
-      <c r="L217" s="5"/>
-      <c r="M217" s="5"/>
-      <c r="N217" s="5"/>
-      <c r="O217" s="5"/>
-      <c r="P217" s="5"/>
-      <c r="Q217" s="5"/>
-      <c r="R217" s="5"/>
-      <c r="S217" s="5"/>
-      <c r="T217" s="5"/>
-      <c r="U217" s="5"/>
-      <c r="V217" s="5"/>
-      <c r="W217" s="5"/>
-      <c r="X217" s="5"/>
-      <c r="Y217" s="5"/>
-      <c r="Z217" s="5"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A218" s="6" t="s">
+      <c r="E218" s="12"/>
+      <c r="F218" s="5"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="5"/>
+      <c r="L218" s="5"/>
+      <c r="M218" s="5"/>
+      <c r="N218" s="5"/>
+      <c r="O218" s="5"/>
+      <c r="P218" s="5"/>
+      <c r="Q218" s="5"/>
+      <c r="R218" s="5"/>
+      <c r="S218" s="5"/>
+      <c r="T218" s="5"/>
+      <c r="U218" s="5"/>
+      <c r="V218" s="5"/>
+      <c r="W218" s="5"/>
+      <c r="X218" s="5"/>
+      <c r="Y218" s="5"/>
+      <c r="Z218" s="5"/>
+    </row>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A219" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B219" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C219" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D218" s="6" t="s">
+      <c r="D219" s="6" t="s">
         <v>575</v>
-      </c>
-      <c r="E218" s="6"/>
-      <c r="F218" s="2"/>
-      <c r="G218" s="2"/>
-      <c r="H218" s="2"/>
-      <c r="I218" s="2"/>
-      <c r="J218" s="2"/>
-      <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
-      <c r="N218" s="2"/>
-      <c r="O218" s="2"/>
-      <c r="P218" s="2"/>
-      <c r="Q218" s="2"/>
-      <c r="R218" s="2"/>
-      <c r="S218" s="2"/>
-      <c r="T218" s="2"/>
-      <c r="U218" s="2"/>
-      <c r="V218" s="2"/>
-      <c r="W218" s="2"/>
-      <c r="X218" s="2"/>
-      <c r="Y218" s="2"/>
-      <c r="Z218" s="2"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A219" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="B219" s="10"/>
-      <c r="C219" s="11" t="s">
-        <v>577</v>
-      </c>
-      <c r="D219" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="2"/>
@@ -10947,17 +10959,15 @@
       <c r="Z219" s="2"/>
     </row>
     <row r="220" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A220" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="B220" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="D220" s="8" t="s">
-        <v>579</v>
+      <c r="A220" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B220" s="10"/>
+      <c r="C220" s="11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D220" s="10" t="s">
+        <v>578</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="2"/>
@@ -10983,17 +10993,17 @@
       <c r="Z220" s="2"/>
     </row>
     <row r="221" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A221" s="6" t="s">
-        <v>582</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>584</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>582</v>
+      <c r="A221" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B221" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C221" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="2"/>
@@ -11019,17 +11029,19 @@
       <c r="Z221" s="2"/>
     </row>
     <row r="222" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A222" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="B222" s="10"/>
-      <c r="C222" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="D222" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="E222" s="10"/>
+      <c r="A222" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D222" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="E222" s="6"/>
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2"/>
@@ -11053,17 +11065,15 @@
       <c r="Z222" s="2"/>
     </row>
     <row r="223" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A223" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="B223" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="D223" s="8" t="s">
-        <v>587</v>
+      <c r="A223" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="B223" s="10"/>
+      <c r="C223" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="D223" s="10" t="s">
+        <v>585</v>
       </c>
       <c r="E223" s="10"/>
       <c r="F223" s="2"/>
@@ -11089,17 +11099,17 @@
       <c r="Z223" s="2"/>
     </row>
     <row r="224" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A224" s="10" t="s">
-        <v>590</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="C224" s="32" t="s">
-        <v>592</v>
-      </c>
-      <c r="D224" s="10" t="s">
-        <v>593</v>
+      <c r="A224" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B224" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="D224" s="8" t="s">
+        <v>587</v>
       </c>
       <c r="E224" s="10"/>
       <c r="F224" s="2"/>
@@ -11125,17 +11135,19 @@
       <c r="Z224" s="2"/>
     </row>
     <row r="225" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A225" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="B225" s="8"/>
-      <c r="C225" s="9" t="s">
-        <v>595</v>
-      </c>
-      <c r="D225" s="8" t="s">
-        <v>594</v>
-      </c>
-      <c r="E225" s="6"/>
+      <c r="A225" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="C225" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D225" s="10" t="s">
+        <v>593</v>
+      </c>
+      <c r="E225" s="10"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2"/>
@@ -11159,15 +11171,15 @@
       <c r="Z225" s="2"/>
     </row>
     <row r="226" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A226" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="6" t="s">
-        <v>597</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>596</v>
+      <c r="A226" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B226" s="8"/>
+      <c r="C226" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D226" s="8" t="s">
+        <v>594</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="2"/>
@@ -11193,17 +11205,15 @@
       <c r="Z226" s="2"/>
     </row>
     <row r="227" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A227" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>599</v>
-      </c>
-      <c r="C227" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="D227" s="8" t="s">
-        <v>601</v>
+      <c r="A227" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B227" s="6"/>
+      <c r="C227" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>596</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="2"/>
@@ -11229,15 +11239,17 @@
       <c r="Z227" s="2"/>
     </row>
     <row r="228" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A228" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B228" s="6"/>
-      <c r="C228" s="6" t="s">
-        <v>603</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>602</v>
+      <c r="A228" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C228" s="33" t="s">
+        <v>600</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>601</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="2"/>
@@ -11264,16 +11276,14 @@
     </row>
     <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>605</v>
-      </c>
+        <v>602</v>
+      </c>
+      <c r="B229" s="6"/>
       <c r="C229" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D229" s="6" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="2"/>
@@ -11299,51 +11309,53 @@
       <c r="Z229" s="2"/>
     </row>
     <row r="230" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A230" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="B230" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="C230" s="13" t="s">
-        <v>610</v>
-      </c>
-      <c r="D230" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="E230" s="12"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="5"/>
-      <c r="N230" s="5"/>
-      <c r="O230" s="5"/>
-      <c r="P230" s="5"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="5"/>
-      <c r="W230" s="5"/>
-      <c r="X230" s="5"/>
-      <c r="Y230" s="5"/>
-      <c r="Z230" s="5"/>
+      <c r="A230" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C230" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="E230" s="6"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+      <c r="U230" s="2"/>
+      <c r="V230" s="2"/>
+      <c r="W230" s="2"/>
+      <c r="X230" s="2"/>
+      <c r="Y230" s="2"/>
+      <c r="Z230" s="2"/>
     </row>
     <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="B231" s="12"/>
+        <v>608</v>
+      </c>
+      <c r="B231" s="12" t="s">
+        <v>609</v>
+      </c>
       <c r="C231" s="13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E231" s="12"/>
       <c r="F231" s="5"/>
@@ -11370,14 +11382,14 @@
     </row>
     <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B232" s="12"/>
-      <c r="C232" s="14" t="s">
-        <v>614</v>
+      <c r="C232" s="13" t="s">
+        <v>612</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E232" s="12"/>
       <c r="F232" s="5"/>
@@ -11403,55 +11415,53 @@
       <c r="Z232" s="5"/>
     </row>
     <row r="233" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="B233" s="12"/>
+      <c r="C233" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="D233" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E233" s="12"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="5"/>
+      <c r="L233" s="5"/>
+      <c r="M233" s="5"/>
+      <c r="N233" s="5"/>
+      <c r="O233" s="5"/>
+      <c r="P233" s="5"/>
+      <c r="Q233" s="5"/>
+      <c r="R233" s="5"/>
+      <c r="S233" s="5"/>
+      <c r="T233" s="5"/>
+      <c r="U233" s="5"/>
+      <c r="V233" s="5"/>
+      <c r="W233" s="5"/>
+      <c r="X233" s="5"/>
+      <c r="Y233" s="5"/>
+      <c r="Z233" s="5"/>
+    </row>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A234" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="D233" s="6" t="s">
+      <c r="D234" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="E233" s="6"/>
-      <c r="F233" s="2"/>
-      <c r="G233" s="2"/>
-      <c r="H233" s="2"/>
-      <c r="I233" s="2"/>
-      <c r="J233" s="2"/>
-      <c r="K233" s="2"/>
-      <c r="L233" s="2"/>
-      <c r="M233" s="2"/>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" s="2"/>
-      <c r="Q233" s="2"/>
-      <c r="R233" s="2"/>
-      <c r="S233" s="2"/>
-      <c r="T233" s="2"/>
-      <c r="U233" s="2"/>
-      <c r="V233" s="2"/>
-      <c r="W233" s="2"/>
-      <c r="X233" s="2"/>
-      <c r="Y233" s="2"/>
-      <c r="Z233" s="2"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A234" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="C234" s="32" t="s">
-        <v>620</v>
-      </c>
-      <c r="D234" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="E234" s="10"/>
+      <c r="E234" s="6"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2"/>
@@ -11475,55 +11485,55 @@
       <c r="Z234" s="2"/>
     </row>
     <row r="235" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A235" s="12" t="s">
+      <c r="A235" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="C235" s="32" t="s">
+        <v>620</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="E235" s="10"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+      <c r="U235" s="2"/>
+      <c r="V235" s="2"/>
+      <c r="W235" s="2"/>
+      <c r="X235" s="2"/>
+      <c r="Y235" s="2"/>
+      <c r="Z235" s="2"/>
+    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A236" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B236" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="C235" s="19" t="s">
+      <c r="C236" s="19" t="s">
         <v>624</v>
       </c>
-      <c r="D235" s="37" t="s">
+      <c r="D236" s="37" t="s">
         <v>625</v>
       </c>
-      <c r="E235" s="37"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="5"/>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
-      <c r="U235" s="5"/>
-      <c r="V235" s="5"/>
-      <c r="W235" s="5"/>
-      <c r="X235" s="5"/>
-      <c r="Y235" s="5"/>
-      <c r="Z235" s="5"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A236" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="B236" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="C236" s="46" t="s">
-        <v>627</v>
-      </c>
-      <c r="D236" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="E236" s="16"/>
+      <c r="E236" s="37"/>
       <c r="F236" s="5"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
@@ -11548,14 +11558,16 @@
     </row>
     <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="16" t="s">
-        <v>628</v>
-      </c>
-      <c r="B237" s="16"/>
+        <v>626</v>
+      </c>
+      <c r="B237" s="16" t="s">
+        <v>626</v>
+      </c>
       <c r="C237" s="46" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D237" s="16" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E237" s="16"/>
       <c r="F237" s="5"/>
@@ -11581,17 +11593,17 @@
       <c r="Z237" s="5"/>
     </row>
     <row r="238" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A238" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="B238" s="12"/>
-      <c r="C238" s="37" t="s">
-        <v>631</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="E238" s="12"/>
+      <c r="A238" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="B238" s="16"/>
+      <c r="C238" s="46" t="s">
+        <v>629</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>628</v>
+      </c>
+      <c r="E238" s="16"/>
       <c r="F238" s="5"/>
       <c r="G238" s="5"/>
       <c r="H238" s="5"/>
@@ -11615,51 +11627,51 @@
       <c r="Z238" s="5"/>
     </row>
     <row r="239" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A239" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="E239" s="6"/>
-      <c r="F239" s="2"/>
-      <c r="G239" s="2"/>
-      <c r="H239" s="2"/>
-      <c r="I239" s="2"/>
-      <c r="J239" s="2"/>
-      <c r="K239" s="2"/>
-      <c r="L239" s="2"/>
-      <c r="M239" s="2"/>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" s="2"/>
-      <c r="Q239" s="2"/>
-      <c r="R239" s="2"/>
-      <c r="S239" s="2"/>
-      <c r="T239" s="2"/>
-      <c r="U239" s="2"/>
-      <c r="V239" s="2"/>
-      <c r="W239" s="2"/>
-      <c r="X239" s="2"/>
-      <c r="Y239" s="2"/>
-      <c r="Z239" s="2"/>
+      <c r="A239" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="B239" s="12"/>
+      <c r="C239" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="E239" s="12"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="5"/>
+      <c r="L239" s="5"/>
+      <c r="M239" s="5"/>
+      <c r="N239" s="5"/>
+      <c r="O239" s="5"/>
+      <c r="P239" s="5"/>
+      <c r="Q239" s="5"/>
+      <c r="R239" s="5"/>
+      <c r="S239" s="5"/>
+      <c r="T239" s="5"/>
+      <c r="U239" s="5"/>
+      <c r="V239" s="5"/>
+      <c r="W239" s="5"/>
+      <c r="X239" s="5"/>
+      <c r="Y239" s="5"/>
+      <c r="Z239" s="5"/>
     </row>
     <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="B240" s="6"/>
-      <c r="C240" s="21" t="s">
-        <v>636</v>
+        <v>632</v>
+      </c>
+      <c r="B240" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C240" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="2"/>
@@ -11685,51 +11697,51 @@
       <c r="Z240" s="2"/>
     </row>
     <row r="241" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A241" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="B241" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="C241" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="D241" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="E241" s="12"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="5"/>
-      <c r="K241" s="5"/>
-      <c r="L241" s="5"/>
-      <c r="M241" s="5"/>
-      <c r="N241" s="5"/>
-      <c r="O241" s="5"/>
-      <c r="P241" s="5"/>
-      <c r="Q241" s="5"/>
-      <c r="R241" s="5"/>
-      <c r="S241" s="5"/>
-      <c r="T241" s="5"/>
-      <c r="U241" s="5"/>
-      <c r="V241" s="5"/>
-      <c r="W241" s="5"/>
-      <c r="X241" s="5"/>
-      <c r="Y241" s="5"/>
-      <c r="Z241" s="5"/>
+      <c r="A241" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B241" s="6"/>
+      <c r="C241" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="D241" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="E241" s="6"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="2"/>
+      <c r="I241" s="2"/>
+      <c r="J241" s="2"/>
+      <c r="K241" s="2"/>
+      <c r="L241" s="2"/>
+      <c r="M241" s="2"/>
+      <c r="N241" s="2"/>
+      <c r="O241" s="2"/>
+      <c r="P241" s="2"/>
+      <c r="Q241" s="2"/>
+      <c r="R241" s="2"/>
+      <c r="S241" s="2"/>
+      <c r="T241" s="2"/>
+      <c r="U241" s="2"/>
+      <c r="V241" s="2"/>
+      <c r="W241" s="2"/>
+      <c r="X241" s="2"/>
+      <c r="Y241" s="2"/>
+      <c r="Z241" s="2"/>
     </row>
     <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="B242" s="12"/>
-      <c r="C242" s="13" t="s">
-        <v>643</v>
+        <v>638</v>
+      </c>
+      <c r="B242" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>640</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E242" s="12"/>
       <c r="F242" s="5"/>
@@ -11755,17 +11767,15 @@
       <c r="Z242" s="5"/>
     </row>
     <row r="243" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A243" s="16" t="s">
-        <v>645</v>
-      </c>
-      <c r="B243" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="C243" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="D243" s="16" t="s">
-        <v>645</v>
+      <c r="A243" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="B243" s="12"/>
+      <c r="C243" s="13" t="s">
+        <v>643</v>
+      </c>
+      <c r="D243" s="12" t="s">
+        <v>644</v>
       </c>
       <c r="E243" s="12"/>
       <c r="F243" s="5"/>
@@ -11791,15 +11801,17 @@
       <c r="Z243" s="5"/>
     </row>
     <row r="244" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A244" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="B244" s="12"/>
-      <c r="C244" s="13" t="s">
-        <v>649</v>
-      </c>
-      <c r="D244" s="12" t="s">
-        <v>648</v>
+      <c r="A244" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="C244" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>645</v>
       </c>
       <c r="E244" s="12"/>
       <c r="F244" s="5"/>
@@ -11826,14 +11838,14 @@
     </row>
     <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B245" s="12"/>
-      <c r="C245" s="14" t="s">
-        <v>651</v>
+      <c r="C245" s="13" t="s">
+        <v>649</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E245" s="12"/>
       <c r="F245" s="5"/>
@@ -11860,14 +11872,14 @@
     </row>
     <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B246" s="12"/>
-      <c r="C246" s="13" t="s">
-        <v>653</v>
+      <c r="C246" s="14" t="s">
+        <v>651</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E246" s="12"/>
       <c r="F246" s="5"/>
@@ -11894,16 +11906,14 @@
     </row>
     <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="B247" s="12" t="s">
-        <v>655</v>
-      </c>
-      <c r="C247" s="14" t="s">
-        <v>656</v>
+        <v>652</v>
+      </c>
+      <c r="B247" s="12"/>
+      <c r="C247" s="13" t="s">
+        <v>653</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E247" s="12"/>
       <c r="F247" s="5"/>
@@ -11930,14 +11940,14 @@
     </row>
     <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="12" t="s">
-        <v>657</v>
+        <v>852</v>
       </c>
       <c r="B248" s="12"/>
-      <c r="C248" s="19" t="s">
-        <v>658</v>
+      <c r="C248" s="13" t="s">
+        <v>853</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>657</v>
+        <v>852</v>
       </c>
       <c r="E248" s="12"/>
       <c r="F248" s="5"/>
@@ -11964,14 +11974,16 @@
     </row>
     <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B249" s="12"/>
-      <c r="C249" s="13" t="s">
-        <v>660</v>
+        <v>654</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>656</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E249" s="12"/>
       <c r="F249" s="5"/>
@@ -11997,87 +12009,87 @@
       <c r="Z249" s="5"/>
     </row>
     <row r="250" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A250" s="8" t="s">
+      <c r="A250" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="B250" s="12"/>
+      <c r="C250" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="E250" s="12"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="5"/>
+      <c r="L250" s="5"/>
+      <c r="M250" s="5"/>
+      <c r="N250" s="5"/>
+      <c r="O250" s="5"/>
+      <c r="P250" s="5"/>
+      <c r="Q250" s="5"/>
+      <c r="R250" s="5"/>
+      <c r="S250" s="5"/>
+      <c r="T250" s="5"/>
+      <c r="U250" s="5"/>
+      <c r="V250" s="5"/>
+      <c r="W250" s="5"/>
+      <c r="X250" s="5"/>
+      <c r="Y250" s="5"/>
+      <c r="Z250" s="5"/>
+    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A251" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="B251" s="12"/>
+      <c r="C251" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E251" s="12"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="5"/>
+      <c r="L251" s="5"/>
+      <c r="M251" s="5"/>
+      <c r="N251" s="5"/>
+      <c r="O251" s="5"/>
+      <c r="P251" s="5"/>
+      <c r="Q251" s="5"/>
+      <c r="R251" s="5"/>
+      <c r="S251" s="5"/>
+      <c r="T251" s="5"/>
+      <c r="U251" s="5"/>
+      <c r="V251" s="5"/>
+      <c r="W251" s="5"/>
+      <c r="X251" s="5"/>
+      <c r="Y251" s="5"/>
+      <c r="Z251" s="5"/>
+    </row>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A252" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B252" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="C250" s="33" t="s">
+      <c r="C252" s="33" t="s">
         <v>663</v>
       </c>
-      <c r="D250" s="8" t="s">
+      <c r="D252" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="E250" s="8"/>
-      <c r="F250" s="2"/>
-      <c r="G250" s="2"/>
-      <c r="H250" s="2"/>
-      <c r="I250" s="2"/>
-      <c r="J250" s="2"/>
-      <c r="K250" s="2"/>
-      <c r="L250" s="2"/>
-      <c r="M250" s="2"/>
-      <c r="N250" s="2"/>
-      <c r="O250" s="2"/>
-      <c r="P250" s="2"/>
-      <c r="Q250" s="2"/>
-      <c r="R250" s="2"/>
-      <c r="S250" s="2"/>
-      <c r="T250" s="2"/>
-      <c r="U250" s="2"/>
-      <c r="V250" s="2"/>
-      <c r="W250" s="2"/>
-      <c r="X250" s="2"/>
-      <c r="Y250" s="2"/>
-      <c r="Z250" s="2"/>
-    </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A251" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B251" s="6"/>
-      <c r="C251" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D251" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="E251" s="6"/>
-      <c r="F251" s="2"/>
-      <c r="G251" s="2"/>
-      <c r="H251" s="2"/>
-      <c r="I251" s="2"/>
-      <c r="J251" s="2"/>
-      <c r="K251" s="2"/>
-      <c r="L251" s="2"/>
-      <c r="M251" s="2"/>
-      <c r="N251" s="2"/>
-      <c r="O251" s="2"/>
-      <c r="P251" s="2"/>
-      <c r="Q251" s="2"/>
-      <c r="R251" s="2"/>
-      <c r="S251" s="2"/>
-      <c r="T251" s="2"/>
-      <c r="U251" s="2"/>
-      <c r="V251" s="2"/>
-      <c r="W251" s="2"/>
-      <c r="X251" s="2"/>
-      <c r="Y251" s="2"/>
-      <c r="Z251" s="2"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A252" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="B252" s="6"/>
-      <c r="C252" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D252" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="E252" s="6"/>
+      <c r="E252" s="8"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2"/>
@@ -12101,17 +12113,15 @@
       <c r="Z252" s="2"/>
     </row>
     <row r="253" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A253" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="B253" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="D253" s="10" t="s">
-        <v>669</v>
+      <c r="A253" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B253" s="6"/>
+      <c r="C253" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="D253" s="6" t="s">
+        <v>666</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="2"/>
@@ -12137,87 +12147,85 @@
       <c r="Z253" s="2"/>
     </row>
     <row r="254" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A254" s="12" t="s">
+      <c r="A254" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="B254" s="6"/>
+      <c r="C254" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D254" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E254" s="6"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
+      <c r="H254" s="2"/>
+      <c r="I254" s="2"/>
+      <c r="J254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="2"/>
+      <c r="M254" s="2"/>
+      <c r="N254" s="2"/>
+      <c r="O254" s="2"/>
+      <c r="P254" s="2"/>
+      <c r="Q254" s="2"/>
+      <c r="R254" s="2"/>
+      <c r="S254" s="2"/>
+      <c r="T254" s="2"/>
+      <c r="U254" s="2"/>
+      <c r="V254" s="2"/>
+      <c r="W254" s="2"/>
+      <c r="X254" s="2"/>
+      <c r="Y254" s="2"/>
+      <c r="Z254" s="2"/>
+    </row>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A255" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B255" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C255" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="E255" s="6"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
+      <c r="H255" s="2"/>
+      <c r="I255" s="2"/>
+      <c r="J255" s="2"/>
+      <c r="K255" s="2"/>
+      <c r="L255" s="2"/>
+      <c r="M255" s="2"/>
+      <c r="N255" s="2"/>
+      <c r="O255" s="2"/>
+      <c r="P255" s="2"/>
+      <c r="Q255" s="2"/>
+      <c r="R255" s="2"/>
+      <c r="S255" s="2"/>
+      <c r="T255" s="2"/>
+      <c r="U255" s="2"/>
+      <c r="V255" s="2"/>
+      <c r="W255" s="2"/>
+      <c r="X255" s="2"/>
+      <c r="Y255" s="2"/>
+      <c r="Z255" s="2"/>
+    </row>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A256" s="12" t="s">
         <v>672</v>
       </c>
-      <c r="B254" s="12"/>
-      <c r="C254" s="14" t="s">
+      <c r="B256" s="12"/>
+      <c r="C256" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="D254" s="12" t="s">
+      <c r="D256" s="12" t="s">
         <v>672</v>
-      </c>
-      <c r="E254" s="12"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="5"/>
-      <c r="H254" s="5"/>
-      <c r="I254" s="5"/>
-      <c r="J254" s="5"/>
-      <c r="K254" s="5"/>
-      <c r="L254" s="5"/>
-      <c r="M254" s="5"/>
-      <c r="N254" s="5"/>
-      <c r="O254" s="5"/>
-      <c r="P254" s="5"/>
-      <c r="Q254" s="5"/>
-      <c r="R254" s="5"/>
-      <c r="S254" s="5"/>
-      <c r="T254" s="5"/>
-      <c r="U254" s="5"/>
-      <c r="V254" s="5"/>
-      <c r="W254" s="5"/>
-      <c r="X254" s="5"/>
-      <c r="Y254" s="5"/>
-      <c r="Z254" s="5"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A255" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="B255" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="C255" s="51" t="s">
-        <v>676</v>
-      </c>
-      <c r="D255" s="12" t="s">
-        <v>677</v>
-      </c>
-      <c r="E255" s="12"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="5"/>
-      <c r="H255" s="5"/>
-      <c r="I255" s="5"/>
-      <c r="J255" s="5"/>
-      <c r="K255" s="5"/>
-      <c r="L255" s="5"/>
-      <c r="M255" s="5"/>
-      <c r="N255" s="5"/>
-      <c r="O255" s="5"/>
-      <c r="P255" s="5"/>
-      <c r="Q255" s="5"/>
-      <c r="R255" s="5"/>
-      <c r="S255" s="5"/>
-      <c r="T255" s="5"/>
-      <c r="U255" s="5"/>
-      <c r="V255" s="5"/>
-      <c r="W255" s="5"/>
-      <c r="X255" s="5"/>
-      <c r="Y255" s="5"/>
-      <c r="Z255" s="5"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A256" s="16" t="s">
-        <v>678</v>
-      </c>
-      <c r="B256" s="16" t="s">
-        <v>679</v>
-      </c>
-      <c r="C256" s="52" t="s">
-        <v>680</v>
-      </c>
-      <c r="D256" s="16" t="s">
-        <v>681</v>
       </c>
       <c r="E256" s="12"/>
       <c r="F256" s="5"/>
@@ -12244,16 +12252,16 @@
     </row>
     <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="12" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="B257" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>684</v>
+        <v>675</v>
+      </c>
+      <c r="C257" s="51" t="s">
+        <v>676</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="E257" s="12"/>
       <c r="F257" s="5"/>
@@ -12280,14 +12288,16 @@
     </row>
     <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="B258" s="16"/>
-      <c r="C258" s="17" t="s">
-        <v>687</v>
+        <v>678</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="C258" s="52" t="s">
+        <v>680</v>
       </c>
       <c r="D258" s="16" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E258" s="12"/>
       <c r="F258" s="5"/>
@@ -12314,16 +12324,18 @@
     </row>
     <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="B259" s="12"/>
+        <v>682</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>683</v>
+      </c>
       <c r="C259" s="13" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="E259" s="16"/>
+        <v>685</v>
+      </c>
+      <c r="E259" s="12"/>
       <c r="F259" s="5"/>
       <c r="G259" s="5"/>
       <c r="H259" s="5"/>
@@ -12347,19 +12359,17 @@
       <c r="Z259" s="5"/>
     </row>
     <row r="260" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A260" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="B260" s="12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C260" s="14" t="s">
-        <v>693</v>
-      </c>
-      <c r="D260" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="E260" s="16"/>
+      <c r="A260" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="B260" s="16"/>
+      <c r="C260" s="17" t="s">
+        <v>687</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="E260" s="12"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
       <c r="H260" s="5"/>
@@ -12384,14 +12394,14 @@
     </row>
     <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="12" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B261" s="12"/>
       <c r="C261" s="13" t="s">
-        <v>845</v>
+        <v>690</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E261" s="16"/>
       <c r="F261" s="5"/>
@@ -12417,15 +12427,17 @@
       <c r="Z261" s="5"/>
     </row>
     <row r="262" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A262" s="16" t="s">
-        <v>697</v>
-      </c>
-      <c r="B262" s="16"/>
-      <c r="C262" s="25" t="s">
-        <v>698</v>
-      </c>
-      <c r="D262" s="16" t="s">
-        <v>697</v>
+      <c r="A262" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C262" s="14" t="s">
+        <v>693</v>
+      </c>
+      <c r="D262" s="12" t="s">
+        <v>694</v>
       </c>
       <c r="E262" s="16"/>
       <c r="F262" s="5"/>
@@ -12451,17 +12463,15 @@
       <c r="Z262" s="5"/>
     </row>
     <row r="263" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A263" s="16" t="s">
-        <v>699</v>
-      </c>
-      <c r="B263" s="16" t="s">
-        <v>700</v>
-      </c>
-      <c r="C263" s="17" t="s">
-        <v>701</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>699</v>
+      <c r="A263" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B263" s="12"/>
+      <c r="C263" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="D263" s="12" t="s">
+        <v>696</v>
       </c>
       <c r="E263" s="16"/>
       <c r="F263" s="5"/>
@@ -12487,19 +12497,17 @@
       <c r="Z263" s="5"/>
     </row>
     <row r="264" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A264" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="B264" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="C264" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D264" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="E264" s="12"/>
+      <c r="A264" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="B264" s="16"/>
+      <c r="C264" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>697</v>
+      </c>
+      <c r="E264" s="16"/>
       <c r="F264" s="5"/>
       <c r="G264" s="5"/>
       <c r="H264" s="5"/>
@@ -12523,19 +12531,19 @@
       <c r="Z264" s="5"/>
     </row>
     <row r="265" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A265" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="B265" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="C265" s="13" t="s">
-        <v>707</v>
-      </c>
-      <c r="D265" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="E265" s="12"/>
+      <c r="A265" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="C265" s="17" t="s">
+        <v>701</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="E265" s="16"/>
       <c r="F265" s="5"/>
       <c r="G265" s="5"/>
       <c r="H265" s="5"/>
@@ -12559,91 +12567,91 @@
       <c r="Z265" s="5"/>
     </row>
     <row r="266" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="C266" s="13" t="s">
+        <v>704</v>
+      </c>
+      <c r="D266" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="E266" s="12"/>
+      <c r="F266" s="5"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="5"/>
+      <c r="I266" s="5"/>
+      <c r="J266" s="5"/>
+      <c r="K266" s="5"/>
+      <c r="L266" s="5"/>
+      <c r="M266" s="5"/>
+      <c r="N266" s="5"/>
+      <c r="O266" s="5"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="T266" s="5"/>
+      <c r="U266" s="5"/>
+      <c r="V266" s="5"/>
+      <c r="W266" s="5"/>
+      <c r="X266" s="5"/>
+      <c r="Y266" s="5"/>
+      <c r="Z266" s="5"/>
+    </row>
+    <row r="267" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A267" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="C267" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="D267" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="E267" s="12"/>
+      <c r="F267" s="5"/>
+      <c r="G267" s="5"/>
+      <c r="H267" s="5"/>
+      <c r="I267" s="5"/>
+      <c r="J267" s="5"/>
+      <c r="K267" s="5"/>
+      <c r="L267" s="5"/>
+      <c r="M267" s="5"/>
+      <c r="N267" s="5"/>
+      <c r="O267" s="5"/>
+      <c r="P267" s="5"/>
+      <c r="Q267" s="5"/>
+      <c r="R267" s="5"/>
+      <c r="S267" s="5"/>
+      <c r="T267" s="5"/>
+      <c r="U267" s="5"/>
+      <c r="V267" s="5"/>
+      <c r="W267" s="5"/>
+      <c r="X267" s="5"/>
+      <c r="Y267" s="5"/>
+      <c r="Z267" s="5"/>
+    </row>
+    <row r="268" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A268" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="C266" s="6" t="s">
+      <c r="C268" s="6" t="s">
         <v>710</v>
       </c>
-      <c r="D266" s="6" t="s">
+      <c r="D268" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E266" s="6"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2"/>
-      <c r="V266" s="2"/>
-      <c r="W266" s="2"/>
-      <c r="X266" s="2"/>
-      <c r="Y266" s="2"/>
-      <c r="Z266" s="2"/>
-    </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A267" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>713</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>711</v>
-      </c>
-      <c r="E267" s="6"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2"/>
-      <c r="V267" s="2"/>
-      <c r="W267" s="2"/>
-      <c r="X267" s="2"/>
-      <c r="Y267" s="2"/>
-      <c r="Z267" s="2"/>
-    </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A268" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="B268" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="C268" s="53" t="s">
-        <v>716</v>
-      </c>
-      <c r="D268" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="E268" s="8"/>
+      <c r="E268" s="6"/>
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
@@ -12667,17 +12675,19 @@
       <c r="Z268" s="2"/>
     </row>
     <row r="269" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A269" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="B269" s="8"/>
-      <c r="C269" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="D269" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="E269" s="8"/>
+      <c r="A269" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="D269" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="E269" s="6"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
@@ -12701,19 +12711,19 @@
       <c r="Z269" s="2"/>
     </row>
     <row r="270" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A270" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="C270" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="D270" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="E270" s="6"/>
+      <c r="A270" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B270" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="C270" s="53" t="s">
+        <v>716</v>
+      </c>
+      <c r="D270" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="E270" s="8"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
@@ -12737,53 +12747,51 @@
       <c r="Z270" s="2"/>
     </row>
     <row r="271" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A271" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="B271" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="D271" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="E271" s="12"/>
-      <c r="F271" s="5"/>
-      <c r="G271" s="5"/>
-      <c r="H271" s="5"/>
-      <c r="I271" s="5"/>
-      <c r="J271" s="5"/>
-      <c r="K271" s="5"/>
-      <c r="L271" s="5"/>
-      <c r="M271" s="5"/>
-      <c r="N271" s="5"/>
-      <c r="O271" s="5"/>
-      <c r="P271" s="5"/>
-      <c r="Q271" s="5"/>
-      <c r="R271" s="5"/>
-      <c r="S271" s="5"/>
-      <c r="T271" s="5"/>
-      <c r="U271" s="5"/>
-      <c r="V271" s="5"/>
-      <c r="W271" s="5"/>
-      <c r="X271" s="5"/>
-      <c r="Y271" s="5"/>
-      <c r="Z271" s="5"/>
+      <c r="A271" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B271" s="8"/>
+      <c r="C271" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="D271" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E271" s="8"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
+      <c r="H271" s="2"/>
+      <c r="I271" s="2"/>
+      <c r="J271" s="2"/>
+      <c r="K271" s="2"/>
+      <c r="L271" s="2"/>
+      <c r="M271" s="2"/>
+      <c r="N271" s="2"/>
+      <c r="O271" s="2"/>
+      <c r="P271" s="2"/>
+      <c r="Q271" s="2"/>
+      <c r="R271" s="2"/>
+      <c r="S271" s="2"/>
+      <c r="T271" s="2"/>
+      <c r="U271" s="2"/>
+      <c r="V271" s="2"/>
+      <c r="W271" s="2"/>
+      <c r="X271" s="2"/>
+      <c r="Y271" s="2"/>
+      <c r="Z271" s="2"/>
     </row>
     <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="6" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>846</v>
+        <v>721</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>722</v>
       </c>
       <c r="D272" s="6" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="2"/>
@@ -12809,49 +12817,53 @@
       <c r="Z272" s="2"/>
     </row>
     <row r="273" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A273" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="53" t="s">
-        <v>730</v>
-      </c>
-      <c r="D273" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="E273" s="6"/>
-      <c r="F273" s="2"/>
-      <c r="G273" s="2"/>
-      <c r="H273" s="2"/>
-      <c r="I273" s="2"/>
-      <c r="J273" s="2"/>
-      <c r="K273" s="2"/>
-      <c r="L273" s="2"/>
-      <c r="M273" s="2"/>
-      <c r="N273" s="2"/>
-      <c r="O273" s="2"/>
-      <c r="P273" s="2"/>
-      <c r="Q273" s="2"/>
-      <c r="R273" s="2"/>
-      <c r="S273" s="2"/>
-      <c r="T273" s="2"/>
-      <c r="U273" s="2"/>
-      <c r="V273" s="2"/>
-      <c r="W273" s="2"/>
-      <c r="X273" s="2"/>
-      <c r="Y273" s="2"/>
-      <c r="Z273" s="2"/>
+      <c r="A273" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B273" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="D273" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="E273" s="12"/>
+      <c r="F273" s="5"/>
+      <c r="G273" s="5"/>
+      <c r="H273" s="5"/>
+      <c r="I273" s="5"/>
+      <c r="J273" s="5"/>
+      <c r="K273" s="5"/>
+      <c r="L273" s="5"/>
+      <c r="M273" s="5"/>
+      <c r="N273" s="5"/>
+      <c r="O273" s="5"/>
+      <c r="P273" s="5"/>
+      <c r="Q273" s="5"/>
+      <c r="R273" s="5"/>
+      <c r="S273" s="5"/>
+      <c r="T273" s="5"/>
+      <c r="U273" s="5"/>
+      <c r="V273" s="5"/>
+      <c r="W273" s="5"/>
+      <c r="X273" s="5"/>
+      <c r="Y273" s="5"/>
+      <c r="Z273" s="5"/>
     </row>
     <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="6" t="s">
-        <v>731</v>
-      </c>
-      <c r="B274" s="6"/>
-      <c r="C274" s="6" t="s">
-        <v>732</v>
+        <v>726</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>846</v>
       </c>
       <c r="D274" s="6" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="2"/>
@@ -12877,161 +12889,157 @@
       <c r="Z274" s="2"/>
     </row>
     <row r="275" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B275" s="8"/>
+      <c r="C275" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="D275" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="E275" s="6"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+      <c r="M275" s="2"/>
+      <c r="N275" s="2"/>
+      <c r="O275" s="2"/>
+      <c r="P275" s="2"/>
+      <c r="Q275" s="2"/>
+      <c r="R275" s="2"/>
+      <c r="S275" s="2"/>
+      <c r="T275" s="2"/>
+      <c r="U275" s="2"/>
+      <c r="V275" s="2"/>
+      <c r="W275" s="2"/>
+      <c r="X275" s="2"/>
+      <c r="Y275" s="2"/>
+      <c r="Z275" s="2"/>
+    </row>
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A276" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="B276" s="6"/>
+      <c r="C276" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E276" s="6"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+      <c r="K276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="2"/>
+      <c r="N276" s="2"/>
+      <c r="O276" s="2"/>
+      <c r="P276" s="2"/>
+      <c r="Q276" s="2"/>
+      <c r="R276" s="2"/>
+      <c r="S276" s="2"/>
+      <c r="T276" s="2"/>
+      <c r="U276" s="2"/>
+      <c r="V276" s="2"/>
+      <c r="W276" s="2"/>
+      <c r="X276" s="2"/>
+      <c r="Y276" s="2"/>
+      <c r="Z276" s="2"/>
+    </row>
+    <row r="277" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A277" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="13" t="s">
+      <c r="B277" s="12"/>
+      <c r="C277" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="D275" s="12" t="s">
+      <c r="D277" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="E275" s="12"/>
-      <c r="F275" s="5"/>
-      <c r="G275" s="5"/>
-      <c r="H275" s="5"/>
-      <c r="I275" s="5"/>
-      <c r="J275" s="5"/>
-      <c r="K275" s="5"/>
-      <c r="L275" s="5"/>
-      <c r="M275" s="5"/>
-      <c r="N275" s="5"/>
-      <c r="O275" s="5"/>
-      <c r="P275" s="5"/>
-      <c r="Q275" s="5"/>
-      <c r="R275" s="5"/>
-      <c r="S275" s="5"/>
-      <c r="T275" s="5"/>
-      <c r="U275" s="5"/>
-      <c r="V275" s="5"/>
-      <c r="W275" s="5"/>
-      <c r="X275" s="5"/>
-      <c r="Y275" s="5"/>
-      <c r="Z275" s="5"/>
-    </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A276" s="12" t="s">
+      <c r="E277" s="12"/>
+      <c r="F277" s="5"/>
+      <c r="G277" s="5"/>
+      <c r="H277" s="5"/>
+      <c r="I277" s="5"/>
+      <c r="J277" s="5"/>
+      <c r="K277" s="5"/>
+      <c r="L277" s="5"/>
+      <c r="M277" s="5"/>
+      <c r="N277" s="5"/>
+      <c r="O277" s="5"/>
+      <c r="P277" s="5"/>
+      <c r="Q277" s="5"/>
+      <c r="R277" s="5"/>
+      <c r="S277" s="5"/>
+      <c r="T277" s="5"/>
+      <c r="U277" s="5"/>
+      <c r="V277" s="5"/>
+      <c r="W277" s="5"/>
+      <c r="X277" s="5"/>
+      <c r="Y277" s="5"/>
+      <c r="Z277" s="5"/>
+    </row>
+    <row r="278" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A278" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B278" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="C276" s="13" t="s">
+      <c r="C278" s="13" t="s">
         <v>737</v>
       </c>
-      <c r="D276" s="12" t="s">
+      <c r="D278" s="12" t="s">
         <v>735</v>
       </c>
-      <c r="E276" s="12"/>
-      <c r="F276" s="5"/>
-      <c r="G276" s="5"/>
-      <c r="H276" s="5"/>
-      <c r="I276" s="5"/>
-      <c r="J276" s="5"/>
-      <c r="K276" s="5"/>
-      <c r="L276" s="5"/>
-      <c r="M276" s="5"/>
-      <c r="N276" s="5"/>
-      <c r="O276" s="5"/>
-      <c r="P276" s="5"/>
-      <c r="Q276" s="5"/>
-      <c r="R276" s="5"/>
-      <c r="S276" s="5"/>
-      <c r="T276" s="5"/>
-      <c r="U276" s="5"/>
-      <c r="V276" s="5"/>
-      <c r="W276" s="5"/>
-      <c r="X276" s="5"/>
-      <c r="Y276" s="5"/>
-      <c r="Z276" s="5"/>
-    </row>
-    <row r="277" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A277" s="8" t="s">
+      <c r="E278" s="12"/>
+      <c r="F278" s="5"/>
+      <c r="G278" s="5"/>
+      <c r="H278" s="5"/>
+      <c r="I278" s="5"/>
+      <c r="J278" s="5"/>
+      <c r="K278" s="5"/>
+      <c r="L278" s="5"/>
+      <c r="M278" s="5"/>
+      <c r="N278" s="5"/>
+      <c r="O278" s="5"/>
+      <c r="P278" s="5"/>
+      <c r="Q278" s="5"/>
+      <c r="R278" s="5"/>
+      <c r="S278" s="5"/>
+      <c r="T278" s="5"/>
+      <c r="U278" s="5"/>
+      <c r="V278" s="5"/>
+      <c r="W278" s="5"/>
+      <c r="X278" s="5"/>
+      <c r="Y278" s="5"/>
+      <c r="Z278" s="5"/>
+    </row>
+    <row r="279" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A279" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B279" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C277" s="53" t="s">
+      <c r="C279" s="53" t="s">
         <v>740</v>
       </c>
-      <c r="D277" s="8" t="s">
+      <c r="D279" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="E277" s="8"/>
-      <c r="F277" s="2"/>
-      <c r="G277" s="2"/>
-      <c r="H277" s="2"/>
-      <c r="I277" s="2"/>
-      <c r="J277" s="2"/>
-      <c r="K277" s="2"/>
-      <c r="L277" s="2"/>
-      <c r="M277" s="2"/>
-      <c r="N277" s="2"/>
-      <c r="O277" s="2"/>
-      <c r="P277" s="2"/>
-      <c r="Q277" s="2"/>
-      <c r="R277" s="2"/>
-      <c r="S277" s="2"/>
-      <c r="T277" s="2"/>
-      <c r="U277" s="2"/>
-      <c r="V277" s="2"/>
-      <c r="W277" s="2"/>
-      <c r="X277" s="2"/>
-      <c r="Y277" s="2"/>
-      <c r="Z277" s="2"/>
-    </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A278" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="C278" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="D278" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="E278" s="6"/>
-      <c r="F278" s="2"/>
-      <c r="G278" s="2"/>
-      <c r="H278" s="2"/>
-      <c r="I278" s="2"/>
-      <c r="J278" s="2"/>
-      <c r="K278" s="2"/>
-      <c r="L278" s="2"/>
-      <c r="M278" s="2"/>
-      <c r="N278" s="2"/>
-      <c r="O278" s="2"/>
-      <c r="P278" s="2"/>
-      <c r="Q278" s="2"/>
-      <c r="R278" s="2"/>
-      <c r="S278" s="2"/>
-      <c r="T278" s="2"/>
-      <c r="U278" s="2"/>
-      <c r="V278" s="2"/>
-      <c r="W278" s="2"/>
-      <c r="X278" s="2"/>
-      <c r="Y278" s="2"/>
-      <c r="Z278" s="2"/>
-    </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A279" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="B279" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="C279" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="E279" s="6"/>
+      <c r="E279" s="8"/>
       <c r="F279" s="2"/>
       <c r="G279" s="2"/>
       <c r="H279" s="2"/>
@@ -13055,15 +13063,17 @@
       <c r="Z279" s="2"/>
     </row>
     <row r="280" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A280" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="B280" s="8"/>
-      <c r="C280" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="D280" s="8" t="s">
-        <v>748</v>
+      <c r="A280" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>741</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="2"/>
@@ -13089,17 +13099,17 @@
       <c r="Z280" s="2"/>
     </row>
     <row r="281" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A281" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="B281" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="C281" s="33" t="s">
-        <v>751</v>
-      </c>
-      <c r="D281" s="8" t="s">
-        <v>749</v>
+      <c r="A281" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>745</v>
+      </c>
+      <c r="D281" s="6" t="s">
+        <v>744</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="2"/>
@@ -13125,17 +13135,15 @@
       <c r="Z281" s="2"/>
     </row>
     <row r="282" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A282" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="C282" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="D282" s="6" t="s">
-        <v>752</v>
+      <c r="A282" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B282" s="8"/>
+      <c r="C282" s="9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D282" s="8" t="s">
+        <v>748</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="2"/>
@@ -13161,17 +13169,17 @@
       <c r="Z282" s="2"/>
     </row>
     <row r="283" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A283" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>755</v>
+      <c r="A283" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="B283" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="C283" s="33" t="s">
+        <v>751</v>
+      </c>
+      <c r="D283" s="8" t="s">
+        <v>749</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="2"/>
@@ -13197,17 +13205,17 @@
       <c r="Z283" s="2"/>
     </row>
     <row r="284" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A284" s="8" t="s">
-        <v>758</v>
-      </c>
-      <c r="B284" s="8" t="s">
-        <v>759</v>
-      </c>
-      <c r="C284" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="D284" s="8" t="s">
-        <v>758</v>
+      <c r="A284" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>752</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="2"/>
@@ -13233,17 +13241,19 @@
       <c r="Z284" s="2"/>
     </row>
     <row r="285" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A285" s="10" t="s">
-        <v>761</v>
-      </c>
-      <c r="B285" s="10"/>
-      <c r="C285" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="D285" s="10" t="s">
-        <v>763</v>
-      </c>
-      <c r="E285" s="10"/>
+      <c r="A285" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="D285" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E285" s="6"/>
       <c r="F285" s="2"/>
       <c r="G285" s="2"/>
       <c r="H285" s="2"/>
@@ -13267,17 +13277,17 @@
       <c r="Z285" s="2"/>
     </row>
     <row r="286" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A286" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="D286" s="6" t="s">
-        <v>764</v>
+      <c r="A286" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B286" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C286" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="D286" s="8" t="s">
+        <v>758</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="2"/>
@@ -13303,19 +13313,17 @@
       <c r="Z286" s="2"/>
     </row>
     <row r="287" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A287" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="B287" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="C287" s="9" t="s">
-        <v>769</v>
-      </c>
-      <c r="D287" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="E287" s="6"/>
+      <c r="A287" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B287" s="10"/>
+      <c r="C287" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="D287" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="E287" s="10"/>
       <c r="F287" s="2"/>
       <c r="G287" s="2"/>
       <c r="H287" s="2"/>
@@ -13340,16 +13348,16 @@
     </row>
     <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="6" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="C288" s="7" t="s">
-        <v>773</v>
+        <v>765</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>766</v>
       </c>
       <c r="D288" s="6" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="2"/>
@@ -13375,85 +13383,87 @@
       <c r="Z288" s="2"/>
     </row>
     <row r="289" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A289" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="B289" s="12"/>
-      <c r="C289" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="D289" s="12" t="s">
-        <v>774</v>
-      </c>
-      <c r="E289" s="12"/>
-      <c r="F289" s="5"/>
-      <c r="G289" s="5"/>
-      <c r="H289" s="5"/>
-      <c r="I289" s="5"/>
-      <c r="J289" s="5"/>
-      <c r="K289" s="5"/>
-      <c r="L289" s="5"/>
-      <c r="M289" s="5"/>
-      <c r="N289" s="5"/>
-      <c r="O289" s="5"/>
-      <c r="P289" s="5"/>
-      <c r="Q289" s="5"/>
-      <c r="R289" s="5"/>
-      <c r="S289" s="5"/>
-      <c r="T289" s="5"/>
-      <c r="U289" s="5"/>
-      <c r="V289" s="5"/>
-      <c r="W289" s="5"/>
-      <c r="X289" s="5"/>
-      <c r="Y289" s="5"/>
-      <c r="Z289" s="5"/>
+      <c r="A289" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B289" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="D289" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="E289" s="6"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
+      <c r="H289" s="2"/>
+      <c r="I289" s="2"/>
+      <c r="J289" s="2"/>
+      <c r="K289" s="2"/>
+      <c r="L289" s="2"/>
+      <c r="M289" s="2"/>
+      <c r="N289" s="2"/>
+      <c r="O289" s="2"/>
+      <c r="P289" s="2"/>
+      <c r="Q289" s="2"/>
+      <c r="R289" s="2"/>
+      <c r="S289" s="2"/>
+      <c r="T289" s="2"/>
+      <c r="U289" s="2"/>
+      <c r="V289" s="2"/>
+      <c r="W289" s="2"/>
+      <c r="X289" s="2"/>
+      <c r="Y289" s="2"/>
+      <c r="Z289" s="2"/>
     </row>
     <row r="290" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A290" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="B290" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="C290" s="13" t="s">
-        <v>778</v>
-      </c>
-      <c r="D290" s="12" t="s">
-        <v>776</v>
-      </c>
-      <c r="E290" s="12"/>
-      <c r="F290" s="5"/>
-      <c r="G290" s="5"/>
-      <c r="H290" s="5"/>
-      <c r="I290" s="5"/>
-      <c r="J290" s="5"/>
-      <c r="K290" s="5"/>
-      <c r="L290" s="5"/>
-      <c r="M290" s="5"/>
-      <c r="N290" s="5"/>
-      <c r="O290" s="5"/>
-      <c r="P290" s="5"/>
-      <c r="Q290" s="5"/>
-      <c r="R290" s="5"/>
-      <c r="S290" s="5"/>
-      <c r="T290" s="5"/>
-      <c r="U290" s="5"/>
-      <c r="V290" s="5"/>
-      <c r="W290" s="5"/>
-      <c r="X290" s="5"/>
-      <c r="Y290" s="5"/>
-      <c r="Z290" s="5"/>
+      <c r="A290" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="E290" s="6"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
+      <c r="H290" s="2"/>
+      <c r="I290" s="2"/>
+      <c r="J290" s="2"/>
+      <c r="K290" s="2"/>
+      <c r="L290" s="2"/>
+      <c r="M290" s="2"/>
+      <c r="N290" s="2"/>
+      <c r="O290" s="2"/>
+      <c r="P290" s="2"/>
+      <c r="Q290" s="2"/>
+      <c r="R290" s="2"/>
+      <c r="S290" s="2"/>
+      <c r="T290" s="2"/>
+      <c r="U290" s="2"/>
+      <c r="V290" s="2"/>
+      <c r="W290" s="2"/>
+      <c r="X290" s="2"/>
+      <c r="Y290" s="2"/>
+      <c r="Z290" s="2"/>
     </row>
     <row r="291" spans="1:26" ht="15.75" customHeight="1">
       <c r="A291" s="12" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="B291" s="12"/>
       <c r="C291" s="14" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="E291" s="12"/>
       <c r="F291" s="5"/>
@@ -13479,87 +13489,85 @@
       <c r="Z291" s="5"/>
     </row>
     <row r="292" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A292" s="10" t="s">
+      <c r="A292" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C292" s="13" t="s">
+        <v>778</v>
+      </c>
+      <c r="D292" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="E292" s="12"/>
+      <c r="F292" s="5"/>
+      <c r="G292" s="5"/>
+      <c r="H292" s="5"/>
+      <c r="I292" s="5"/>
+      <c r="J292" s="5"/>
+      <c r="K292" s="5"/>
+      <c r="L292" s="5"/>
+      <c r="M292" s="5"/>
+      <c r="N292" s="5"/>
+      <c r="O292" s="5"/>
+      <c r="P292" s="5"/>
+      <c r="Q292" s="5"/>
+      <c r="R292" s="5"/>
+      <c r="S292" s="5"/>
+      <c r="T292" s="5"/>
+      <c r="U292" s="5"/>
+      <c r="V292" s="5"/>
+      <c r="W292" s="5"/>
+      <c r="X292" s="5"/>
+      <c r="Y292" s="5"/>
+      <c r="Z292" s="5"/>
+    </row>
+    <row r="293" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A293" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="B293" s="12"/>
+      <c r="C293" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D293" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="E293" s="12"/>
+      <c r="F293" s="5"/>
+      <c r="G293" s="5"/>
+      <c r="H293" s="5"/>
+      <c r="I293" s="5"/>
+      <c r="J293" s="5"/>
+      <c r="K293" s="5"/>
+      <c r="L293" s="5"/>
+      <c r="M293" s="5"/>
+      <c r="N293" s="5"/>
+      <c r="O293" s="5"/>
+      <c r="P293" s="5"/>
+      <c r="Q293" s="5"/>
+      <c r="R293" s="5"/>
+      <c r="S293" s="5"/>
+      <c r="T293" s="5"/>
+      <c r="U293" s="5"/>
+      <c r="V293" s="5"/>
+      <c r="W293" s="5"/>
+      <c r="X293" s="5"/>
+      <c r="Y293" s="5"/>
+      <c r="Z293" s="5"/>
+    </row>
+    <row r="294" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A294" s="10" t="s">
         <v>782</v>
       </c>
-      <c r="B292" s="10"/>
-      <c r="C292" s="11" t="s">
+      <c r="B294" s="10"/>
+      <c r="C294" s="11" t="s">
         <v>783</v>
       </c>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="2"/>
-      <c r="G292" s="2"/>
-      <c r="H292" s="2"/>
-      <c r="I292" s="2"/>
-      <c r="J292" s="2"/>
-      <c r="K292" s="2"/>
-      <c r="L292" s="2"/>
-      <c r="M292" s="2"/>
-      <c r="N292" s="2"/>
-      <c r="O292" s="2"/>
-      <c r="P292" s="2"/>
-      <c r="Q292" s="2"/>
-      <c r="R292" s="2"/>
-      <c r="S292" s="2"/>
-      <c r="T292" s="2"/>
-      <c r="U292" s="2"/>
-      <c r="V292" s="2"/>
-      <c r="W292" s="2"/>
-      <c r="X292" s="2"/>
-      <c r="Y292" s="2"/>
-      <c r="Z292" s="2"/>
-    </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A293" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="B293" s="10" t="s">
-        <v>785</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D293" s="10" t="s">
-        <v>786</v>
-      </c>
-      <c r="E293" s="10"/>
-      <c r="F293" s="2"/>
-      <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
-      <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
-      <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
-      <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
-      <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
-      <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
-      <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
-      <c r="U293" s="2"/>
-      <c r="V293" s="2"/>
-      <c r="W293" s="2"/>
-      <c r="X293" s="2"/>
-      <c r="Y293" s="2"/>
-      <c r="Z293" s="2"/>
-    </row>
-    <row r="294" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A294" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="B294" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>789</v>
-      </c>
-      <c r="D294" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="E294" s="6"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
       <c r="F294" s="2"/>
       <c r="G294" s="2"/>
       <c r="H294" s="2"/>
@@ -13583,17 +13591,19 @@
       <c r="Z294" s="2"/>
     </row>
     <row r="295" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A295" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="B295" s="8"/>
-      <c r="C295" s="9" t="s">
-        <v>792</v>
-      </c>
-      <c r="D295" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="E295" s="8"/>
+      <c r="A295" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="B295" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C295" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D295" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="E295" s="10"/>
       <c r="F295" s="2"/>
       <c r="G295" s="2"/>
       <c r="H295" s="2"/>
@@ -13617,17 +13627,19 @@
       <c r="Z295" s="2"/>
     </row>
     <row r="296" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A296" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="B296" s="8"/>
-      <c r="C296" s="9" t="s">
-        <v>794</v>
-      </c>
-      <c r="D296" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="E296" s="8"/>
+      <c r="A296" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="C296" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E296" s="6"/>
       <c r="F296" s="2"/>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
@@ -13652,14 +13664,14 @@
     </row>
     <row r="297" spans="1:26" ht="15.75" customHeight="1">
       <c r="A297" s="8" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B297" s="8"/>
       <c r="C297" s="9" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="2"/>
@@ -13686,14 +13698,14 @@
     </row>
     <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="8" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B298" s="8"/>
       <c r="C298" s="9" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="2"/>
@@ -13720,16 +13732,14 @@
     </row>
     <row r="299" spans="1:26" ht="15.75" customHeight="1">
       <c r="A299" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="B299" s="8" t="s">
-        <v>802</v>
-      </c>
+        <v>796</v>
+      </c>
+      <c r="B299" s="8"/>
       <c r="C299" s="9" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="2"/>
@@ -13756,14 +13766,14 @@
     </row>
     <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="8" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B300" s="8"/>
       <c r="C300" s="9" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="2"/>
@@ -13789,15 +13799,17 @@
       <c r="Z300" s="2"/>
     </row>
     <row r="301" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A301" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="B301" s="10"/>
-      <c r="C301" s="11" t="s">
-        <v>809</v>
-      </c>
-      <c r="D301" s="10" t="s">
-        <v>808</v>
+      <c r="A301" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="B301" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="D301" s="8" t="s">
+        <v>804</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="2"/>
@@ -13824,14 +13836,14 @@
     </row>
     <row r="302" spans="1:26" ht="15.75" customHeight="1">
       <c r="A302" s="8" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="B302" s="8"/>
       <c r="C302" s="9" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D302" s="8" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="E302" s="8"/>
       <c r="F302" s="2"/>
@@ -13857,17 +13869,15 @@
       <c r="Z302" s="2"/>
     </row>
     <row r="303" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A303" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="B303" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="C303" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="D303" s="8" t="s">
-        <v>812</v>
+      <c r="A303" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="B303" s="10"/>
+      <c r="C303" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="D303" s="10" t="s">
+        <v>808</v>
       </c>
       <c r="E303" s="8"/>
       <c r="F303" s="2"/>
@@ -13893,17 +13903,17 @@
       <c r="Z303" s="2"/>
     </row>
     <row r="304" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A304" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="B304" s="6"/>
-      <c r="C304" s="15" t="s">
-        <v>816</v>
-      </c>
-      <c r="D304" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="E304" s="6"/>
+      <c r="A304" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B304" s="8"/>
+      <c r="C304" s="9" t="s">
+        <v>811</v>
+      </c>
+      <c r="D304" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="E304" s="8"/>
       <c r="F304" s="2"/>
       <c r="G304" s="2"/>
       <c r="H304" s="2"/>
@@ -13927,123 +13937,121 @@
       <c r="Z304" s="2"/>
     </row>
     <row r="305" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A305" s="12" t="s">
+      <c r="A305" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>814</v>
+      </c>
+      <c r="D305" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="E305" s="8"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
+      <c r="H305" s="2"/>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="2"/>
+      <c r="M305" s="2"/>
+      <c r="N305" s="2"/>
+      <c r="O305" s="2"/>
+      <c r="P305" s="2"/>
+      <c r="Q305" s="2"/>
+      <c r="R305" s="2"/>
+      <c r="S305" s="2"/>
+      <c r="T305" s="2"/>
+      <c r="U305" s="2"/>
+      <c r="V305" s="2"/>
+      <c r="W305" s="2"/>
+      <c r="X305" s="2"/>
+      <c r="Y305" s="2"/>
+      <c r="Z305" s="2"/>
+    </row>
+    <row r="306" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A306" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B306" s="6"/>
+      <c r="C306" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="E306" s="6"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
+      <c r="H306" s="2"/>
+      <c r="I306" s="2"/>
+      <c r="J306" s="2"/>
+      <c r="K306" s="2"/>
+      <c r="L306" s="2"/>
+      <c r="M306" s="2"/>
+      <c r="N306" s="2"/>
+      <c r="O306" s="2"/>
+      <c r="P306" s="2"/>
+      <c r="Q306" s="2"/>
+      <c r="R306" s="2"/>
+      <c r="S306" s="2"/>
+      <c r="T306" s="2"/>
+      <c r="U306" s="2"/>
+      <c r="V306" s="2"/>
+      <c r="W306" s="2"/>
+      <c r="X306" s="2"/>
+      <c r="Y306" s="2"/>
+      <c r="Z306" s="2"/>
+    </row>
+    <row r="307" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A307" s="12" t="s">
         <v>817</v>
       </c>
-      <c r="B305" s="12"/>
-      <c r="C305" s="13" t="s">
+      <c r="B307" s="12"/>
+      <c r="C307" s="13" t="s">
         <v>818</v>
       </c>
-      <c r="D305" s="12" t="s">
+      <c r="D307" s="12" t="s">
         <v>819</v>
       </c>
-      <c r="E305" s="12"/>
-      <c r="F305" s="5"/>
-      <c r="G305" s="5"/>
-      <c r="H305" s="5"/>
-      <c r="I305" s="5"/>
-      <c r="J305" s="5"/>
-      <c r="K305" s="5"/>
-      <c r="L305" s="5"/>
-      <c r="M305" s="5"/>
-      <c r="N305" s="5"/>
-      <c r="O305" s="5"/>
-      <c r="P305" s="5"/>
-      <c r="Q305" s="5"/>
-      <c r="R305" s="5"/>
-      <c r="S305" s="5"/>
-      <c r="T305" s="5"/>
-      <c r="U305" s="5"/>
-      <c r="V305" s="5"/>
-      <c r="W305" s="5"/>
-      <c r="X305" s="5"/>
-      <c r="Y305" s="5"/>
-      <c r="Z305" s="5"/>
-    </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A306" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="B306" s="12" t="s">
-        <v>821</v>
-      </c>
-      <c r="C306" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="D306" s="12" t="s">
-        <v>820</v>
-      </c>
-      <c r="E306" s="12"/>
-      <c r="F306" s="5"/>
-      <c r="G306" s="5"/>
-      <c r="H306" s="5"/>
-      <c r="I306" s="5"/>
-      <c r="J306" s="5"/>
-      <c r="K306" s="5"/>
-      <c r="L306" s="5"/>
-      <c r="M306" s="5"/>
-      <c r="N306" s="5"/>
-      <c r="O306" s="5"/>
-      <c r="P306" s="5"/>
-      <c r="Q306" s="5"/>
-      <c r="R306" s="5"/>
-      <c r="S306" s="5"/>
-      <c r="T306" s="5"/>
-      <c r="U306" s="5"/>
-      <c r="V306" s="5"/>
-      <c r="W306" s="5"/>
-      <c r="X306" s="5"/>
-      <c r="Y306" s="5"/>
-      <c r="Z306" s="5"/>
-    </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A307" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="B307" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="C307" s="7" t="s">
-        <v>825</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="E307" s="6"/>
-      <c r="F307" s="2"/>
-      <c r="G307" s="2"/>
-      <c r="H307" s="2"/>
-      <c r="I307" s="2"/>
-      <c r="J307" s="2"/>
-      <c r="K307" s="2"/>
-      <c r="L307" s="2"/>
-      <c r="M307" s="2"/>
-      <c r="N307" s="2"/>
-      <c r="O307" s="2"/>
-      <c r="P307" s="2"/>
-      <c r="Q307" s="2"/>
-      <c r="R307" s="2"/>
-      <c r="S307" s="2"/>
-      <c r="T307" s="2"/>
-      <c r="U307" s="2"/>
-      <c r="V307" s="2"/>
-      <c r="W307" s="2"/>
-      <c r="X307" s="2"/>
-      <c r="Y307" s="2"/>
-      <c r="Z307" s="2"/>
+      <c r="E307" s="12"/>
+      <c r="F307" s="5"/>
+      <c r="G307" s="5"/>
+      <c r="H307" s="5"/>
+      <c r="I307" s="5"/>
+      <c r="J307" s="5"/>
+      <c r="K307" s="5"/>
+      <c r="L307" s="5"/>
+      <c r="M307" s="5"/>
+      <c r="N307" s="5"/>
+      <c r="O307" s="5"/>
+      <c r="P307" s="5"/>
+      <c r="Q307" s="5"/>
+      <c r="R307" s="5"/>
+      <c r="S307" s="5"/>
+      <c r="T307" s="5"/>
+      <c r="U307" s="5"/>
+      <c r="V307" s="5"/>
+      <c r="W307" s="5"/>
+      <c r="X307" s="5"/>
+      <c r="Y307" s="5"/>
+      <c r="Z307" s="5"/>
     </row>
     <row r="308" spans="1:26" ht="15.75" customHeight="1">
       <c r="A308" s="12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="C308" s="13" t="s">
-        <v>828</v>
+        <v>821</v>
+      </c>
+      <c r="C308" s="14" t="s">
+        <v>822</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="E308" s="12"/>
       <c r="F308" s="5"/>
@@ -14070,14 +14078,16 @@
     </row>
     <row r="309" spans="1:26" ht="15.75" customHeight="1">
       <c r="A309" s="6" t="s">
-        <v>829</v>
-      </c>
-      <c r="B309" s="6"/>
+        <v>823</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>824</v>
+      </c>
       <c r="C309" s="7" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D309" s="6" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="2"/>
@@ -14103,53 +14113,53 @@
       <c r="Z309" s="2"/>
     </row>
     <row r="310" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A310" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="B310" s="8"/>
-      <c r="C310" s="9" t="s">
-        <v>832</v>
-      </c>
-      <c r="D310" s="54" t="s">
-        <v>831</v>
-      </c>
-      <c r="E310" s="54"/>
-      <c r="F310" s="2"/>
-      <c r="G310" s="2"/>
-      <c r="H310" s="2"/>
-      <c r="I310" s="2"/>
-      <c r="J310" s="2"/>
-      <c r="K310" s="2"/>
-      <c r="L310" s="2"/>
-      <c r="M310" s="2"/>
-      <c r="N310" s="2"/>
-      <c r="O310" s="2"/>
-      <c r="P310" s="2"/>
-      <c r="Q310" s="2"/>
-      <c r="R310" s="2"/>
-      <c r="S310" s="2"/>
-      <c r="T310" s="2"/>
-      <c r="U310" s="2"/>
-      <c r="V310" s="2"/>
-      <c r="W310" s="2"/>
-      <c r="X310" s="2"/>
-      <c r="Y310" s="2"/>
-      <c r="Z310" s="2"/>
+      <c r="A310" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="C310" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="D310" s="12" t="s">
+        <v>826</v>
+      </c>
+      <c r="E310" s="12"/>
+      <c r="F310" s="5"/>
+      <c r="G310" s="5"/>
+      <c r="H310" s="5"/>
+      <c r="I310" s="5"/>
+      <c r="J310" s="5"/>
+      <c r="K310" s="5"/>
+      <c r="L310" s="5"/>
+      <c r="M310" s="5"/>
+      <c r="N310" s="5"/>
+      <c r="O310" s="5"/>
+      <c r="P310" s="5"/>
+      <c r="Q310" s="5"/>
+      <c r="R310" s="5"/>
+      <c r="S310" s="5"/>
+      <c r="T310" s="5"/>
+      <c r="U310" s="5"/>
+      <c r="V310" s="5"/>
+      <c r="W310" s="5"/>
+      <c r="X310" s="5"/>
+      <c r="Y310" s="5"/>
+      <c r="Z310" s="5"/>
     </row>
     <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="B311" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>835</v>
-      </c>
-      <c r="D311" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="E311" s="2"/>
+        <v>829</v>
+      </c>
+      <c r="B311" s="6"/>
+      <c r="C311" s="7" t="s">
+        <v>830</v>
+      </c>
+      <c r="D311" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E311" s="6"/>
       <c r="F311" s="2"/>
       <c r="G311" s="2"/>
       <c r="H311" s="2"/>
@@ -14174,28 +14184,86 @@
     </row>
     <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="8" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B312" s="8"/>
       <c r="C312" s="9" t="s">
+        <v>832</v>
+      </c>
+      <c r="D312" s="54" t="s">
+        <v>831</v>
+      </c>
+      <c r="E312" s="54"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
+      <c r="H312" s="2"/>
+      <c r="I312" s="2"/>
+      <c r="J312" s="2"/>
+      <c r="K312" s="2"/>
+      <c r="L312" s="2"/>
+      <c r="M312" s="2"/>
+      <c r="N312" s="2"/>
+      <c r="O312" s="2"/>
+      <c r="P312" s="2"/>
+      <c r="Q312" s="2"/>
+      <c r="R312" s="2"/>
+      <c r="S312" s="2"/>
+      <c r="T312" s="2"/>
+      <c r="U312" s="2"/>
+      <c r="V312" s="2"/>
+      <c r="W312" s="2"/>
+      <c r="X312" s="2"/>
+      <c r="Y312" s="2"/>
+      <c r="Z312" s="2"/>
+    </row>
+    <row r="313" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A313" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C313" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
+      <c r="H313" s="2"/>
+      <c r="I313" s="2"/>
+      <c r="J313" s="2"/>
+      <c r="K313" s="2"/>
+      <c r="L313" s="2"/>
+      <c r="M313" s="2"/>
+      <c r="N313" s="2"/>
+      <c r="O313" s="2"/>
+      <c r="P313" s="2"/>
+      <c r="Q313" s="2"/>
+      <c r="R313" s="2"/>
+      <c r="S313" s="2"/>
+      <c r="T313" s="2"/>
+      <c r="U313" s="2"/>
+      <c r="V313" s="2"/>
+      <c r="W313" s="2"/>
+      <c r="X313" s="2"/>
+      <c r="Y313" s="2"/>
+      <c r="Z313" s="2"/>
+    </row>
+    <row r="314" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A314" s="8" t="s">
+        <v>836</v>
+      </c>
+      <c r="B314" s="8"/>
+      <c r="C314" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="D312" s="55" t="s">
+      <c r="D314" s="55" t="s">
         <v>838</v>
       </c>
-      <c r="E312" s="55"/>
-    </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A313" s="6"/>
-      <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
-      <c r="D313" s="2"/>
-    </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A314" s="6"/>
-      <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
-      <c r="D314" s="2"/>
+      <c r="E314" s="55"/>
     </row>
     <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="6"/>
@@ -19644,6 +19712,18 @@
       <c r="B1222" s="6"/>
       <c r="C1222" s="6"/>
       <c r="D1222" s="2"/>
+    </row>
+    <row r="1223" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1223" s="6"/>
+      <c r="B1223" s="6"/>
+      <c r="C1223" s="6"/>
+      <c r="D1223" s="2"/>
+    </row>
+    <row r="1224" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A1224" s="6"/>
+      <c r="B1224" s="6"/>
+      <c r="C1224" s="6"/>
+      <c r="D1224" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19799,92 +19879,93 @@
     <hyperlink ref="C195" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
     <hyperlink ref="C196" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
     <hyperlink ref="C198" r:id="rId152" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="C200" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C201" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="C202" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="C206" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="C207" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="C209" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C210" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="C211" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C212" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="C213" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C215" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="C216" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C219" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="C220" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C222" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="C223" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C224" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="C225" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="C227" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C230" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="C231" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C232" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="C234" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C235" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="C236" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C237" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="C240" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C241" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="C242" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C243" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="C244" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C245" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="C247" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C248" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="C250" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C253" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="C254" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C255" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="C256" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C258" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="C259" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="C260" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C262" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="C263" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C267" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="C268" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="C269" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C271" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="C273" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C275" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="C277" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C280" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="C281" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C284" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="C285" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C287" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="C288" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C289" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="C291" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="C292" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="C293" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="C294" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C295" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="C296" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="C297" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="C298" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="C299" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C300" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="C301" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="C302" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="C303" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="C304" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C306" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="C307" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="C309" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C310" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="C311" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="C312" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C201" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C202" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C203" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="C207" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C208" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="C210" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C211" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="C212" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C213" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C214" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C216" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="C217" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C220" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C221" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C223" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C224" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C225" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C226" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="C228" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C231" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="C232" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C233" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="C235" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C236" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="C237" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C238" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="C241" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C242" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="C243" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C244" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="C245" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C246" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="C249" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C250" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="C252" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C255" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="C256" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C257" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="C258" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C260" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="C261" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="C262" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C264" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="C265" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C269" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="C270" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="C271" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C273" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="C275" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C277" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="C279" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C282" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="C283" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C286" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="C287" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C289" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="C290" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C291" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="C293" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="C294" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="C295" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="C296" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C297" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="C298" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="C299" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="C300" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="C301" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C302" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="C303" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="C304" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="C305" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="C306" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C308" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="C309" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="C311" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C312" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="C313" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="C314" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
     <hyperlink ref="C130" r:id="rId231" xr:uid="{98DDE684-CC21-7C49-B22B-C4F92C88FD93}"/>
     <hyperlink ref="C172" r:id="rId232" xr:uid="{E941C717-9955-3748-A705-A152EB86702B}"/>
-    <hyperlink ref="C203" r:id="rId233" xr:uid="{35AE7ED9-3884-6948-9153-E51142B0BF49}"/>
+    <hyperlink ref="C204" r:id="rId233" xr:uid="{35AE7ED9-3884-6948-9153-E51142B0BF49}"/>
+    <hyperlink ref="C105" r:id="rId234" xr:uid="{6B2056CE-BB4C-D74B-A597-EA3A8C5C2030}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <tableParts count="1">
-    <tablePart r:id="rId234"/>
+    <tablePart r:id="rId235"/>
   </tableParts>
 </worksheet>
 </file>
